--- a/Precio Venta3.xlsx
+++ b/Precio Venta3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taller\Desktop\Pulperia-Ortiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="542">
   <si>
     <t>Nombre</t>
   </si>
@@ -1519,121 +1519,145 @@
     <t>Lentejas Valle Real 400g</t>
   </si>
   <si>
-    <t xml:space="preserve">Canela </t>
-  </si>
-  <si>
-    <t>gallinita color y sabor</t>
-  </si>
-  <si>
-    <t>aspirina</t>
-  </si>
-  <si>
-    <t>cepillo dientes</t>
-  </si>
-  <si>
-    <t>cepillo ropa</t>
-  </si>
-  <si>
-    <t>alvie liquid gels</t>
-  </si>
-  <si>
-    <t>jugo tomate</t>
-  </si>
-  <si>
-    <t>chile</t>
-  </si>
-  <si>
-    <t>cocoa</t>
-  </si>
-  <si>
-    <t>garbanzos</t>
-  </si>
-  <si>
-    <t>panadol alergia</t>
-  </si>
-  <si>
-    <t>filtro café</t>
-  </si>
-  <si>
-    <t>tapadulce</t>
-  </si>
-  <si>
     <t>Leche Condensada Nestle 395g 2pack</t>
   </si>
   <si>
-    <t>aceite 2l</t>
-  </si>
-  <si>
-    <t>corona 1L</t>
-  </si>
-  <si>
-    <t>maseca bolsa</t>
-  </si>
-  <si>
-    <t>harina 1k</t>
-  </si>
-  <si>
-    <t>harina 2k</t>
-  </si>
-  <si>
-    <t>pep 3l</t>
-  </si>
-  <si>
-    <t>coca paquete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocolate </t>
-  </si>
-  <si>
-    <t>fresa</t>
-  </si>
-  <si>
-    <t>3 naranja</t>
-  </si>
-  <si>
-    <t>3 kolita</t>
-  </si>
-  <si>
-    <t>3 toronja</t>
-  </si>
-  <si>
-    <t>rinso</t>
-  </si>
-  <si>
-    <t>suf</t>
-  </si>
-  <si>
-    <t>ford3</t>
-  </si>
-  <si>
-    <t>2 azul</t>
-  </si>
-  <si>
-    <t>500g</t>
-  </si>
-  <si>
-    <t>1000g</t>
-  </si>
-  <si>
-    <t>1500g</t>
-  </si>
-  <si>
-    <t>bajon zote</t>
-  </si>
-  <si>
-    <t>3 sin alas</t>
-  </si>
-  <si>
-    <t>protector saba 3</t>
-  </si>
-  <si>
-    <t>4 cucharas</t>
-  </si>
-  <si>
-    <t>2 vasos</t>
-  </si>
-  <si>
-    <t>2 platos</t>
+    <t>Canela Carton</t>
+  </si>
+  <si>
+    <t>Clavo olor Carton</t>
+  </si>
+  <si>
+    <t>Gelafina Fresa 1000g</t>
+  </si>
+  <si>
+    <t>Gelafina 80g cereza</t>
+  </si>
+  <si>
+    <t>Gelafina 80g fresa</t>
+  </si>
+  <si>
+    <t>Gelafina 80g frambueza</t>
+  </si>
+  <si>
+    <t>Harina flores 1kg</t>
+  </si>
+  <si>
+    <t>Harina flores 2kg</t>
+  </si>
+  <si>
+    <t>Maizena Duryea 95g</t>
+  </si>
+  <si>
+    <t>Masa Tortimasa paquete</t>
+  </si>
+  <si>
+    <t>Royal Carton</t>
+  </si>
+  <si>
+    <t>Vainol Ancla</t>
+  </si>
+  <si>
+    <t>Vitamaiz pequeño</t>
+  </si>
+  <si>
+    <t>Bicarbonato carton</t>
+  </si>
+  <si>
+    <t>Cocoa dulce</t>
+  </si>
+  <si>
+    <t>Caracolito Milano 3pack</t>
+  </si>
+  <si>
+    <t>Spagety Milano 4pack</t>
+  </si>
+  <si>
+    <t>Canelon Roma</t>
+  </si>
+  <si>
+    <t>Frijol Molido Negro lizano</t>
+  </si>
+  <si>
+    <t>Frijol Molido Rojo lizano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gelleta Soda pozuelo 3pack</t>
+  </si>
+  <si>
+    <t>Manteca clover 230g</t>
+  </si>
+  <si>
+    <t>Manteca corona 460g</t>
+  </si>
+  <si>
+    <t>Mantequilla caja 4 barra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galleta chiky </t>
+  </si>
+  <si>
+    <t>galleta Mantequilla Pozuelo</t>
+  </si>
+  <si>
+    <t>galleta Cremita pozuelo 3pack</t>
+  </si>
+  <si>
+    <t>galleta Maria pozuelo</t>
+  </si>
+  <si>
+    <t>tubo galleta bokita pozuelo</t>
+  </si>
+  <si>
+    <t>tubo galleta canasta pozuelo</t>
+  </si>
+  <si>
+    <t>tubo galleta cocanas pozuelo</t>
+  </si>
+  <si>
+    <t>tubo galleta Cremita pozuelo chocolate</t>
+  </si>
+  <si>
+    <t>tubo galleta Cremita pozuelo vainilla</t>
+  </si>
+  <si>
+    <t>tubo galleta Mantequilla pozuelo</t>
+  </si>
+  <si>
+    <t>Vinagre oscuro viena botella</t>
+  </si>
+  <si>
+    <t>Vinagre Claro viena botella</t>
+  </si>
+  <si>
+    <t>Avena Hojuela Quaker 180g</t>
+  </si>
+  <si>
+    <t>Avena Hojuela Quaker 360g</t>
+  </si>
+  <si>
+    <t>Concentrado Gato maxi cat 500g</t>
+  </si>
+  <si>
+    <t>Concentrado Perro maxi dog</t>
+  </si>
+  <si>
+    <t>Jalea Fresa Ujarras paquete 225g</t>
+  </si>
+  <si>
+    <t>Jalea Guayaba Ujarras paquete 225g</t>
+  </si>
+  <si>
+    <t>Jalea Mora Ujarras paquete 225g</t>
+  </si>
+  <si>
+    <t>Jalea Piña Ujarras paquete 225g</t>
+  </si>
+  <si>
+    <t>Café 1820 250g</t>
+  </si>
+  <si>
+    <t>Café Volio 250g</t>
   </si>
 </sst>
 </file>
@@ -11490,10 +11514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11531,27 +11555,24 @@
       <c r="C2" s="3">
         <v>244</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
       <c r="E2" s="6">
         <f>D2*C2</f>
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>439</v>
       </c>
       <c r="G2" s="6">
-        <f>SUM(E2:E405)</f>
-        <v>19217</v>
+        <f>SUM(E2:E408)</f>
+        <v>0</v>
       </c>
       <c r="H2" s="6">
         <f>C2*A2</f>
         <v>1220</v>
       </c>
       <c r="I2" s="6">
-        <f>SUM(H2:H365)</f>
-        <v>203666</v>
+        <f>SUM(H2:H368)</f>
+        <v>275096</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -11565,11 +11586,11 @@
         <v>824</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E74" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E76" si="0">D3*C3</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H68" si="1">C3*A3</f>
+        <f t="shared" ref="H3:H70" si="1">C3*A3</f>
         <v>29664</v>
       </c>
     </row>
@@ -11591,12 +11612,6 @@
         <f t="shared" si="1"/>
         <v>19776</v>
       </c>
-      <c r="J4" t="s">
-        <v>496</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -11616,12 +11631,6 @@
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="J5" t="s">
-        <v>497</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -11641,12 +11650,6 @@
         <f t="shared" si="1"/>
         <v>1242</v>
       </c>
-      <c r="J6" t="s">
-        <v>498</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -11658,22 +11661,13 @@
       <c r="C7" s="3">
         <v>167</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>1670</v>
-      </c>
-      <c r="J7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -11694,12 +11688,6 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="J8" t="s">
-        <v>500</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -11719,15 +11707,6 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="J9" t="s">
-        <v>501</v>
-      </c>
-      <c r="K9" t="s">
-        <v>502</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
       <c r="M9">
         <v>3</v>
       </c>
@@ -11750,12 +11729,6 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="J10" t="s">
-        <v>503</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -11775,12 +11748,6 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="J11" t="s">
-        <v>504</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -11800,12 +11767,6 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="J12" t="s">
-        <v>505</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -11825,12 +11786,6 @@
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
-      <c r="J13" t="s">
-        <v>506</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -11842,22 +11797,13 @@
       <c r="C14" s="3">
         <v>291</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
         <v>873</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>873</v>
-      </c>
-      <c r="J14" t="s">
-        <v>507</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -11878,12 +11824,6 @@
         <f t="shared" si="1"/>
         <v>2204</v>
       </c>
-      <c r="J15" t="s">
-        <v>509</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -11903,14 +11843,8 @@
         <f t="shared" si="1"/>
         <v>2955</v>
       </c>
-      <c r="J16" t="s">
-        <v>510</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>3</v>
       </c>
@@ -11920,25 +11854,16 @@
       <c r="C17" s="3">
         <v>494</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>1482</v>
       </c>
-      <c r="J17" t="s">
-        <v>511</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>3</v>
       </c>
@@ -11956,14 +11881,8 @@
         <f t="shared" si="1"/>
         <v>1398</v>
       </c>
-      <c r="J18" t="s">
-        <v>512</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>4</v>
       </c>
@@ -11981,14 +11900,8 @@
         <f t="shared" si="1"/>
         <v>3284</v>
       </c>
-      <c r="J19" t="s">
-        <v>513</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>3</v>
       </c>
@@ -12006,14 +11919,8 @@
         <f t="shared" si="1"/>
         <v>924</v>
       </c>
-      <c r="J20" t="s">
-        <v>514</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>4</v>
       </c>
@@ -12031,14 +11938,8 @@
         <f t="shared" si="1"/>
         <v>2272</v>
       </c>
-      <c r="J21" t="s">
-        <v>515</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>3</v>
       </c>
@@ -12057,7 +11958,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>4</v>
       </c>
@@ -12076,7 +11977,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>4</v>
       </c>
@@ -12095,7 +11996,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -12114,7 +12015,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>4</v>
       </c>
@@ -12130,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>8</v>
       </c>
@@ -12140,19 +12041,16 @@
       <c r="C27" s="3">
         <v>656</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>1312</v>
+        <v>0</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>5248</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>8</v>
       </c>
@@ -12171,7 +12069,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>6</v>
       </c>
@@ -12190,7 +12088,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>6</v>
       </c>
@@ -12209,7 +12107,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>8</v>
       </c>
@@ -12228,7 +12126,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>8</v>
       </c>
@@ -12328,7 +12226,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C37" s="3">
         <v>1708</v>
@@ -12634,12 +12532,9 @@
       <c r="C53" s="3">
         <v>685</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
@@ -12685,369 +12580,432 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
+        <v>496</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1580</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="1"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1580</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="1"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1359</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="1"/>
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>499</v>
+      </c>
+      <c r="C59" s="3">
+        <v>264</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C60" s="3">
+        <v>264</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>501</v>
+      </c>
+      <c r="C61" s="3">
+        <v>264</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>502</v>
+      </c>
+      <c r="C62" s="3">
+        <v>579</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="1"/>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1095</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="1"/>
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>504</v>
+      </c>
+      <c r="C64" s="3">
+        <v>520</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <f t="shared" si="1"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>505</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1006</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" si="1"/>
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>506</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1580</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <f t="shared" si="1"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" s="3">
+        <v>556</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="1"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>508</v>
+      </c>
+      <c r="C68" s="3">
+        <v>299</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>509</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1580</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="1"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>510</v>
+      </c>
+      <c r="C70" s="3">
+        <v>494</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="1"/>
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>513</v>
+      </c>
+      <c r="C71" s="3">
+        <v>630</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <f t="shared" ref="H71:H135" si="2">C71*A71</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>511</v>
+      </c>
+      <c r="C72" s="3">
+        <v>576</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>512</v>
+      </c>
+      <c r="C73" s="3">
+        <v>767</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" si="2"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="3">
+        <v>456</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="2"/>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3">
+        <v>460</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C76" s="3">
         <v>495</v>
       </c>
-      <c r="C56" s="3">
-        <v>131</v>
-      </c>
-      <c r="E56" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="3">
-        <v>131</v>
-      </c>
-      <c r="E57" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1358</v>
-      </c>
-      <c r="E58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="3">
-        <v>263</v>
-      </c>
-      <c r="E59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="3">
-        <v>578</v>
-      </c>
-      <c r="E60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1095</v>
-      </c>
-      <c r="E61" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="3">
-        <v>519</v>
-      </c>
-      <c r="E62" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1005</v>
-      </c>
-      <c r="E63" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="3">
-        <v>131</v>
-      </c>
-      <c r="E64" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="3">
-        <v>555</v>
-      </c>
-      <c r="E65" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="3">
-        <v>298</v>
-      </c>
-      <c r="E66" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="3">
-        <v>131</v>
-      </c>
-      <c r="E67" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="3">
-        <v>493</v>
-      </c>
-      <c r="D68">
+      <c r="E76" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
         <v>2</v>
       </c>
-      <c r="E68" s="6">
-        <f t="shared" si="0"/>
-        <v>986</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="3">
-        <v>629</v>
-      </c>
-      <c r="E69" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H132" si="2">C69*A69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="3">
-        <v>191</v>
-      </c>
-      <c r="E70" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="3">
-        <v>255</v>
-      </c>
-      <c r="E71" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="3">
-        <v>455</v>
-      </c>
-      <c r="E72" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="3">
-        <v>460</v>
-      </c>
-      <c r="E73" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="3">
-        <v>494</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" s="6">
-        <f t="shared" si="0"/>
-        <v>1976</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="3">
-        <v>494</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" ref="E75:E138" si="3">D75*C75</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="3">
-        <v>288</v>
-      </c>
-      <c r="E76" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="C77" s="3">
-        <v>204</v>
+        <v>495</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E77:E141" si="3">D77*C77</f>
         <v>0</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <v>2</v>
+      </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="C78" s="3">
-        <v>375</v>
+        <v>866</v>
       </c>
       <c r="E78" s="6">
         <f t="shared" si="3"/>
@@ -13055,15 +13013,18 @@
       </c>
       <c r="H78" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>5</v>
+      </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="C79" s="3">
-        <v>741</v>
+        <v>205</v>
       </c>
       <c r="E79" s="6">
         <f t="shared" si="3"/>
@@ -13071,15 +13032,18 @@
       </c>
       <c r="H79" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <v>8</v>
+      </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>518</v>
       </c>
       <c r="C80" s="3">
-        <v>552</v>
+        <v>376</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" si="3"/>
@@ -13087,15 +13051,18 @@
       </c>
       <c r="H80" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>2</v>
+      </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>519</v>
       </c>
       <c r="C81" s="3">
-        <v>1352</v>
+        <v>742</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="3"/>
@@ -13103,15 +13070,18 @@
       </c>
       <c r="H81" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>2</v>
+      </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C82" s="3">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="3"/>
@@ -13119,15 +13089,18 @@
       </c>
       <c r="H82" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>2</v>
+      </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>520</v>
       </c>
       <c r="C83" s="3">
-        <v>1212</v>
+        <v>1352</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="3"/>
@@ -13135,15 +13108,18 @@
       </c>
       <c r="H83" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>2</v>
+      </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>522</v>
       </c>
       <c r="C84" s="3">
-        <v>1082</v>
+        <v>1395</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="3"/>
@@ -13151,15 +13127,18 @@
       </c>
       <c r="H84" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
+        <v>2</v>
+      </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>521</v>
       </c>
       <c r="C85" s="3">
-        <v>305</v>
+        <v>1213</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="3"/>
@@ -13167,15 +13146,18 @@
       </c>
       <c r="H85" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>2</v>
+      </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="C86" s="3">
-        <v>429</v>
+        <v>1083</v>
       </c>
       <c r="E86" s="6">
         <f t="shared" si="3"/>
@@ -13183,15 +13165,18 @@
       </c>
       <c r="H86" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>2</v>
+      </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>524</v>
       </c>
       <c r="C87" s="3">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" si="3"/>
@@ -13199,15 +13184,18 @@
       </c>
       <c r="H87" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>2</v>
+      </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="C88" s="3">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" si="3"/>
@@ -13215,15 +13203,18 @@
       </c>
       <c r="H88" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>2</v>
+      </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>526</v>
       </c>
       <c r="C89" s="3">
-        <v>530</v>
+        <v>409</v>
       </c>
       <c r="E89" s="6">
         <f t="shared" si="3"/>
@@ -13231,15 +13222,18 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>2</v>
+      </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>527</v>
       </c>
       <c r="C90" s="3">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="E90" s="6">
         <f t="shared" si="3"/>
@@ -13247,15 +13241,18 @@
       </c>
       <c r="H90" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>2</v>
+      </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="C91" s="3">
-        <v>588</v>
+        <v>340</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" si="3"/>
@@ -13263,15 +13260,18 @@
       </c>
       <c r="H91" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>2</v>
+      </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
       <c r="C92" s="3">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="E92" s="6">
         <f t="shared" si="3"/>
@@ -13279,15 +13279,18 @@
       </c>
       <c r="H92" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>2</v>
+      </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>530</v>
       </c>
       <c r="C93" s="3">
-        <v>707</v>
+        <v>409</v>
       </c>
       <c r="E93" s="6">
         <f t="shared" si="3"/>
@@ -13295,53 +13298,56 @@
       </c>
       <c r="H93" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>2</v>
+      </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>531</v>
       </c>
       <c r="C94" s="3">
-        <v>1162</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
+        <v>589</v>
       </c>
       <c r="E94" s="6">
         <f t="shared" si="3"/>
-        <v>1162</v>
+        <v>0</v>
       </c>
       <c r="H94" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>3</v>
+      </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>532</v>
       </c>
       <c r="C95" s="3">
-        <v>1190</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="E95" s="6">
         <f t="shared" si="3"/>
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="H95" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>4</v>
+      </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="C96" s="3">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" si="3"/>
@@ -13349,15 +13355,18 @@
       </c>
       <c r="H96" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>6</v>
+      </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>540</v>
       </c>
       <c r="C97" s="3">
-        <v>931</v>
+        <v>1163</v>
       </c>
       <c r="E97" s="6">
         <f t="shared" si="3"/>
@@ -13365,15 +13374,18 @@
       </c>
       <c r="H97" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>4</v>
+      </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>541</v>
       </c>
       <c r="C98" s="3">
-        <v>1099</v>
+        <v>1191</v>
       </c>
       <c r="E98" s="6">
         <f t="shared" si="3"/>
@@ -13381,15 +13393,15 @@
       </c>
       <c r="H98" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C99" s="3">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E99" s="6">
         <f t="shared" si="3"/>
@@ -13400,12 +13412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C100" s="3">
-        <v>791</v>
+        <v>932</v>
       </c>
       <c r="E100" s="6">
         <f t="shared" si="3"/>
@@ -13416,12 +13428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>65</v>
+        <v>535</v>
       </c>
       <c r="C101" s="3">
-        <v>592</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="6">
         <f t="shared" si="3"/>
@@ -13432,12 +13444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>66</v>
+        <v>534</v>
       </c>
       <c r="C102" s="3">
-        <v>463</v>
+        <v>749</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" si="3"/>
@@ -13448,12 +13460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C103" s="3">
-        <v>592</v>
+        <v>792</v>
       </c>
       <c r="E103" s="6">
         <f t="shared" si="3"/>
@@ -13464,12 +13476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>68</v>
+        <v>536</v>
       </c>
       <c r="C104" s="3">
-        <v>463</v>
+        <v>593</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" si="3"/>
@@ -13480,31 +13492,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>69</v>
+        <v>537</v>
       </c>
       <c r="C105" s="3">
-        <v>910</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
+        <v>464</v>
       </c>
       <c r="E105" s="6">
         <f t="shared" si="3"/>
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="H105" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>70</v>
+        <v>538</v>
       </c>
       <c r="C106" s="3">
-        <v>505</v>
+        <v>593</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" si="3"/>
@@ -13515,12 +13524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>71</v>
+        <v>539</v>
       </c>
       <c r="C107" s="3">
-        <v>136</v>
+        <v>464</v>
       </c>
       <c r="E107" s="6">
         <f t="shared" si="3"/>
@@ -13531,12 +13540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C108" s="3">
-        <v>293</v>
+        <v>910</v>
       </c>
       <c r="E108" s="6">
         <f t="shared" si="3"/>
@@ -13547,12 +13556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C109" s="3">
-        <v>222</v>
+        <v>505</v>
       </c>
       <c r="E109" s="6">
         <f t="shared" si="3"/>
@@ -13563,12 +13572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C110" s="3">
-        <v>474</v>
+        <v>136</v>
       </c>
       <c r="E110" s="6">
         <f t="shared" si="3"/>
@@ -13579,12 +13588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C111" s="3">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E111" s="6">
         <f t="shared" si="3"/>
@@ -13594,19 +13603,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>516</v>
-      </c>
-      <c r="J111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C112" s="3">
-        <v>621</v>
+        <v>222</v>
       </c>
       <c r="E112" s="6">
         <f t="shared" si="3"/>
@@ -13616,16 +13619,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C113" s="3">
-        <v>1569</v>
+        <v>474</v>
       </c>
       <c r="E113" s="6">
         <f t="shared" si="3"/>
@@ -13636,12 +13636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C114" s="3">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="E114" s="6">
         <f t="shared" si="3"/>
@@ -13652,31 +13652,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C115" s="3">
-        <v>760</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
+        <v>621</v>
       </c>
       <c r="E115" s="6">
         <f t="shared" si="3"/>
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="H115" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C116" s="3">
-        <v>1388</v>
+        <v>1569</v>
       </c>
       <c r="E116" s="6">
         <f t="shared" si="3"/>
@@ -13687,12 +13684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C117" s="3">
-        <v>1585</v>
+        <v>355</v>
       </c>
       <c r="E117" s="6">
         <f t="shared" si="3"/>
@@ -13703,12 +13700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C118" s="3">
-        <v>1003</v>
+        <v>760</v>
       </c>
       <c r="E118" s="6">
         <f t="shared" si="3"/>
@@ -13719,12 +13716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C119" s="3">
-        <v>670</v>
+        <v>1388</v>
       </c>
       <c r="E119" s="6">
         <f t="shared" si="3"/>
@@ -13735,12 +13732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C120" s="3">
-        <v>291</v>
+        <v>1585</v>
       </c>
       <c r="E120" s="6">
         <f t="shared" si="3"/>
@@ -13750,22 +13747,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>518</v>
-      </c>
-      <c r="J120" t="s">
-        <v>519</v>
-      </c>
-      <c r="K120" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C121" s="3">
-        <v>132</v>
+        <v>1003</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="3"/>
@@ -13776,12 +13764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C122" s="3">
-        <v>365</v>
+        <v>670</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="3"/>
@@ -13792,12 +13780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" s="3">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" si="3"/>
@@ -13807,22 +13795,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J123" t="s">
-        <v>525</v>
-      </c>
-      <c r="K123" t="s">
-        <v>526</v>
-      </c>
-      <c r="L123" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C124" s="3">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="E124" s="6">
         <f t="shared" si="3"/>
@@ -13832,25 +13811,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I124" t="s">
-        <v>521</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="K124">
-        <v>2</v>
-      </c>
-      <c r="L124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C125" s="3">
-        <v>1048</v>
+        <v>365</v>
       </c>
       <c r="E125" s="6">
         <f t="shared" si="3"/>
@@ -13860,25 +13827,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I125" t="s">
-        <v>522</v>
-      </c>
-      <c r="J125" t="s">
-        <v>524</v>
-      </c>
-      <c r="K125">
-        <v>3</v>
-      </c>
-      <c r="L125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C126" s="3">
-        <v>648</v>
+        <v>220</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" si="3"/>
@@ -13888,25 +13843,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I126" t="s">
-        <v>523</v>
-      </c>
-      <c r="J126">
-        <v>2</v>
-      </c>
-      <c r="K126">
-        <v>3</v>
-      </c>
-      <c r="L126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C127" s="3">
-        <v>1235</v>
+        <v>553</v>
       </c>
       <c r="E127" s="6">
         <f t="shared" si="3"/>
@@ -13917,12 +13860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C128" s="3">
-        <v>296</v>
+        <v>1048</v>
       </c>
       <c r="E128" s="6">
         <f t="shared" si="3"/>
@@ -13933,12 +13876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C129" s="3">
-        <v>399</v>
+        <v>648</v>
       </c>
       <c r="E129" s="6">
         <f t="shared" si="3"/>
@@ -13948,35 +13891,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C130" s="3">
-        <v>420</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
+        <v>1235</v>
       </c>
       <c r="E130" s="6">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="H130" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C131" s="3">
-        <v>791</v>
+        <v>296</v>
       </c>
       <c r="E131" s="6">
         <f t="shared" si="3"/>
@@ -13987,12 +13924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C132" s="3">
-        <v>707</v>
+        <v>399</v>
       </c>
       <c r="E132" s="6">
         <f t="shared" si="3"/>
@@ -14003,76 +13940,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C133" s="3">
-        <v>1435</v>
+        <v>420</v>
       </c>
       <c r="E133" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" ref="H133:H196" si="4">C133*A133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C134" s="3">
-        <v>3617</v>
+        <v>791</v>
       </c>
       <c r="E134" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C135" s="3">
-        <v>895</v>
+        <v>707</v>
       </c>
       <c r="E135" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H135" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="3">
-        <v>1350</v>
+        <v>1435</v>
       </c>
       <c r="E136" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H136" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H136:H199" si="4">C136*A136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C137" s="3">
-        <v>2081</v>
+        <v>3617</v>
       </c>
       <c r="E137" s="6">
         <f t="shared" si="3"/>
@@ -14083,12 +14020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C138" s="3">
-        <v>1652</v>
+        <v>895</v>
       </c>
       <c r="E138" s="6">
         <f t="shared" si="3"/>
@@ -14099,15 +14036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C139" s="3">
-        <v>1191</v>
+        <v>1350</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" ref="E139:E202" si="5">D139*C139</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H139" s="6">
@@ -14115,15 +14052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C140" s="3">
-        <v>1329</v>
+        <v>2081</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H140" s="6">
@@ -14131,15 +14068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C141" s="3">
-        <v>382</v>
+        <v>1652</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H141" s="6">
@@ -14147,50 +14084,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C142" s="3">
-        <v>406</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
+        <v>1191</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" si="5"/>
-        <v>406</v>
+        <f t="shared" ref="E142:E205" si="5">D142*C142</f>
+        <v>0</v>
       </c>
       <c r="H142" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C143" s="3">
-        <v>768</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
+        <v>1329</v>
       </c>
       <c r="E143" s="6">
         <f t="shared" si="5"/>
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="H143" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C144" s="3">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="E144" s="6">
         <f t="shared" si="5"/>
@@ -14201,12 +14132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C145" s="3">
-        <v>655</v>
+        <v>406</v>
       </c>
       <c r="E145" s="6">
         <f t="shared" si="5"/>
@@ -14217,12 +14148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C146" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="E146" s="6">
         <f t="shared" si="5"/>
@@ -14233,12 +14164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C147" s="3">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="E147" s="6">
         <f t="shared" si="5"/>
@@ -14249,12 +14180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="3">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E148" s="6">
         <f t="shared" si="5"/>
@@ -14265,12 +14196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C149" s="3">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="E149" s="6">
         <f t="shared" si="5"/>
@@ -14281,12 +14212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C150" s="3">
-        <v>1067</v>
+        <v>192</v>
       </c>
       <c r="E150" s="6">
         <f t="shared" si="5"/>
@@ -14297,12 +14228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C151" s="3">
-        <v>15</v>
+        <v>705</v>
       </c>
       <c r="E151" s="6">
         <f t="shared" si="5"/>
@@ -14313,12 +14244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C152" s="3">
-        <v>1069</v>
+        <v>343</v>
       </c>
       <c r="E152" s="6">
         <f t="shared" si="5"/>
@@ -14329,12 +14260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C153" s="3">
-        <v>602</v>
+        <v>1067</v>
       </c>
       <c r="E153" s="6">
         <f t="shared" si="5"/>
@@ -14344,19 +14275,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I153" t="s">
-        <v>529</v>
-      </c>
-      <c r="J153" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C154" s="3">
-        <v>4148</v>
+        <v>15</v>
       </c>
       <c r="E154" s="6">
         <f t="shared" si="5"/>
@@ -14366,16 +14291,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J154" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C155" s="3">
-        <v>200</v>
+        <v>1069</v>
       </c>
       <c r="E155" s="6">
         <f t="shared" si="5"/>
@@ -14385,16 +14307,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J155" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C156" s="3">
-        <v>104</v>
+        <v>602</v>
       </c>
       <c r="E156" s="6">
         <f t="shared" si="5"/>
@@ -14404,16 +14323,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J156" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C157" s="3">
-        <v>21</v>
+        <v>4148</v>
       </c>
       <c r="E157" s="6">
         <f t="shared" si="5"/>
@@ -14424,12 +14340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C158" s="3">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E158" s="6">
         <f t="shared" si="5"/>
@@ -14440,12 +14356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C159" s="3">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="E159" s="6">
         <f t="shared" si="5"/>
@@ -14456,12 +14372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C160" s="3">
-        <v>1270</v>
+        <v>21</v>
       </c>
       <c r="E160" s="6">
         <f t="shared" si="5"/>
@@ -14474,10 +14390,10 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C161" s="3">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="E161" s="6">
         <f t="shared" si="5"/>
@@ -14490,10 +14406,10 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C162" s="3">
-        <v>1926</v>
+        <v>152</v>
       </c>
       <c r="E162" s="6">
         <f t="shared" si="5"/>
@@ -14506,10 +14422,10 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C163" s="3">
-        <v>154</v>
+        <v>1270</v>
       </c>
       <c r="E163" s="6">
         <f t="shared" si="5"/>
@@ -14522,10 +14438,10 @@
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C164" s="3">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="E164" s="6">
         <f t="shared" si="5"/>
@@ -14538,10 +14454,10 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C165" s="3">
-        <v>234</v>
+        <v>1926</v>
       </c>
       <c r="E165" s="6">
         <f t="shared" si="5"/>
@@ -14554,10 +14470,10 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C166" s="3">
-        <v>1192</v>
+        <v>154</v>
       </c>
       <c r="E166" s="6">
         <f t="shared" si="5"/>
@@ -14570,10 +14486,10 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C167" s="3">
-        <v>1544</v>
+        <v>200</v>
       </c>
       <c r="E167" s="6">
         <f t="shared" si="5"/>
@@ -14586,10 +14502,10 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C168" s="3">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="E168" s="6">
         <f t="shared" si="5"/>
@@ -14602,10 +14518,10 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C169" s="3">
-        <v>128</v>
+        <v>1192</v>
       </c>
       <c r="E169" s="6">
         <f t="shared" si="5"/>
@@ -14618,10 +14534,10 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C170" s="3">
-        <v>116</v>
+        <v>1544</v>
       </c>
       <c r="E170" s="6">
         <f t="shared" si="5"/>
@@ -14634,10 +14550,10 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C171" s="3">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E171" s="6">
         <f t="shared" si="5"/>
@@ -14650,10 +14566,10 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C172" s="3">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="E172" s="6">
         <f t="shared" si="5"/>
@@ -14666,10 +14582,10 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="C173" s="3">
-        <v>556</v>
+        <v>116</v>
       </c>
       <c r="E173" s="6">
         <f t="shared" si="5"/>
@@ -14682,10 +14598,10 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C174" s="3">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="E174" s="6">
         <f t="shared" si="5"/>
@@ -14698,10 +14614,10 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C175" s="3">
-        <v>449</v>
+        <v>70</v>
       </c>
       <c r="E175" s="6">
         <f t="shared" si="5"/>
@@ -14714,10 +14630,10 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C176" s="3">
-        <v>208</v>
+        <v>556</v>
       </c>
       <c r="E176" s="6">
         <f t="shared" si="5"/>
@@ -14730,10 +14646,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C177" s="3">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="E177" s="6">
         <f t="shared" si="5"/>
@@ -14746,10 +14662,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C178" s="3">
-        <v>861</v>
+        <v>449</v>
       </c>
       <c r="E178" s="6">
         <f t="shared" si="5"/>
@@ -14762,10 +14678,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C179" s="3">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E179" s="6">
         <f t="shared" si="5"/>
@@ -14778,10 +14694,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C180" s="3">
-        <v>1933</v>
+        <v>403</v>
       </c>
       <c r="E180" s="6">
         <f t="shared" si="5"/>
@@ -14794,10 +14710,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C181" s="3">
-        <v>436</v>
+        <v>861</v>
       </c>
       <c r="E181" s="6">
         <f t="shared" si="5"/>
@@ -14810,10 +14726,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C182" s="3">
-        <v>423</v>
+        <v>219</v>
       </c>
       <c r="E182" s="6">
         <f t="shared" si="5"/>
@@ -14826,10 +14742,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C183" s="3">
-        <v>269</v>
+        <v>1933</v>
       </c>
       <c r="E183" s="6">
         <f t="shared" si="5"/>
@@ -14842,10 +14758,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C184" s="3">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E184" s="6">
         <f t="shared" si="5"/>
@@ -14858,10 +14774,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C185" s="3">
-        <v>174</v>
+        <v>423</v>
       </c>
       <c r="E185" s="6">
         <f t="shared" si="5"/>
@@ -14873,9 +14789,12 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="23"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="8"/>
+      <c r="B186" t="s">
+        <v>203</v>
+      </c>
+      <c r="C186" s="3">
+        <v>269</v>
+      </c>
       <c r="E186" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14887,10 +14806,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C187" s="3">
-        <v>1465</v>
+        <v>447</v>
       </c>
       <c r="E187" s="6">
         <f t="shared" si="5"/>
@@ -14903,10 +14822,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C188" s="3">
-        <v>933</v>
+        <v>174</v>
       </c>
       <c r="E188" s="6">
         <f t="shared" si="5"/>
@@ -14918,12 +14837,9 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>168</v>
-      </c>
-      <c r="C189" s="3">
-        <v>825</v>
-      </c>
+      <c r="A189" s="23"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="8"/>
       <c r="E189" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14935,10 +14851,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C190" s="3">
-        <v>2230</v>
+        <v>1465</v>
       </c>
       <c r="E190" s="6">
         <f t="shared" si="5"/>
@@ -14951,10 +14867,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C191" s="3">
-        <v>385</v>
+        <v>933</v>
       </c>
       <c r="E191" s="6">
         <f t="shared" si="5"/>
@@ -14967,10 +14883,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C192" s="3">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="E192" s="6">
         <f t="shared" si="5"/>
@@ -14983,10 +14899,10 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C193" s="3">
-        <v>4174</v>
+        <v>2230</v>
       </c>
       <c r="E193" s="6">
         <f t="shared" si="5"/>
@@ -14999,10 +14915,10 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C194" s="3">
-        <v>3975</v>
+        <v>385</v>
       </c>
       <c r="E194" s="6">
         <f t="shared" si="5"/>
@@ -15015,10 +14931,10 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C195" s="3">
-        <v>1156</v>
+        <v>650</v>
       </c>
       <c r="E195" s="6">
         <f t="shared" si="5"/>
@@ -15031,10 +14947,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C196" s="3">
-        <v>370</v>
+        <v>4174</v>
       </c>
       <c r="E196" s="6">
         <f t="shared" si="5"/>
@@ -15047,74 +14963,74 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C197" s="3">
-        <v>1405</v>
+        <v>3975</v>
       </c>
       <c r="E197" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H197" s="6">
-        <f t="shared" ref="H197:H260" si="6">C197*A197</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C198" s="3">
-        <v>792</v>
+        <v>1156</v>
       </c>
       <c r="E198" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H198" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C199" s="3">
-        <v>4643</v>
+        <v>370</v>
       </c>
       <c r="E199" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H199" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C200" s="3">
-        <v>4335</v>
+        <v>1405</v>
       </c>
       <c r="E200" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H200" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H200:H263" si="6">C200*A200</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C201" s="3">
-        <v>4646</v>
+        <v>792</v>
       </c>
       <c r="E201" s="6">
         <f t="shared" si="5"/>
@@ -15127,10 +15043,10 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C202" s="3">
-        <v>5481</v>
+        <v>4643</v>
       </c>
       <c r="E202" s="6">
         <f t="shared" si="5"/>
@@ -15143,13 +15059,13 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C203" s="3">
-        <v>1195</v>
+        <v>4335</v>
       </c>
       <c r="E203" s="6">
-        <f t="shared" ref="E203:E266" si="7">D203*C203</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H203" s="6">
@@ -15159,13 +15075,13 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C204" s="3">
-        <v>1951</v>
+        <v>4646</v>
       </c>
       <c r="E204" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H204" s="6">
@@ -15175,13 +15091,13 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C205" s="3">
-        <v>2770</v>
+        <v>5481</v>
       </c>
       <c r="E205" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H205" s="6">
@@ -15191,13 +15107,13 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C206" s="3">
-        <v>996</v>
+        <v>1195</v>
       </c>
       <c r="E206" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E206:E269" si="7">D206*C206</f>
         <v>0</v>
       </c>
       <c r="H206" s="6">
@@ -15207,10 +15123,10 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C207" s="3">
-        <v>409</v>
+        <v>1951</v>
       </c>
       <c r="E207" s="6">
         <f t="shared" si="7"/>
@@ -15223,10 +15139,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C208" s="3">
-        <v>409</v>
+        <v>2770</v>
       </c>
       <c r="E208" s="6">
         <f t="shared" si="7"/>
@@ -15239,10 +15155,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C209" s="3">
-        <v>525</v>
+        <v>996</v>
       </c>
       <c r="E209" s="6">
         <f t="shared" si="7"/>
@@ -15255,10 +15171,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C210" s="3">
-        <v>654</v>
+        <v>409</v>
       </c>
       <c r="E210" s="6">
         <f t="shared" si="7"/>
@@ -15271,10 +15187,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C211" s="3">
-        <v>623</v>
+        <v>409</v>
       </c>
       <c r="E211" s="6">
         <f t="shared" si="7"/>
@@ -15286,9 +15202,12 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="23"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="8"/>
+      <c r="B212" t="s">
+        <v>190</v>
+      </c>
+      <c r="C212" s="3">
+        <v>525</v>
+      </c>
       <c r="E212" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -15300,10 +15219,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C213" s="3">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="E213" s="6">
         <f t="shared" si="7"/>
@@ -15316,10 +15235,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C214" s="3">
-        <v>83</v>
+        <v>623</v>
       </c>
       <c r="E214" s="6">
         <f t="shared" si="7"/>
@@ -15331,12 +15250,9 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>207</v>
-      </c>
-      <c r="C215" s="3">
-        <v>450</v>
-      </c>
+      <c r="A215" s="23"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="8"/>
       <c r="E215" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -15348,10 +15264,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C216" s="3">
-        <v>1925</v>
+        <v>75</v>
       </c>
       <c r="E216" s="6">
         <f t="shared" si="7"/>
@@ -15364,10 +15280,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C217" s="3">
-        <v>750</v>
+        <v>83</v>
       </c>
       <c r="E217" s="6">
         <f t="shared" si="7"/>
@@ -15380,10 +15296,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C218" s="3">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E218" s="6">
         <f t="shared" si="7"/>
@@ -15396,10 +15312,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C219" s="3">
-        <v>425</v>
+        <v>1925</v>
       </c>
       <c r="E219" s="6">
         <f t="shared" si="7"/>
@@ -15412,10 +15328,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C220" s="3">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E220" s="6">
         <f t="shared" si="7"/>
@@ -15428,10 +15344,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C221" s="3">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E221" s="6">
         <f t="shared" si="7"/>
@@ -15444,10 +15360,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C222" s="3">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E222" s="6">
         <f t="shared" si="7"/>
@@ -15460,10 +15376,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C223" s="3">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E223" s="6">
         <f t="shared" si="7"/>
@@ -15476,10 +15392,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C224" s="3">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E224" s="6">
         <f t="shared" si="7"/>
@@ -15492,10 +15408,10 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C225" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E225" s="6">
         <f t="shared" si="7"/>
@@ -15508,10 +15424,10 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C226" s="3">
-        <v>1275</v>
+        <v>250</v>
       </c>
       <c r="E226" s="6">
         <f t="shared" si="7"/>
@@ -15524,10 +15440,10 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C227" s="3">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E227" s="6">
         <f t="shared" si="7"/>
@@ -15540,10 +15456,10 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C228" s="3">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="E228" s="6">
         <f t="shared" si="7"/>
@@ -15556,10 +15472,10 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C229" s="3">
-        <v>125</v>
+        <v>1275</v>
       </c>
       <c r="E229" s="6">
         <f t="shared" si="7"/>
@@ -15572,10 +15488,10 @@
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C230" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E230" s="6">
         <f t="shared" si="7"/>
@@ -15588,10 +15504,10 @@
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C231" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E231" s="6">
         <f t="shared" si="7"/>
@@ -15604,10 +15520,10 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C232" s="3">
-        <v>1650</v>
+        <v>125</v>
       </c>
       <c r="E232" s="6">
         <f t="shared" si="7"/>
@@ -15620,10 +15536,10 @@
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C233" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E233" s="6">
         <f t="shared" si="7"/>
@@ -15636,10 +15552,10 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C234" s="3">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E234" s="6">
         <f t="shared" si="7"/>
@@ -15652,10 +15568,10 @@
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C235" s="3">
-        <v>650</v>
+        <v>1650</v>
       </c>
       <c r="E235" s="6">
         <f t="shared" si="7"/>
@@ -15668,10 +15584,10 @@
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C236" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E236" s="6">
         <f t="shared" si="7"/>
@@ -15684,10 +15600,10 @@
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C237" s="3">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E237" s="6">
         <f t="shared" si="7"/>
@@ -15700,10 +15616,10 @@
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C238" s="3">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="E238" s="6">
         <f t="shared" si="7"/>
@@ -15716,10 +15632,10 @@
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C239" s="3">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="E239" s="6">
         <f t="shared" si="7"/>
@@ -15732,10 +15648,10 @@
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C240" s="3">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="E240" s="6">
         <f t="shared" si="7"/>
@@ -15748,10 +15664,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C241" s="3">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="E241" s="6">
         <f t="shared" si="7"/>
@@ -15763,9 +15679,12 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="24"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="14"/>
+      <c r="B242" t="s">
+        <v>231</v>
+      </c>
+      <c r="C242" s="3">
+        <v>675</v>
+      </c>
       <c r="E242" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -15777,10 +15696,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C243" s="3">
-        <v>768</v>
+        <v>60</v>
       </c>
       <c r="E243" s="6">
         <f t="shared" si="7"/>
@@ -15793,10 +15712,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C244" s="3">
-        <v>947</v>
+        <v>300</v>
       </c>
       <c r="E244" s="6">
         <f t="shared" si="7"/>
@@ -15808,12 +15727,9 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>239</v>
-      </c>
-      <c r="C245" s="3">
-        <v>322</v>
-      </c>
+      <c r="A245" s="24"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="14"/>
       <c r="E245" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -15825,10 +15741,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C246" s="3">
-        <v>1204</v>
+        <v>768</v>
       </c>
       <c r="E246" s="6">
         <f t="shared" si="7"/>
@@ -15841,10 +15757,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C247" s="3">
-        <v>1116</v>
+        <v>947</v>
       </c>
       <c r="E247" s="6">
         <f t="shared" si="7"/>
@@ -15857,10 +15773,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C248" s="3">
-        <v>1436</v>
+        <v>322</v>
       </c>
       <c r="E248" s="6">
         <f t="shared" si="7"/>
@@ -15873,10 +15789,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C249" s="3">
-        <v>1497</v>
+        <v>1204</v>
       </c>
       <c r="E249" s="6">
         <f t="shared" si="7"/>
@@ -15889,10 +15805,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C250" s="3">
-        <v>188</v>
+        <v>1116</v>
       </c>
       <c r="E250" s="6">
         <f t="shared" si="7"/>
@@ -15905,10 +15821,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C251" s="3">
-        <v>606</v>
+        <v>1436</v>
       </c>
       <c r="E251" s="6">
         <f t="shared" si="7"/>
@@ -15921,10 +15837,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C252" s="3">
-        <v>2693</v>
+        <v>1497</v>
       </c>
       <c r="E252" s="6">
         <f t="shared" si="7"/>
@@ -15937,10 +15853,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C253" s="3">
-        <v>6352</v>
+        <v>188</v>
       </c>
       <c r="E253" s="6">
         <f t="shared" si="7"/>
@@ -15953,10 +15869,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C254" s="3">
-        <v>1090</v>
+        <v>606</v>
       </c>
       <c r="E254" s="6">
         <f t="shared" si="7"/>
@@ -15969,10 +15885,10 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C255" s="3">
-        <v>667</v>
+        <v>2693</v>
       </c>
       <c r="E255" s="6">
         <f t="shared" si="7"/>
@@ -15985,10 +15901,10 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C256" s="3">
-        <v>73</v>
+        <v>6352</v>
       </c>
       <c r="E256" s="6">
         <f t="shared" si="7"/>
@@ -16001,10 +15917,10 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C257" s="3">
-        <v>232</v>
+        <v>1090</v>
       </c>
       <c r="E257" s="6">
         <f t="shared" si="7"/>
@@ -16017,10 +15933,10 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C258" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E258" s="6">
         <f t="shared" si="7"/>
@@ -16033,10 +15949,10 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C259" s="3">
-        <v>990</v>
+        <v>73</v>
       </c>
       <c r="E259" s="6">
         <f t="shared" si="7"/>
@@ -16049,10 +15965,10 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C260" s="3">
-        <v>733</v>
+        <v>232</v>
       </c>
       <c r="E260" s="6">
         <f t="shared" si="7"/>
@@ -16065,74 +15981,74 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C261" s="3">
-        <v>454</v>
+        <v>666</v>
       </c>
       <c r="E261" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H261" s="6">
-        <f t="shared" ref="H261:H324" si="8">C261*A261</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C262" s="3">
-        <v>948</v>
+        <v>990</v>
       </c>
       <c r="E262" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H262" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C263" s="3">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="E263" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H263" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C264" s="3">
-        <v>699</v>
+        <v>454</v>
       </c>
       <c r="E264" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H264" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H264:H327" si="8">C264*A264</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C265" s="3">
-        <v>1032</v>
+        <v>948</v>
       </c>
       <c r="E265" s="6">
         <f t="shared" si="7"/>
@@ -16145,10 +16061,10 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C266" s="3">
-        <v>1201</v>
+        <v>489</v>
       </c>
       <c r="E266" s="6">
         <f t="shared" si="7"/>
@@ -16161,13 +16077,13 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C267" s="3">
-        <v>528</v>
+        <v>699</v>
       </c>
       <c r="E267" s="6">
-        <f t="shared" ref="E267:E330" si="9">D267*C267</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H267" s="6">
@@ -16177,13 +16093,13 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C268" s="3">
-        <v>145</v>
+        <v>1032</v>
       </c>
       <c r="E268" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H268" s="6">
@@ -16193,13 +16109,13 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C269" s="3">
-        <v>138</v>
+        <v>1201</v>
       </c>
       <c r="E269" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H269" s="6">
@@ -16209,13 +16125,13 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C270" s="3">
-        <v>318</v>
+        <v>528</v>
       </c>
       <c r="E270" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E270:E333" si="9">D270*C270</f>
         <v>0</v>
       </c>
       <c r="H270" s="6">
@@ -16225,10 +16141,10 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C271" s="3">
-        <v>733</v>
+        <v>145</v>
       </c>
       <c r="E271" s="6">
         <f t="shared" si="9"/>
@@ -16241,10 +16157,10 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="E272" s="6">
         <f t="shared" si="9"/>
@@ -16257,10 +16173,10 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C273" s="3">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="E273" s="6">
         <f t="shared" si="9"/>
@@ -16273,10 +16189,10 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C274" s="3">
-        <v>513</v>
+        <v>733</v>
       </c>
       <c r="E274" s="6">
         <f t="shared" si="9"/>
@@ -16289,10 +16205,10 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C275" s="3">
-        <v>557</v>
+        <v>213</v>
       </c>
       <c r="E275" s="6">
         <f t="shared" si="9"/>
@@ -16305,10 +16221,10 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C276" s="3">
-        <v>557</v>
+        <v>349</v>
       </c>
       <c r="E276" s="6">
         <f t="shared" si="9"/>
@@ -16321,10 +16237,10 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C277" s="3">
-        <v>1383</v>
+        <v>513</v>
       </c>
       <c r="E277" s="6">
         <f t="shared" si="9"/>
@@ -16337,10 +16253,10 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C278" s="3">
-        <v>3001</v>
+        <v>557</v>
       </c>
       <c r="E278" s="6">
         <f t="shared" si="9"/>
@@ -16353,10 +16269,10 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C279" s="3">
-        <v>90</v>
+        <v>557</v>
       </c>
       <c r="E279" s="6">
         <f t="shared" si="9"/>
@@ -16369,10 +16285,10 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="C280" s="3">
-        <v>104</v>
+        <v>1383</v>
       </c>
       <c r="E280" s="6">
         <f t="shared" si="9"/>
@@ -16385,10 +16301,10 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C281" s="3">
-        <v>218</v>
+        <v>3001</v>
       </c>
       <c r="E281" s="6">
         <f t="shared" si="9"/>
@@ -16401,10 +16317,10 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C282" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E282" s="6">
         <f t="shared" si="9"/>
@@ -16417,10 +16333,10 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="C283" s="3">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E283" s="6">
         <f t="shared" si="9"/>
@@ -16433,10 +16349,10 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C284" s="3">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="E284" s="6">
         <f t="shared" si="9"/>
@@ -16449,10 +16365,10 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C285" s="3">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E285" s="6">
         <f t="shared" si="9"/>
@@ -16465,10 +16381,10 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C286" s="3">
-        <v>880</v>
+        <v>65</v>
       </c>
       <c r="E286" s="6">
         <f t="shared" si="9"/>
@@ -16481,10 +16397,10 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C287" s="3">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="E287" s="6">
         <f t="shared" si="9"/>
@@ -16497,10 +16413,10 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C288" s="3">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="E288" s="6">
         <f t="shared" si="9"/>
@@ -16513,10 +16429,10 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C289" s="3">
-        <v>429</v>
+        <v>880</v>
       </c>
       <c r="E289" s="6">
         <f t="shared" si="9"/>
@@ -16529,10 +16445,10 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C290" s="3">
-        <v>671</v>
+        <v>401</v>
       </c>
       <c r="E290" s="6">
         <f t="shared" si="9"/>
@@ -16545,10 +16461,10 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C291" s="3">
-        <v>2781</v>
+        <v>577</v>
       </c>
       <c r="E291" s="6">
         <f t="shared" si="9"/>
@@ -16561,10 +16477,10 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C292" s="3">
-        <v>2216</v>
+        <v>429</v>
       </c>
       <c r="E292" s="6">
         <f t="shared" si="9"/>
@@ -16577,10 +16493,10 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C293" s="3">
-        <v>385</v>
+        <v>671</v>
       </c>
       <c r="E293" s="6">
         <f t="shared" si="9"/>
@@ -16593,10 +16509,10 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C294" s="3">
-        <v>1705</v>
+        <v>2781</v>
       </c>
       <c r="E294" s="6">
         <f t="shared" si="9"/>
@@ -16609,10 +16525,10 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C295" s="3">
-        <v>3107</v>
+        <v>2216</v>
       </c>
       <c r="E295" s="6">
         <f t="shared" si="9"/>
@@ -16625,10 +16541,10 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C296" s="3">
-        <v>1045</v>
+        <v>385</v>
       </c>
       <c r="E296" s="6">
         <f t="shared" si="9"/>
@@ -16641,10 +16557,10 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C297" s="3">
-        <v>912</v>
+        <v>1705</v>
       </c>
       <c r="E297" s="6">
         <f t="shared" si="9"/>
@@ -16657,10 +16573,10 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C298" s="3">
-        <v>115</v>
+        <v>3107</v>
       </c>
       <c r="E298" s="6">
         <f t="shared" si="9"/>
@@ -16673,10 +16589,10 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C299" s="3">
-        <v>875</v>
+        <v>1045</v>
       </c>
       <c r="E299" s="6">
         <f t="shared" si="9"/>
@@ -16689,10 +16605,10 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C300" s="3">
-        <v>480</v>
+        <v>912</v>
       </c>
       <c r="E300" s="6">
         <f t="shared" si="9"/>
@@ -16705,10 +16621,10 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C301" s="3">
-        <v>1528</v>
+        <v>115</v>
       </c>
       <c r="E301" s="6">
         <f t="shared" si="9"/>
@@ -16721,10 +16637,10 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C302" s="3">
-        <v>4286</v>
+        <v>875</v>
       </c>
       <c r="E302" s="6">
         <f t="shared" si="9"/>
@@ -16737,10 +16653,10 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C303" s="3">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="E303" s="6">
         <f t="shared" si="9"/>
@@ -16753,10 +16669,10 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C304" s="3">
-        <v>1352</v>
+        <v>1528</v>
       </c>
       <c r="E304" s="6">
         <f t="shared" si="9"/>
@@ -16769,10 +16685,10 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C305" s="3">
-        <v>1394</v>
+        <v>4286</v>
       </c>
       <c r="E305" s="6">
         <f t="shared" si="9"/>
@@ -16785,10 +16701,10 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C306" s="3">
-        <v>1212</v>
+        <v>189</v>
       </c>
       <c r="E306" s="6">
         <f t="shared" si="9"/>
@@ -16801,10 +16717,10 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C307" s="3">
-        <v>902</v>
+        <v>1352</v>
       </c>
       <c r="E307" s="6">
         <f t="shared" si="9"/>
@@ -16817,10 +16733,10 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C308" s="3">
-        <v>1517</v>
+        <v>1394</v>
       </c>
       <c r="E308" s="6">
         <f t="shared" si="9"/>
@@ -16833,10 +16749,10 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C309" s="3">
-        <v>865</v>
+        <v>1212</v>
       </c>
       <c r="E309" s="6">
         <f t="shared" si="9"/>
@@ -16849,10 +16765,10 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C310" s="3">
-        <v>305</v>
+        <v>902</v>
       </c>
       <c r="E310" s="6">
         <f t="shared" si="9"/>
@@ -16865,10 +16781,10 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C311" s="3">
-        <v>477</v>
+        <v>1517</v>
       </c>
       <c r="E311" s="6">
         <f t="shared" si="9"/>
@@ -16881,10 +16797,10 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C312" s="3">
-        <v>429</v>
+        <v>865</v>
       </c>
       <c r="E312" s="6">
         <f t="shared" si="9"/>
@@ -16897,10 +16813,10 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C313" s="3">
-        <v>408</v>
+        <v>305</v>
       </c>
       <c r="E313" s="6">
         <f t="shared" si="9"/>
@@ -16913,10 +16829,10 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C314" s="3">
-        <v>339</v>
+        <v>477</v>
       </c>
       <c r="E314" s="6">
         <f t="shared" si="9"/>
@@ -16929,10 +16845,10 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C315" s="3">
-        <v>530</v>
+        <v>429</v>
       </c>
       <c r="E315" s="6">
         <f t="shared" si="9"/>
@@ -16945,10 +16861,10 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C316" s="3">
-        <v>568</v>
+        <v>408</v>
       </c>
       <c r="E316" s="6">
         <f t="shared" si="9"/>
@@ -16961,10 +16877,10 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C317" s="3">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="E317" s="6">
         <f t="shared" si="9"/>
@@ -16977,10 +16893,10 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C318" s="3">
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="E318" s="6">
         <f t="shared" si="9"/>
@@ -16993,10 +16909,10 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C319" s="3">
-        <v>1088</v>
+        <v>568</v>
       </c>
       <c r="E319" s="6">
         <f t="shared" si="9"/>
@@ -17009,10 +16925,10 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C320" s="3">
-        <v>620</v>
+        <v>443</v>
       </c>
       <c r="E320" s="6">
         <f t="shared" si="9"/>
@@ -17025,10 +16941,10 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C321" s="3">
-        <v>1101</v>
+        <v>437</v>
       </c>
       <c r="E321" s="6">
         <f t="shared" si="9"/>
@@ -17041,10 +16957,10 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C322" s="3">
-        <v>307</v>
+        <v>1088</v>
       </c>
       <c r="E322" s="6">
         <f t="shared" si="9"/>
@@ -17057,10 +16973,10 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C323" s="3">
-        <v>1445</v>
+        <v>620</v>
       </c>
       <c r="E323" s="6">
         <f t="shared" si="9"/>
@@ -17073,10 +16989,10 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C324" s="3">
-        <v>590</v>
+        <v>1101</v>
       </c>
       <c r="E324" s="6">
         <f t="shared" si="9"/>
@@ -17089,74 +17005,74 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C325" s="3">
-        <v>963</v>
+        <v>307</v>
       </c>
       <c r="E325" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H325" s="6">
-        <f t="shared" ref="H325:H365" si="10">C325*A325</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C326" s="3">
-        <v>805</v>
+        <v>1445</v>
       </c>
       <c r="E326" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H326" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C327" s="3">
-        <v>1082</v>
+        <v>590</v>
       </c>
       <c r="E327" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H327" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C328" s="3">
-        <v>457</v>
+        <v>963</v>
       </c>
       <c r="E328" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H328" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H328:H368" si="10">C328*A328</f>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C329" s="3">
-        <v>988</v>
+        <v>805</v>
       </c>
       <c r="E329" s="6">
         <f t="shared" si="9"/>
@@ -17169,10 +17085,10 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C330" s="3">
-        <v>298</v>
+        <v>1082</v>
       </c>
       <c r="E330" s="6">
         <f t="shared" si="9"/>
@@ -17184,8 +17100,14 @@
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>322</v>
+      </c>
+      <c r="C331" s="3">
+        <v>457</v>
+      </c>
       <c r="E331" s="6">
-        <f t="shared" ref="E331:E365" si="11">D331*C331</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H331" s="6">
@@ -17194,8 +17116,14 @@
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>323</v>
+      </c>
+      <c r="C332" s="3">
+        <v>988</v>
+      </c>
       <c r="E332" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H332" s="6">
@@ -17204,8 +17132,14 @@
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>324</v>
+      </c>
+      <c r="C333" s="3">
+        <v>298</v>
+      </c>
       <c r="E333" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H333" s="6">
@@ -17215,7 +17149,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E334" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E334:E368" si="11">D334*C334</f>
         <v>0</v>
       </c>
       <c r="H334" s="6">
@@ -17529,6 +17463,36 @@
         <v>0</v>
       </c>
       <c r="H365" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E366" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H366" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E367" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H367" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E368" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H368" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/Precio Venta3.xlsx
+++ b/Precio Venta3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taller\Desktop\Pulperia-Ortiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Respaldo PC\Escritorio\Pulperia-Ortiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="489">
   <si>
     <t>Nombre</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Concentrado Ponedora</t>
   </si>
   <si>
-    <t>alkaselzer</t>
-  </si>
-  <si>
     <t>Coca Retornable 2,5L</t>
   </si>
   <si>
@@ -189,99 +186,18 @@
     <t>Jet</t>
   </si>
   <si>
-    <t>te blanco</t>
-  </si>
-  <si>
-    <t>te frio melocoton</t>
-  </si>
-  <si>
     <t>cofal crema</t>
   </si>
   <si>
     <t>cofal aceite</t>
   </si>
   <si>
-    <t>Snack Diana</t>
-  </si>
-  <si>
-    <t>antifludes</t>
-  </si>
-  <si>
-    <t>Aspirina</t>
-  </si>
-  <si>
-    <t>panadol niño</t>
-  </si>
-  <si>
-    <t>tabcin niño</t>
-  </si>
-  <si>
-    <t>zepol</t>
-  </si>
-  <si>
-    <t>cera pasta</t>
-  </si>
-  <si>
-    <t>jabon barrita pequeño</t>
-  </si>
-  <si>
-    <t>jabon barrita grande</t>
-  </si>
-  <si>
-    <t>jabon vinolia</t>
-  </si>
-  <si>
-    <t>jabon familia</t>
-  </si>
-  <si>
     <t>bombillo blanco 22W</t>
   </si>
   <si>
     <t>bombillo blanco 24W</t>
   </si>
   <si>
-    <t>espiral gala</t>
-  </si>
-  <si>
-    <t>baygon plaquitas</t>
-  </si>
-  <si>
-    <t>raid</t>
-  </si>
-  <si>
-    <t>mr musculo antigrasa</t>
-  </si>
-  <si>
-    <t>mr musculo vidrios</t>
-  </si>
-  <si>
-    <t>alambrina</t>
-  </si>
-  <si>
-    <t>crema dulce</t>
-  </si>
-  <si>
-    <t>jobon bb</t>
-  </si>
-  <si>
-    <t>pañales</t>
-  </si>
-  <si>
-    <t>mantillas</t>
-  </si>
-  <si>
-    <t>romporika</t>
-  </si>
-  <si>
-    <t>ckiky</t>
-  </si>
-  <si>
-    <t>cremitas</t>
-  </si>
-  <si>
-    <t>mantequillas</t>
-  </si>
-  <si>
     <t>oreo chocolate</t>
   </si>
   <si>
@@ -291,9 +207,6 @@
     <t>tubo bokita</t>
   </si>
   <si>
-    <t>soda</t>
-  </si>
-  <si>
     <t>tubo bokita rellena</t>
   </si>
   <si>
@@ -1480,6 +1393,111 @@
   </si>
   <si>
     <t>Cera Irex Cremosa Natural</t>
+  </si>
+  <si>
+    <t>Frescoleche Chocolate</t>
+  </si>
+  <si>
+    <t>Frescoleche Vainilla</t>
+  </si>
+  <si>
+    <t>Frescoleche Fresa</t>
+  </si>
+  <si>
+    <t>Tosty Bravo Fajitas Refil 30s</t>
+  </si>
+  <si>
+    <t>Tropical Te Blanco 500ml</t>
+  </si>
+  <si>
+    <t>Tropical Te Frio Meloco 500ml</t>
+  </si>
+  <si>
+    <t>Diana Centavito 48s</t>
+  </si>
+  <si>
+    <t>Diana Elotito Picante 48s</t>
+  </si>
+  <si>
+    <t>Diana Quesito 48s</t>
+  </si>
+  <si>
+    <t>Diana Tortilla Jalapeña 24s</t>
+  </si>
+  <si>
+    <t>Alka Selzer 60s</t>
+  </si>
+  <si>
+    <t>Antifludes 48s</t>
+  </si>
+  <si>
+    <t>Aspirina Cafi 60S</t>
+  </si>
+  <si>
+    <t>Panadol Niño 100s</t>
+  </si>
+  <si>
+    <t>Tabcin Niño 60s</t>
+  </si>
+  <si>
+    <t>Zepol 30g</t>
+  </si>
+  <si>
+    <t>Cera Pasta Naranja 140g</t>
+  </si>
+  <si>
+    <t>Jabon Cilindro Doña Blan 250g</t>
+  </si>
+  <si>
+    <t>Jabon Cilindro Potensol 400g</t>
+  </si>
+  <si>
+    <t>Jabon Familia 4x3</t>
+  </si>
+  <si>
+    <t>Jabon Vinolia Blanco 145g</t>
+  </si>
+  <si>
+    <t>Jabon Vinolia Verde 145g</t>
+  </si>
+  <si>
+    <t>Jabon Vinolia Rosado 145g</t>
+  </si>
+  <si>
+    <t>Cloro Clorox 200ml</t>
+  </si>
+  <si>
+    <t>Espiral Gala 12s</t>
+  </si>
+  <si>
+    <t>Baygon Plaquitas</t>
+  </si>
+  <si>
+    <t>Raid Mata Bichos 400ml</t>
+  </si>
+  <si>
+    <t>Mr Musculo Antigrasa 500ml</t>
+  </si>
+  <si>
+    <t>Mr Musculo Vidrios</t>
+  </si>
+  <si>
+    <t>Alambrina Acero Inox</t>
+  </si>
+  <si>
+    <t>Crema Dulce</t>
+  </si>
+  <si>
+    <t>Jabon Mennen Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pañal Hogies </t>
+  </si>
+  <si>
+    <t>Pañal Eco</t>
+  </si>
+  <si>
+    <t>Romporika 85g</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1508,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;₡&quot;* #,##0.00_);_(&quot;₡&quot;* \(#,##0.00\);_(&quot;₡&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;₡&quot;* #,##0_);_(&quot;₡&quot;* \(#,##0\);_(&quot;₡&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,6 +1553,19 @@
     <font>
       <sz val="8"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1588,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1625,6 +1656,8 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1906,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D2:D219"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,25 +1964,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C2" s="17">
         <v>244</v>
@@ -1974,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="I2" s="14">
-        <f>SUM(G2:G414)</f>
+        <f>SUM(G2:G422)</f>
         <v>0</v>
       </c>
       <c r="J2" s="14">
@@ -1985,8 +2018,8 @@
         <v>1220</v>
       </c>
       <c r="K2" s="14">
-        <f>SUM(J2:J374)</f>
-        <v>770015</v>
+        <f>SUM(J2:J382)</f>
+        <v>780296</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,7 +2027,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C3" s="17">
         <v>824</v>
@@ -2020,7 +2053,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C4" s="17">
         <v>824</v>
@@ -2046,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C5" s="17">
         <v>260</v>
@@ -2076,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C6" s="17">
         <v>207</v>
@@ -2102,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C7" s="17">
         <v>167</v>
@@ -2128,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C8" s="17">
         <v>287</v>
@@ -2154,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C9" s="17">
         <v>287</v>
@@ -2183,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C10" s="17">
         <v>287</v>
@@ -2209,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C11" s="17">
         <v>287</v>
@@ -2235,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C12" s="17">
         <v>287</v>
@@ -2261,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C13" s="17">
         <v>151</v>
@@ -2287,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="C14" s="17">
         <v>291</v>
@@ -2313,7 +2346,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C15" s="17">
         <v>551</v>
@@ -2339,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C16" s="17">
         <v>985</v>
@@ -2365,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C17" s="17">
         <v>494</v>
@@ -2391,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C18" s="17">
         <v>466</v>
@@ -2417,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C19" s="17">
         <v>821</v>
@@ -2443,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C20" s="17">
         <v>308</v>
@@ -2469,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C21" s="17">
         <v>568</v>
@@ -2495,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C22" s="17">
         <v>926</v>
@@ -2521,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C23" s="17">
         <v>291</v>
@@ -2547,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C24" s="17">
         <v>306</v>
@@ -2573,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C25" s="17">
         <v>330</v>
@@ -2599,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25">
@@ -2627,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C27" s="17">
         <v>656</v>
@@ -2653,17 +2686,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C28" s="17">
         <v>735</v>
       </c>
       <c r="D28" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.244897959183673</v>
       </c>
       <c r="E28" s="17">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="1"/>
@@ -2679,7 +2712,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C29" s="17">
         <v>780</v>
@@ -2705,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C30" s="17">
         <v>780</v>
@@ -2731,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C31" s="17">
         <v>636</v>
@@ -2757,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C32" s="17">
         <v>633</v>
@@ -2783,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C33" s="17">
         <v>768</v>
@@ -2809,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C34" s="17">
         <v>768</v>
@@ -2835,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C35" s="17">
         <v>444</v>
@@ -2861,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C36" s="17">
         <v>415</v>
@@ -2887,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C37" s="17">
         <v>1708</v>
@@ -2913,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C38" s="17">
         <v>431</v>
@@ -2939,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C39" s="17">
         <v>431</v>
@@ -2965,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C40" s="17">
         <v>979</v>
@@ -2991,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C41" s="17">
         <v>514</v>
@@ -3017,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C42" s="17">
         <v>1045</v>
@@ -3043,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C43" s="17">
         <v>1234</v>
@@ -3069,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C44" s="17">
         <v>1451</v>
@@ -3095,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C45" s="17">
         <v>1045</v>
@@ -3121,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C46" s="24">
         <v>0</v>
@@ -3153,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C47" s="17">
         <v>632</v>
@@ -3179,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C48" s="17">
         <v>1245</v>
@@ -3205,7 +3238,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C49" s="17">
         <v>719</v>
@@ -3229,7 +3262,7 @@
     <row r="50" spans="1:14" s="30" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="23" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C50" s="24">
         <v>1</v>
@@ -3259,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C51" s="17">
         <v>918</v>
@@ -3285,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C52" s="17">
         <v>1201</v>
@@ -3311,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C53" s="17">
         <v>685</v>
@@ -3337,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C54" s="17">
         <v>630</v>
@@ -3363,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C55" s="17">
         <v>576</v>
@@ -3389,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C56" s="17">
         <v>1580</v>
@@ -3415,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C57" s="17">
         <v>1580</v>
@@ -3441,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C58" s="17">
         <v>1359</v>
@@ -3467,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C59" s="17">
         <v>264</v>
@@ -3493,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C60" s="17">
         <v>264</v>
@@ -3519,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C61" s="17">
         <v>264</v>
@@ -3545,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="C62" s="17">
         <v>579</v>
@@ -3571,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C63" s="17">
         <v>1095</v>
@@ -3597,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C64" s="17">
         <v>520</v>
@@ -3623,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C65" s="17">
         <v>1006</v>
@@ -3649,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C66" s="17">
         <v>1580</v>
@@ -3675,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C67" s="17">
         <v>556</v>
@@ -3701,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C68" s="17">
         <v>299</v>
@@ -3727,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C69" s="17">
         <v>1580</v>
@@ -3753,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C70" s="17">
         <v>494</v>
@@ -3779,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C71" s="17">
         <v>630</v>
@@ -3805,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C72" s="17">
         <v>576</v>
@@ -3831,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C73" s="17">
         <v>767</v>
@@ -3909,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C76" s="17">
         <v>495</v>
@@ -3935,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C77" s="17">
         <v>495</v>
@@ -3961,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C78" s="17">
         <v>866</v>
@@ -3987,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C79" s="17">
         <v>205</v>
@@ -4013,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17">
         <v>376</v>
@@ -4039,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C81" s="17">
         <v>742</v>
@@ -4091,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="C83" s="17">
         <v>1352</v>
@@ -4117,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C84" s="17">
         <v>1395</v>
@@ -4143,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C85" s="17">
         <v>1213</v>
@@ -4169,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C86" s="17">
         <v>1083</v>
@@ -4195,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C87" s="17">
         <v>306</v>
@@ -4221,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C88" s="17">
         <v>430</v>
@@ -4247,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C89" s="17">
         <v>409</v>
@@ -4273,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C90" s="17">
         <v>340</v>
@@ -4299,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C91" s="17">
         <v>340</v>
@@ -4325,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C92" s="17">
         <v>531</v>
@@ -4351,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C93" s="17">
         <v>409</v>
@@ -4377,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C94" s="17">
         <v>589</v>
@@ -4403,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C95" s="17">
         <v>375</v>
@@ -4429,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C96" s="17">
         <v>708</v>
@@ -4455,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C97" s="17">
         <v>1163</v>
@@ -4481,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C98" s="17">
         <v>1191</v>
@@ -4559,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C101" s="17">
         <v>1100</v>
@@ -4585,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C102" s="17">
         <v>749</v>
@@ -4637,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C104" s="17">
         <v>593</v>
@@ -4663,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C105" s="17">
         <v>464</v>
@@ -4689,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C106" s="17">
         <v>593</v>
@@ -4715,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C107" s="17">
         <v>464</v>
@@ -4741,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C108" s="17">
         <v>910</v>
@@ -4767,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="C109" s="17">
         <v>505</v>
@@ -4793,7 +4826,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C110" s="17">
         <v>137</v>
@@ -4819,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C111" s="17">
         <v>137</v>
@@ -4845,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="C112" s="17">
         <v>137</v>
@@ -4871,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C113" s="17">
         <v>137</v>
@@ -4897,7 +4930,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C114" s="17">
         <v>137</v>
@@ -4923,7 +4956,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C115" s="17">
         <v>137</v>
@@ -4949,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C116" s="17">
         <v>137</v>
@@ -4975,7 +5008,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C117" s="17">
         <v>137</v>
@@ -5001,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="C118" s="17">
         <v>294</v>
@@ -5027,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C119" s="17">
         <v>294</v>
@@ -5053,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C120" s="17">
         <v>294</v>
@@ -5079,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C121" s="17">
         <v>294</v>
@@ -5105,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C122" s="17">
         <v>225</v>
@@ -5131,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C123" s="17">
         <v>223</v>
@@ -5157,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C124" s="17">
         <v>223</v>
@@ -5183,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C125" s="17">
         <v>223</v>
@@ -5209,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="C126" s="17">
         <v>336</v>
@@ -5235,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C127" s="17">
         <v>336</v>
@@ -5261,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C128" s="17">
         <v>336</v>
@@ -5287,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C129" s="17">
         <v>336</v>
@@ -5313,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C130" s="17">
         <v>475</v>
@@ -5339,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C131" s="17">
         <v>1743</v>
@@ -5365,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C132" s="17">
         <v>622</v>
@@ -5391,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C133" s="17">
         <v>1570</v>
@@ -5417,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C134" s="17">
         <v>761</v>
@@ -5443,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C135" s="17">
         <v>1389</v>
@@ -5469,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C136" s="17">
         <v>1586</v>
@@ -5495,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C137" s="17">
         <v>1004</v>
@@ -5521,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C138" s="17">
         <v>671</v>
@@ -5547,7 +5580,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C139" s="17">
         <v>671</v>
@@ -5573,7 +5606,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C140" s="17">
         <v>671</v>
@@ -5599,7 +5632,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C141" s="17">
         <v>671</v>
@@ -5625,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C142" s="17">
         <v>671</v>
@@ -5651,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C143" s="17">
         <v>671</v>
@@ -5677,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C144" s="17">
         <v>292</v>
@@ -5703,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C145" s="17">
         <v>292</v>
@@ -5729,7 +5762,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C146" s="17">
         <v>292</v>
@@ -5755,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C147" s="17">
         <v>133</v>
@@ -5781,7 +5814,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C148" s="17">
         <v>366</v>
@@ -5807,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C149" s="17">
         <v>221</v>
@@ -5833,7 +5866,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C150" s="17">
         <v>554</v>
@@ -5859,7 +5892,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C151" s="17">
         <v>1049</v>
@@ -5885,7 +5918,7 @@
         <v>6</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C152" s="17">
         <v>648</v>
@@ -5911,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C153" s="17">
         <v>1236</v>
@@ -5937,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C154" s="17">
         <v>297</v>
@@ -5963,7 +5996,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C155" s="17">
         <v>400</v>
@@ -5989,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C156" s="17">
         <v>420</v>
@@ -6015,7 +6048,7 @@
         <v>4</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C157" s="17">
         <v>791</v>
@@ -6041,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C158" s="17">
         <v>707</v>
@@ -6067,7 +6100,7 @@
         <v>6</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C159" s="17">
         <v>373</v>
@@ -6093,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C160" s="17">
         <v>557</v>
@@ -6119,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C161" s="17">
         <v>450</v>
@@ -6145,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C162" s="17">
         <v>209</v>
@@ -6171,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C163" s="17">
         <v>209</v>
@@ -6197,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C164" s="17">
         <v>404</v>
@@ -6223,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="17">
         <v>862</v>
@@ -6249,7 +6282,7 @@
         <v>8</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166" s="17">
         <v>220</v>
@@ -6275,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" s="17">
         <v>1934</v>
@@ -6301,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C168" s="17">
         <v>437</v>
@@ -6327,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C169" s="17">
         <v>424</v>
@@ -6353,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C170" s="17">
         <v>270</v>
@@ -6379,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C171" s="17">
         <v>448</v>
@@ -6405,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C172" s="17">
         <v>1436</v>
@@ -6431,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C173" s="17">
         <v>3618</v>
@@ -6457,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C174" s="17">
         <v>896</v>
@@ -6483,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C175" s="17">
         <v>1351</v>
@@ -6509,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C176" s="17">
         <v>2081</v>
@@ -6535,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C177" s="17">
         <v>1652</v>
@@ -6561,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C178" s="17">
         <v>1191</v>
@@ -6587,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C179" s="17">
         <v>1329</v>
@@ -6613,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C180" s="17">
         <v>10702</v>
@@ -6639,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C181" s="17">
         <v>407</v>
@@ -6665,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C182" s="17">
         <v>769</v>
@@ -6691,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C183" s="17">
         <v>263</v>
@@ -6717,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C184" s="17">
         <v>656</v>
@@ -6743,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C185" s="17">
         <v>257</v>
@@ -6769,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C186" s="17">
         <v>193</v>
@@ -6795,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C187" s="17">
         <v>706</v>
@@ -6821,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C188" s="17">
         <v>344</v>
@@ -6847,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C189" s="17">
         <v>344</v>
@@ -6873,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C190" s="17">
         <v>344</v>
@@ -6899,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C191" s="17">
         <v>1068</v>
@@ -6925,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C192" s="17">
         <v>1482</v>
@@ -6951,7 +6984,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C193" s="17">
         <v>1070</v>
@@ -6977,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="C194" s="17">
         <v>603</v>
@@ -7003,7 +7036,7 @@
         <v>4</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C195" s="17">
         <v>603</v>
@@ -7029,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C196" s="17">
         <v>4148</v>
@@ -7055,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C197" s="17">
         <v>1068</v>
@@ -7081,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C198" s="17">
         <v>200</v>
@@ -7107,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="C199" s="17">
         <v>1255</v>
@@ -7133,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C200" s="17">
         <v>2138</v>
@@ -7159,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C201" s="17">
         <v>1509</v>
@@ -7185,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C202" s="17">
         <v>2435</v>
@@ -7211,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C203" s="17">
         <v>1271</v>
@@ -7237,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C204" s="17">
         <v>302</v>
@@ -7263,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C205" s="17">
         <v>1927</v>
@@ -7289,7 +7322,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C206" s="17">
         <v>155</v>
@@ -7315,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="C207" s="17">
         <v>201</v>
@@ -7341,7 +7374,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C208" s="17">
         <v>234</v>
@@ -7367,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C209" s="17">
         <v>1193</v>
@@ -7393,7 +7426,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C210" s="17">
         <v>1545</v>
@@ -7419,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C211" s="17">
         <v>834</v>
@@ -7445,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C212" s="17">
         <v>4616</v>
@@ -7471,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C213" s="17">
         <v>1394</v>
@@ -7497,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C214" s="17">
         <v>2097</v>
@@ -7523,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C215" s="17">
         <v>3120</v>
@@ -7549,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C216" s="17">
         <v>3120</v>
@@ -7575,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C217" s="17">
         <v>5230</v>
@@ -7601,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C218" s="17">
         <v>3120</v>
@@ -7627,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="C219" s="17">
         <v>3120</v>
@@ -7653,14 +7686,17 @@
         <v>4</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="C220" s="17">
         <v>1466</v>
       </c>
       <c r="D220" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.054570259208731</v>
+      </c>
+      <c r="E220" s="17">
+        <v>1760</v>
       </c>
       <c r="G220" s="18">
         <f>F220*C220</f>
@@ -7676,14 +7712,17 @@
         <v>4</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="C221" s="17">
         <v>1466</v>
       </c>
       <c r="D221" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.054570259208731</v>
+      </c>
+      <c r="E221" s="17">
+        <v>1760</v>
       </c>
       <c r="G221" s="18">
         <f>F221*C221</f>
@@ -7699,14 +7738,17 @@
         <v>3</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="C222" s="17">
         <v>934</v>
       </c>
       <c r="D222" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.914346895074946</v>
+      </c>
+      <c r="E222" s="17">
+        <v>1120</v>
       </c>
       <c r="G222" s="18">
         <f t="shared" si="8"/>
@@ -7722,14 +7764,17 @@
         <v>3</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C223" s="17">
         <v>934</v>
       </c>
       <c r="D223" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.914346895074946</v>
+      </c>
+      <c r="E223" s="17">
+        <v>1120</v>
       </c>
       <c r="G223" s="18">
         <f t="shared" si="8"/>
@@ -7745,14 +7790,17 @@
         <v>3</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C224" s="17">
         <v>934</v>
       </c>
       <c r="D224" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.914346895074946</v>
+      </c>
+      <c r="E224" s="17">
+        <v>1120</v>
       </c>
       <c r="G224" s="18">
         <f t="shared" si="8"/>
@@ -7768,14 +7816,17 @@
         <v>30</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C225" s="17">
         <v>826</v>
       </c>
       <c r="D225" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.854721549636803</v>
+      </c>
+      <c r="E225" s="17">
+        <v>990</v>
       </c>
       <c r="G225" s="18">
         <f t="shared" si="8"/>
@@ -7791,14 +7842,17 @@
         <v>1</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C226" s="17">
         <v>2231</v>
       </c>
       <c r="D226" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>35.589421783953384</v>
+      </c>
+      <c r="E226" s="17">
+        <v>3025</v>
       </c>
       <c r="G226" s="18">
         <f t="shared" si="8"/>
@@ -7814,14 +7868,17 @@
         <v>8</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C227" s="17">
         <v>385</v>
       </c>
       <c r="D227" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.779220779220779</v>
+      </c>
+      <c r="E227" s="17">
+        <v>465</v>
       </c>
       <c r="G227" s="18">
         <f t="shared" si="8"/>
@@ -7837,14 +7894,17 @@
         <v>7</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="C228" s="17">
         <v>650</v>
       </c>
       <c r="D228" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>30</v>
+      </c>
+      <c r="E228" s="17">
+        <v>845</v>
       </c>
       <c r="G228" s="18">
         <f t="shared" si="8"/>
@@ -7860,14 +7920,17 @@
         <v>1</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C229" s="17">
         <v>4175</v>
       </c>
       <c r="D229" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>29.940119760479039</v>
+      </c>
+      <c r="E229" s="17">
+        <v>5425</v>
       </c>
       <c r="G229" s="18">
         <f t="shared" si="8"/>
@@ -7883,14 +7946,17 @@
         <v>1</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C230" s="17">
         <v>3976</v>
       </c>
       <c r="D230" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>29.904426559356136</v>
+      </c>
+      <c r="E230" s="17">
+        <v>5165</v>
       </c>
       <c r="G230" s="18">
         <f t="shared" si="8"/>
@@ -7906,14 +7972,17 @@
         <v>4</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C231" s="17">
         <v>1157</v>
       </c>
       <c r="D231" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>29.645635263612789</v>
+      </c>
+      <c r="E231" s="17">
+        <v>1500</v>
       </c>
       <c r="G231" s="18">
         <f t="shared" si="8"/>
@@ -7929,7 +7998,7 @@
         <v>6</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C232" s="17">
         <v>371</v>
@@ -7955,14 +8024,17 @@
         <v>1</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C233" s="17">
         <v>1406</v>
       </c>
       <c r="D233" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>35.135135135135137</v>
+      </c>
+      <c r="E233" s="17">
+        <v>1900</v>
       </c>
       <c r="G233" s="18">
         <f t="shared" si="8"/>
@@ -7978,14 +8050,17 @@
         <v>2</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="C234" s="17">
         <v>792</v>
       </c>
       <c r="D234" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.949494949494952</v>
+      </c>
+      <c r="E234" s="17">
+        <v>950</v>
       </c>
       <c r="G234" s="18">
         <f t="shared" si="8"/>
@@ -8001,14 +8076,17 @@
         <v>1</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C235" s="17">
         <v>4644</v>
       </c>
       <c r="D235" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>7.0198105081826014</v>
+      </c>
+      <c r="E235" s="17">
+        <v>4970</v>
       </c>
       <c r="G235" s="18">
         <f t="shared" si="8"/>
@@ -8024,14 +8102,17 @@
         <v>1</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C236" s="17">
         <v>4356</v>
       </c>
       <c r="D236" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>6.9788797061524344</v>
+      </c>
+      <c r="E236" s="17">
+        <v>4660</v>
       </c>
       <c r="G236" s="18">
         <f t="shared" si="8"/>
@@ -8047,14 +8128,17 @@
         <v>1</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C237" s="17">
         <v>4647</v>
       </c>
       <c r="D237" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>6.9507208952012052</v>
+      </c>
+      <c r="E237" s="17">
+        <v>4970</v>
       </c>
       <c r="G237" s="18">
         <f t="shared" si="8"/>
@@ -8070,14 +8154,17 @@
         <v>2</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C238" s="17">
         <v>5481</v>
       </c>
       <c r="D238" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>7.006020799124248</v>
+      </c>
+      <c r="E238" s="17">
+        <v>5865</v>
       </c>
       <c r="G238" s="18">
         <f t="shared" si="8"/>
@@ -8093,14 +8180,17 @@
         <v>6</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C239" s="17">
         <v>1196</v>
       </c>
       <c r="D239" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>9.9498327759197327</v>
+      </c>
+      <c r="E239" s="17">
+        <v>1315</v>
       </c>
       <c r="G239" s="18">
         <f t="shared" ref="G239:G273" si="11">F239*C239</f>
@@ -8116,14 +8206,17 @@
         <v>2</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C240" s="17">
         <v>1952</v>
       </c>
       <c r="D240" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>11.936475409836065</v>
+      </c>
+      <c r="E240" s="17">
+        <v>2185</v>
       </c>
       <c r="G240" s="18">
         <f t="shared" si="11"/>
@@ -8139,14 +8232,17 @@
         <v>1</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C241" s="17">
         <v>2771</v>
       </c>
       <c r="D241" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>11.872970046914471</v>
+      </c>
+      <c r="E241" s="17">
+        <v>3100</v>
       </c>
       <c r="G241" s="18">
         <f t="shared" si="11"/>
@@ -8162,14 +8258,17 @@
         <v>4</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C242" s="17">
         <v>768</v>
       </c>
       <c r="D242" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>19.791666666666664</v>
+      </c>
+      <c r="E242" s="17">
+        <v>920</v>
       </c>
       <c r="G242" s="18">
         <f t="shared" si="11"/>
@@ -8185,14 +8284,17 @@
         <v>4</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="C243" s="17">
         <v>948</v>
       </c>
       <c r="D243" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.253164556962027</v>
+      </c>
+      <c r="E243" s="17">
+        <v>1140</v>
       </c>
       <c r="G243" s="18">
         <f t="shared" si="11"/>
@@ -8208,14 +8310,17 @@
         <v>6</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="C244" s="17">
         <v>323</v>
       </c>
       <c r="D244" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>36.222910216718269</v>
+      </c>
+      <c r="E244" s="17">
+        <v>440</v>
       </c>
       <c r="G244" s="18">
         <f t="shared" si="11"/>
@@ -8231,14 +8336,17 @@
         <v>4</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C245" s="17">
         <v>323</v>
       </c>
       <c r="D245" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>36.222910216718269</v>
+      </c>
+      <c r="E245" s="17">
+        <v>440</v>
       </c>
       <c r="G245" s="18">
         <f t="shared" si="11"/>
@@ -8254,14 +8362,17 @@
         <v>4</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="C246" s="17">
         <v>1205</v>
       </c>
       <c r="D246" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>9.9585062240663902</v>
+      </c>
+      <c r="E246" s="17">
+        <v>1325</v>
       </c>
       <c r="G246" s="18">
         <f t="shared" si="11"/>
@@ -8277,14 +8388,17 @@
         <v>4</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="C247" s="17">
         <v>1117</v>
       </c>
       <c r="D247" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>10.116383169203223</v>
+      </c>
+      <c r="E247" s="17">
+        <v>1230</v>
       </c>
       <c r="G247" s="18">
         <f t="shared" si="11"/>
@@ -8300,14 +8414,17 @@
         <v>4</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C248" s="17">
         <v>1437</v>
       </c>
       <c r="D248" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>9.9512874043145452</v>
+      </c>
+      <c r="E248" s="17">
+        <v>1580</v>
       </c>
       <c r="G248" s="18">
         <f t="shared" si="11"/>
@@ -8323,14 +8440,17 @@
         <v>4</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="C249" s="17">
         <v>1498</v>
       </c>
       <c r="D249" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>10.146862483311081</v>
+      </c>
+      <c r="E249" s="17">
+        <v>1650</v>
       </c>
       <c r="G249" s="18">
         <f t="shared" si="11"/>
@@ -8346,14 +8466,17 @@
         <v>1</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="C250" s="17">
         <v>11288</v>
       </c>
       <c r="D250" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>10.028348688873139</v>
+      </c>
+      <c r="E250" s="17">
+        <v>12420</v>
       </c>
       <c r="G250" s="18">
         <f t="shared" si="11"/>
@@ -8369,14 +8492,17 @@
         <v>6</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C251" s="17">
         <v>607</v>
       </c>
       <c r="D251" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.263591433278417</v>
+      </c>
+      <c r="E251" s="17">
+        <v>730</v>
       </c>
       <c r="G251" s="18">
         <f t="shared" si="11"/>
@@ -8392,14 +8518,17 @@
         <v>2</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="C252" s="17">
         <v>2694</v>
       </c>
       <c r="D252" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>20.081662954714179</v>
+      </c>
+      <c r="E252" s="17">
+        <v>3235</v>
       </c>
       <c r="G252" s="18">
         <f t="shared" si="11"/>
@@ -8415,14 +8544,17 @@
         <v>1</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C253" s="17">
         <v>6352</v>
       </c>
       <c r="D253" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>7.0528967254408066</v>
+      </c>
+      <c r="E253" s="17">
+        <v>6800</v>
       </c>
       <c r="G253" s="18">
         <f t="shared" si="11"/>
@@ -8438,14 +8570,17 @@
         <v>6</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C254" s="17">
         <v>1091</v>
       </c>
       <c r="D254" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>9.9908340971585705</v>
+      </c>
+      <c r="E254" s="17">
+        <v>1200</v>
       </c>
       <c r="G254" s="18">
         <f t="shared" si="11"/>
@@ -8461,14 +8596,17 @@
         <v>4</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C255" s="17">
         <v>668</v>
       </c>
       <c r="D255" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>34.730538922155688</v>
+      </c>
+      <c r="E255" s="17">
+        <v>900</v>
       </c>
       <c r="G255" s="18">
         <f t="shared" si="11"/>
@@ -8484,14 +8622,17 @@
         <v>1</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C256" s="17">
         <v>2208</v>
       </c>
       <c r="D256" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>35.869565217391305</v>
+      </c>
+      <c r="E256" s="17">
+        <v>3000</v>
       </c>
       <c r="G256" s="18">
         <f t="shared" si="11"/>
@@ -8507,14 +8648,17 @@
         <v>4</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="C257" s="17">
         <v>233</v>
       </c>
       <c r="D257" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>41.630901287553648</v>
+      </c>
+      <c r="E257" s="17">
+        <v>330</v>
       </c>
       <c r="G257" s="18">
         <f t="shared" si="11"/>
@@ -8530,14 +8674,17 @@
         <v>4</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C258" s="17">
         <v>233</v>
       </c>
       <c r="D258" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>41.630901287553648</v>
+      </c>
+      <c r="E258" s="17">
+        <v>330</v>
       </c>
       <c r="G258" s="18">
         <f t="shared" si="11"/>
@@ -8553,14 +8700,17 @@
         <v>4</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="C259" s="17">
         <v>233</v>
       </c>
       <c r="D259" s="21">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>41.630901287553648</v>
+      </c>
+      <c r="E259" s="17">
+        <v>330</v>
       </c>
       <c r="G259" s="18">
         <f t="shared" si="11"/>
@@ -8576,14 +8726,17 @@
         <v>4</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C260" s="17">
         <v>233</v>
       </c>
       <c r="D260" s="21">
-        <f t="shared" ref="D260:D323" si="12">(E260-C260)/C260*100</f>
-        <v>-100</v>
+        <f t="shared" ref="D260:D331" si="12">(E260-C260)/C260*100</f>
+        <v>41.630901287553648</v>
+      </c>
+      <c r="E260" s="17">
+        <v>330</v>
       </c>
       <c r="G260" s="18">
         <f t="shared" si="11"/>
@@ -8599,7 +8752,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C261" s="17">
         <v>666</v>
@@ -8625,14 +8778,17 @@
         <v>1</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="C262" s="17">
         <v>990</v>
       </c>
       <c r="D262" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.858585858585855</v>
+      </c>
+      <c r="E262" s="17">
+        <v>1345</v>
       </c>
       <c r="G262" s="18">
         <f t="shared" si="11"/>
@@ -8648,14 +8804,17 @@
         <v>4</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="C263" s="17">
         <v>734</v>
       </c>
       <c r="D263" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.239782016348776</v>
+      </c>
+      <c r="E263" s="17">
+        <v>1000</v>
       </c>
       <c r="G263" s="18">
         <f t="shared" si="11"/>
@@ -8671,21 +8830,24 @@
         <v>2</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C264" s="17">
         <v>455</v>
       </c>
       <c r="D264" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.670329670329672</v>
+      </c>
+      <c r="E264" s="17">
+        <v>590</v>
       </c>
       <c r="G264" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J264" s="14">
-        <f t="shared" ref="J264:J333" si="13">C264*A264</f>
+        <f t="shared" ref="J264:J341" si="13">C264*A264</f>
         <v>910</v>
       </c>
     </row>
@@ -8694,14 +8856,17 @@
         <v>2</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="C265" s="17">
         <v>453</v>
       </c>
       <c r="D265" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>30.242825607064017</v>
+      </c>
+      <c r="E265" s="17">
+        <v>590</v>
       </c>
       <c r="G265" s="18">
         <f t="shared" si="11"/>
@@ -8717,14 +8882,17 @@
         <v>2</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="C266" s="17">
         <v>949</v>
       </c>
       <c r="D266" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.610115911485774</v>
+      </c>
+      <c r="E266" s="17">
+        <v>1230</v>
       </c>
       <c r="G266" s="18">
         <f t="shared" si="11"/>
@@ -8740,14 +8908,17 @@
         <v>4</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="C267" s="17">
         <v>490</v>
       </c>
       <c r="D267" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.591836734693878</v>
+      </c>
+      <c r="E267" s="17">
+        <v>635</v>
       </c>
       <c r="G267" s="18">
         <f t="shared" si="11"/>
@@ -8763,14 +8934,17 @@
         <v>2</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C268" s="17">
         <v>700</v>
       </c>
       <c r="D268" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="E268" s="17">
+        <v>950</v>
       </c>
       <c r="G268" s="18">
         <f t="shared" si="11"/>
@@ -8786,14 +8960,17 @@
         <v>2</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C269" s="17">
         <v>1033</v>
       </c>
       <c r="D269" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.527589545014521</v>
+      </c>
+      <c r="E269" s="17">
+        <v>1400</v>
       </c>
       <c r="G269" s="18">
         <f t="shared" si="11"/>
@@ -8809,14 +8986,17 @@
         <v>2</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C270" s="17">
         <v>1033</v>
       </c>
       <c r="D270" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.527589545014521</v>
+      </c>
+      <c r="E270" s="17">
+        <v>1400</v>
       </c>
       <c r="G270" s="18">
         <f t="shared" si="11"/>
@@ -8832,14 +9012,17 @@
         <v>2</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C271" s="17">
         <v>1202</v>
       </c>
       <c r="D271" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.607321131447591</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1630</v>
       </c>
       <c r="G271" s="18">
         <f t="shared" si="11"/>
@@ -8855,7 +9038,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C272" s="17">
         <v>529</v>
@@ -8881,7 +9064,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C273" s="17">
         <v>654</v>
@@ -8907,17 +9090,20 @@
         <v>1</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="C274" s="17">
         <v>1460</v>
       </c>
       <c r="D274" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.61643835616438</v>
+      </c>
+      <c r="E274" s="17">
+        <v>1980</v>
       </c>
       <c r="G274" s="18">
-        <f t="shared" ref="G274:G339" si="14">F274*C274</f>
+        <f t="shared" ref="G274:G347" si="14">F274*C274</f>
         <v>0</v>
       </c>
       <c r="J274" s="14">
@@ -8930,14 +9116,17 @@
         <v>1</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C275" s="17">
         <v>1659</v>
       </c>
       <c r="D275" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>37.43218806509946</v>
+      </c>
+      <c r="E275" s="17">
+        <v>2280</v>
       </c>
       <c r="G275" s="18">
         <f t="shared" si="14"/>
@@ -8953,14 +9142,17 @@
         <v>1</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="C276" s="17">
         <v>7640</v>
       </c>
       <c r="D276" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.078534031413611</v>
+      </c>
+      <c r="E276" s="17">
+        <v>10320</v>
       </c>
       <c r="G276" s="18">
         <f t="shared" si="14"/>
@@ -8976,14 +9168,17 @@
         <v>4</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C277" s="17">
         <v>734</v>
       </c>
       <c r="D277" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.239782016348776</v>
+      </c>
+      <c r="E277" s="17">
+        <v>1000</v>
       </c>
       <c r="G277" s="18">
         <f t="shared" si="14"/>
@@ -8999,14 +9194,17 @@
         <v>1</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C278" s="17">
         <v>3846</v>
       </c>
       <c r="D278" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.595423816952675</v>
+      </c>
+      <c r="E278" s="17">
+        <v>5215</v>
       </c>
       <c r="G278" s="18">
         <f t="shared" si="14"/>
@@ -9022,14 +9220,17 @@
         <v>1</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C279" s="17">
         <v>3846</v>
       </c>
       <c r="D279" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.595423816952675</v>
+      </c>
+      <c r="E279" s="17">
+        <v>5215</v>
       </c>
       <c r="G279" s="18">
         <f t="shared" si="14"/>
@@ -9045,14 +9246,17 @@
         <v>1</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C280" s="17">
         <v>3846</v>
       </c>
       <c r="D280" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.595423816952675</v>
+      </c>
+      <c r="E280" s="17">
+        <v>5215</v>
       </c>
       <c r="G280" s="18">
         <f t="shared" si="14"/>
@@ -9068,14 +9272,17 @@
         <v>4</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C281" s="17">
         <v>350</v>
       </c>
       <c r="D281" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="E281" s="17">
+        <v>475</v>
       </c>
       <c r="G281" s="18">
         <f t="shared" si="14"/>
@@ -9091,14 +9298,17 @@
         <v>4</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C282" s="17">
         <v>350</v>
       </c>
       <c r="D282" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="E282" s="17">
+        <v>475</v>
       </c>
       <c r="G282" s="18">
         <f t="shared" si="14"/>
@@ -9110,15 +9320,21 @@
       </c>
     </row>
     <row r="283" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="15">
+        <v>3</v>
+      </c>
       <c r="B283" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C283" s="17">
-        <v>513</v>
+        <v>814</v>
       </c>
       <c r="D283" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20.393120393120391</v>
+      </c>
+      <c r="E283" s="17">
+        <v>980</v>
       </c>
       <c r="G283" s="18">
         <f t="shared" si="14"/>
@@ -9126,59 +9342,71 @@
       </c>
       <c r="J283" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="15">
+        <v>6</v>
+      </c>
       <c r="B284" s="19" t="s">
-        <v>52</v>
+        <v>454</v>
       </c>
       <c r="C284" s="17">
-        <v>557</v>
+        <v>319</v>
       </c>
       <c r="D284" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="G284" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <v>25.391849529780565</v>
+      </c>
+      <c r="E284" s="17">
+        <v>400</v>
+      </c>
+      <c r="G284" s="18"/>
       <c r="J284" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="15">
+        <v>6</v>
+      </c>
       <c r="B285" s="19" t="s">
-        <v>53</v>
+        <v>455</v>
       </c>
       <c r="C285" s="17">
-        <v>557</v>
+        <v>319</v>
       </c>
       <c r="D285" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="G285" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <v>25.391849529780565</v>
+      </c>
+      <c r="E285" s="17">
+        <v>400</v>
+      </c>
+      <c r="G285" s="18"/>
       <c r="J285" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="15">
+        <v>6</v>
+      </c>
       <c r="B286" s="19" t="s">
-        <v>54</v>
+        <v>456</v>
       </c>
       <c r="C286" s="17">
-        <v>1383</v>
+        <v>319</v>
       </c>
       <c r="D286" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>25.391849529780565</v>
+      </c>
+      <c r="E286" s="17">
+        <v>400</v>
       </c>
       <c r="G286" s="18">
         <f t="shared" si="14"/>
@@ -9186,39 +9414,45 @@
       </c>
       <c r="J286" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="15">
+        <v>1</v>
+      </c>
       <c r="B287" s="19" t="s">
-        <v>55</v>
+        <v>457</v>
       </c>
       <c r="C287" s="17">
-        <v>3001</v>
+        <v>2097</v>
       </c>
       <c r="D287" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="G287" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <v>43.061516452074393</v>
+      </c>
+      <c r="E287" s="17">
+        <v>3000</v>
+      </c>
+      <c r="G287" s="18"/>
       <c r="J287" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="19" t="s">
-        <v>56</v>
+        <v>458</v>
       </c>
       <c r="C288" s="17">
-        <v>90</v>
+        <v>558</v>
       </c>
       <c r="D288" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.200716845878134</v>
+      </c>
+      <c r="E288" s="17">
+        <v>760</v>
       </c>
       <c r="G288" s="18">
         <f t="shared" si="14"/>
@@ -9231,14 +9465,17 @@
     </row>
     <row r="289" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="19" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="C289" s="17">
-        <v>104</v>
+        <v>558</v>
       </c>
       <c r="D289" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.200716845878134</v>
+      </c>
+      <c r="E289" s="17">
+        <v>760</v>
       </c>
       <c r="G289" s="18">
         <f t="shared" si="14"/>
@@ -9250,15 +9487,18 @@
       </c>
     </row>
     <row r="290" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="19" t="s">
-        <v>57</v>
+      <c r="B290" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="C290" s="17">
-        <v>218</v>
+        <v>1384</v>
       </c>
       <c r="D290" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.942196531791907</v>
+      </c>
+      <c r="E290" s="17">
+        <v>1660</v>
       </c>
       <c r="G290" s="18">
         <f t="shared" si="14"/>
@@ -9270,15 +9510,18 @@
       </c>
     </row>
     <row r="291" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="19" t="s">
-        <v>58</v>
+      <c r="B291" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C291" s="17">
-        <v>70</v>
+        <v>3001</v>
       </c>
       <c r="D291" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.993335554815062</v>
+      </c>
+      <c r="E291" s="17">
+        <v>3601</v>
       </c>
       <c r="G291" s="18">
         <f t="shared" si="14"/>
@@ -9291,14 +9534,17 @@
     </row>
     <row r="292" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="19" t="s">
-        <v>59</v>
+        <v>460</v>
       </c>
       <c r="C292" s="17">
-        <v>65</v>
+        <v>4321</v>
       </c>
       <c r="D292" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.593612589678315</v>
+      </c>
+      <c r="E292" s="17">
+        <v>5859</v>
       </c>
       <c r="G292" s="18">
         <f t="shared" si="14"/>
@@ -9311,14 +9557,17 @@
     </row>
     <row r="293" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="19" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="C293" s="17">
-        <v>77</v>
+        <v>4321</v>
       </c>
       <c r="D293" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.593612589678315</v>
+      </c>
+      <c r="E293" s="17">
+        <v>5859</v>
       </c>
       <c r="G293" s="18">
         <f t="shared" si="14"/>
@@ -9331,14 +9580,17 @@
     </row>
     <row r="294" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="19" t="s">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="C294" s="17">
-        <v>1000</v>
+        <v>4301</v>
       </c>
       <c r="D294" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.22413392234364</v>
+      </c>
+      <c r="E294" s="17">
+        <v>5859</v>
       </c>
       <c r="G294" s="18">
         <f t="shared" si="14"/>
@@ -9351,14 +9603,17 @@
     </row>
     <row r="295" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="19" t="s">
-        <v>62</v>
+        <v>463</v>
       </c>
       <c r="C295" s="17">
-        <v>880</v>
+        <v>1992</v>
       </c>
       <c r="D295" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.542168674698793</v>
+      </c>
+      <c r="E295" s="17">
+        <v>2700</v>
       </c>
       <c r="G295" s="18">
         <f t="shared" si="14"/>
@@ -9370,15 +9625,18 @@
       </c>
     </row>
     <row r="296" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="19" t="s">
-        <v>63</v>
+      <c r="B296" s="33" t="s">
+        <v>464</v>
       </c>
       <c r="C296" s="17">
-        <v>401</v>
+        <v>4945</v>
       </c>
       <c r="D296" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20</v>
+      </c>
+      <c r="E296" s="17">
+        <v>5934</v>
       </c>
       <c r="G296" s="18">
         <f t="shared" si="14"/>
@@ -9390,15 +9648,18 @@
       </c>
     </row>
     <row r="297" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="19" t="s">
-        <v>64</v>
+      <c r="B297" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="C297" s="17">
-        <v>577</v>
+        <v>10500</v>
       </c>
       <c r="D297" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.771428571428569</v>
+      </c>
+      <c r="E297" s="17">
+        <v>12576</v>
       </c>
       <c r="G297" s="18">
         <f t="shared" si="14"/>
@@ -9410,15 +9671,18 @@
       </c>
     </row>
     <row r="298" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="19" t="s">
-        <v>65</v>
+      <c r="B298" s="33" t="s">
+        <v>466</v>
       </c>
       <c r="C298" s="17">
-        <v>429</v>
+        <v>4229</v>
       </c>
       <c r="D298" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.177110427997164</v>
+      </c>
+      <c r="E298" s="17">
+        <v>5040</v>
       </c>
       <c r="G298" s="18">
         <f t="shared" si="14"/>
@@ -9430,15 +9694,18 @@
       </c>
     </row>
     <row r="299" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="19" t="s">
-        <v>66</v>
+      <c r="B299" s="33" t="s">
+        <v>467</v>
       </c>
       <c r="C299" s="17">
-        <v>671</v>
+        <v>6598</v>
       </c>
       <c r="D299" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.733252500757807</v>
+      </c>
+      <c r="E299" s="17">
+        <v>7900</v>
       </c>
       <c r="G299" s="18">
         <f t="shared" si="14"/>
@@ -9450,15 +9717,18 @@
       </c>
     </row>
     <row r="300" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="19" t="s">
-        <v>67</v>
+      <c r="B300" s="33" t="s">
+        <v>468</v>
       </c>
       <c r="C300" s="17">
-        <v>2781</v>
+        <v>4673</v>
       </c>
       <c r="D300" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20.051358870104856</v>
+      </c>
+      <c r="E300" s="17">
+        <v>5610</v>
       </c>
       <c r="G300" s="18">
         <f t="shared" si="14"/>
@@ -9470,15 +9740,18 @@
       </c>
     </row>
     <row r="301" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="19" t="s">
-        <v>68</v>
+      <c r="B301" s="33" t="s">
+        <v>469</v>
       </c>
       <c r="C301" s="17">
-        <v>2216</v>
+        <v>1000</v>
       </c>
       <c r="D301" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20</v>
+      </c>
+      <c r="E301" s="17">
+        <v>1200</v>
       </c>
       <c r="G301" s="18">
         <f t="shared" si="14"/>
@@ -9491,14 +9764,17 @@
     </row>
     <row r="302" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="19" t="s">
-        <v>69</v>
+        <v>470</v>
       </c>
       <c r="C302" s="17">
-        <v>385</v>
+        <v>880</v>
       </c>
       <c r="D302" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>30</v>
+      </c>
+      <c r="E302" s="17">
+        <v>1144</v>
       </c>
       <c r="G302" s="18">
         <f t="shared" si="14"/>
@@ -9511,14 +9787,17 @@
     </row>
     <row r="303" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="19" t="s">
-        <v>70</v>
+        <v>471</v>
       </c>
       <c r="C303" s="17">
-        <v>1705</v>
+        <v>401</v>
       </c>
       <c r="D303" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>30.174563591022448</v>
+      </c>
+      <c r="E303" s="17">
+        <v>522</v>
       </c>
       <c r="G303" s="18">
         <f t="shared" si="14"/>
@@ -9531,14 +9810,17 @@
     </row>
     <row r="304" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="19" t="s">
-        <v>71</v>
+        <v>472</v>
       </c>
       <c r="C304" s="17">
-        <v>3107</v>
+        <v>577</v>
       </c>
       <c r="D304" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.982668977469672</v>
+      </c>
+      <c r="E304" s="17">
+        <v>750</v>
       </c>
       <c r="G304" s="18">
         <f t="shared" si="14"/>
@@ -9551,14 +9833,17 @@
     </row>
     <row r="305" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="19" t="s">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="C305" s="17">
-        <v>1045</v>
+        <v>430</v>
       </c>
       <c r="D305" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.581395348837205</v>
+      </c>
+      <c r="E305" s="17">
+        <v>583</v>
       </c>
       <c r="G305" s="18">
         <f t="shared" si="14"/>
@@ -9571,14 +9856,17 @@
     </row>
     <row r="306" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="19" t="s">
-        <v>73</v>
+        <v>476</v>
       </c>
       <c r="C306" s="17">
-        <v>912</v>
+        <v>430</v>
       </c>
       <c r="D306" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.581395348837205</v>
+      </c>
+      <c r="E306" s="17">
+        <v>583</v>
       </c>
       <c r="G306" s="18">
         <f t="shared" si="14"/>
@@ -9591,14 +9879,17 @@
     </row>
     <row r="307" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="19" t="s">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="C307" s="17">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="D307" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.581395348837205</v>
+      </c>
+      <c r="E307" s="17">
+        <v>583</v>
       </c>
       <c r="G307" s="18">
         <f t="shared" si="14"/>
@@ -9611,14 +9902,17 @@
     </row>
     <row r="308" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="19" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="C308" s="17">
-        <v>875</v>
+        <v>671</v>
       </c>
       <c r="D308" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.469448584202681</v>
+      </c>
+      <c r="E308" s="17">
+        <v>909</v>
       </c>
       <c r="G308" s="18">
         <f t="shared" si="14"/>
@@ -9630,15 +9924,18 @@
       </c>
     </row>
     <row r="309" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="19" t="s">
-        <v>76</v>
+      <c r="B309" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C309" s="17">
-        <v>480</v>
+        <v>2781</v>
       </c>
       <c r="D309" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>19.992808342322903</v>
+      </c>
+      <c r="E309" s="17">
+        <v>3337</v>
       </c>
       <c r="G309" s="18">
         <f t="shared" si="14"/>
@@ -9650,15 +9947,18 @@
       </c>
     </row>
     <row r="310" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="19" t="s">
-        <v>77</v>
+      <c r="B310" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C310" s="17">
-        <v>1528</v>
+        <v>2216</v>
       </c>
       <c r="D310" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20.036101083032491</v>
+      </c>
+      <c r="E310" s="17">
+        <v>2660</v>
       </c>
       <c r="G310" s="18">
         <f t="shared" si="14"/>
@@ -9670,15 +9970,18 @@
       </c>
     </row>
     <row r="311" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="19" t="s">
-        <v>78</v>
+      <c r="B311" s="32" t="s">
+        <v>477</v>
       </c>
       <c r="C311" s="17">
-        <v>4286</v>
+        <v>163</v>
       </c>
       <c r="D311" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.447852760736197</v>
+      </c>
+      <c r="E311" s="17">
+        <v>211</v>
       </c>
       <c r="G311" s="18">
         <f t="shared" si="14"/>
@@ -9690,15 +9993,18 @@
       </c>
     </row>
     <row r="312" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="19" t="s">
-        <v>79</v>
+      <c r="B312" s="32" t="s">
+        <v>477</v>
       </c>
       <c r="C312" s="17">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="D312" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.738562091503269</v>
+      </c>
+      <c r="E312" s="17">
+        <v>397</v>
       </c>
       <c r="G312" s="18">
         <f t="shared" si="14"/>
@@ -9710,15 +10016,18 @@
       </c>
     </row>
     <row r="313" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="19" t="s">
-        <v>80</v>
+      <c r="B313" s="32" t="s">
+        <v>477</v>
       </c>
       <c r="C313" s="17">
-        <v>1352</v>
+        <v>528</v>
       </c>
       <c r="D313" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.734848484848484</v>
+      </c>
+      <c r="E313" s="17">
+        <v>685</v>
       </c>
       <c r="G313" s="18">
         <f t="shared" si="14"/>
@@ -9731,14 +10040,17 @@
     </row>
     <row r="314" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="19" t="s">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="C314" s="17">
-        <v>1394</v>
+        <v>385</v>
       </c>
       <c r="D314" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20.259740259740262</v>
+      </c>
+      <c r="E314" s="17">
+        <v>463</v>
       </c>
       <c r="G314" s="18">
         <f t="shared" si="14"/>
@@ -9751,14 +10063,17 @@
     </row>
     <row r="315" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="19" t="s">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="C315" s="17">
-        <v>1212</v>
+        <v>1705</v>
       </c>
       <c r="D315" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.659824046920825</v>
+      </c>
+      <c r="E315" s="17">
+        <v>2313</v>
       </c>
       <c r="G315" s="18">
         <f t="shared" si="14"/>
@@ -9771,14 +10086,17 @@
     </row>
     <row r="316" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="19" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C316" s="17">
-        <v>902</v>
+        <v>3107</v>
       </c>
       <c r="D316" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.6292243321532</v>
+      </c>
+      <c r="E316" s="17">
+        <v>4214</v>
       </c>
       <c r="G316" s="18">
         <f t="shared" si="14"/>
@@ -9791,14 +10109,17 @@
     </row>
     <row r="317" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="19" t="s">
-        <v>84</v>
+        <v>481</v>
       </c>
       <c r="C317" s="17">
-        <v>1517</v>
+        <v>1045</v>
       </c>
       <c r="D317" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.952153110047846</v>
+      </c>
+      <c r="E317" s="17">
+        <v>1358</v>
       </c>
       <c r="G317" s="18">
         <f t="shared" si="14"/>
@@ -9811,14 +10132,17 @@
     </row>
     <row r="318" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="19" t="s">
-        <v>86</v>
+        <v>482</v>
       </c>
       <c r="C318" s="17">
-        <v>865</v>
+        <v>912</v>
       </c>
       <c r="D318" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.934210526315791</v>
+      </c>
+      <c r="E318" s="17">
+        <v>1185</v>
       </c>
       <c r="G318" s="18">
         <f t="shared" si="14"/>
@@ -9831,14 +10155,17 @@
     </row>
     <row r="319" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="19" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="C319" s="17">
-        <v>305</v>
+        <v>1386</v>
       </c>
       <c r="D319" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>29.942279942279942</v>
+      </c>
+      <c r="E319" s="17">
+        <v>1801</v>
       </c>
       <c r="G319" s="18">
         <f t="shared" si="14"/>
@@ -9851,14 +10178,17 @@
     </row>
     <row r="320" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="19" t="s">
-        <v>87</v>
+        <v>484</v>
       </c>
       <c r="C320" s="17">
-        <v>477</v>
+        <v>875</v>
       </c>
       <c r="D320" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.657142857142858</v>
+      </c>
+      <c r="E320" s="17">
+        <v>1187</v>
       </c>
       <c r="G320" s="18">
         <f t="shared" si="14"/>
@@ -9871,14 +10201,17 @@
     </row>
     <row r="321" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="19" t="s">
-        <v>88</v>
+        <v>485</v>
       </c>
       <c r="C321" s="17">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="D321" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>35.625</v>
+      </c>
+      <c r="E321" s="17">
+        <v>651</v>
       </c>
       <c r="G321" s="18">
         <f t="shared" si="14"/>
@@ -9890,15 +10223,18 @@
       </c>
     </row>
     <row r="322" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="19" t="s">
-        <v>89</v>
+      <c r="B322" s="33" t="s">
+        <v>486</v>
       </c>
       <c r="C322" s="17">
-        <v>408</v>
+        <v>1528</v>
       </c>
       <c r="D322" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>20.026178010471206</v>
+      </c>
+      <c r="E322" s="17">
+        <v>1834</v>
       </c>
       <c r="G322" s="18">
         <f t="shared" si="14"/>
@@ -9910,15 +10246,18 @@
       </c>
     </row>
     <row r="323" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="19" t="s">
-        <v>90</v>
+      <c r="B323" s="33" t="s">
+        <v>487</v>
       </c>
       <c r="C323" s="17">
-        <v>339</v>
+        <v>4286</v>
       </c>
       <c r="D323" s="21">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>36.000933271115258</v>
+      </c>
+      <c r="E323" s="17">
+        <v>5829</v>
       </c>
       <c r="G323" s="18">
         <f t="shared" si="14"/>
@@ -9931,14 +10270,17 @@
     </row>
     <row r="324" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="19" t="s">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="C324" s="17">
-        <v>530</v>
+        <v>189</v>
       </c>
       <c r="D324" s="21">
-        <f t="shared" ref="D324:D374" si="15">(E324-C324)/C324*100</f>
-        <v>-100</v>
+        <f t="shared" si="12"/>
+        <v>35.449735449735449</v>
+      </c>
+      <c r="E324" s="17">
+        <v>256</v>
       </c>
       <c r="G324" s="18">
         <f t="shared" si="14"/>
@@ -9951,13 +10293,13 @@
     </row>
     <row r="325" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="19" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C325" s="17">
-        <v>568</v>
+        <v>902</v>
       </c>
       <c r="D325" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G325" s="18">
@@ -9971,13 +10313,13 @@
     </row>
     <row r="326" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="19" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C326" s="17">
-        <v>443</v>
+        <v>1517</v>
       </c>
       <c r="D326" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G326" s="18">
@@ -9991,13 +10333,13 @@
     </row>
     <row r="327" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="19" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C327" s="17">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="D327" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G327" s="18">
@@ -10011,13 +10353,13 @@
     </row>
     <row r="328" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="19" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C328" s="17">
-        <v>1088</v>
+        <v>477</v>
       </c>
       <c r="D328" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G328" s="18">
@@ -10031,13 +10373,13 @@
     </row>
     <row r="329" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="19" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C329" s="17">
-        <v>620</v>
+        <v>429</v>
       </c>
       <c r="D329" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G329" s="18">
@@ -10051,13 +10393,13 @@
     </row>
     <row r="330" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="19" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C330" s="17">
-        <v>1101</v>
+        <v>408</v>
       </c>
       <c r="D330" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G330" s="18">
@@ -10071,13 +10413,13 @@
     </row>
     <row r="331" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="19" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C331" s="17">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="D331" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
       <c r="G331" s="18">
@@ -10091,13 +10433,13 @@
     </row>
     <row r="332" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="19" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C332" s="17">
-        <v>1445</v>
+        <v>530</v>
       </c>
       <c r="D332" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D332:D382" si="15">(E332-C332)/C332*100</f>
         <v>-100</v>
       </c>
       <c r="G332" s="18">
@@ -10111,10 +10453,10 @@
     </row>
     <row r="333" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="19" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C333" s="17">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="D333" s="21">
         <f t="shared" si="15"/>
@@ -10131,10 +10473,10 @@
     </row>
     <row r="334" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="19" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C334" s="17">
-        <v>963</v>
+        <v>443</v>
       </c>
       <c r="D334" s="21">
         <f t="shared" si="15"/>
@@ -10145,16 +10487,16 @@
         <v>0</v>
       </c>
       <c r="J334" s="14">
-        <f t="shared" ref="J334:J374" si="16">C334*A334</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="19" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C335" s="17">
-        <v>805</v>
+        <v>437</v>
       </c>
       <c r="D335" s="21">
         <f t="shared" si="15"/>
@@ -10165,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="J335" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="19" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C336" s="17">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="D336" s="21">
         <f t="shared" si="15"/>
@@ -10185,16 +10527,16 @@
         <v>0</v>
       </c>
       <c r="J336" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="19" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C337" s="17">
-        <v>457</v>
+        <v>620</v>
       </c>
       <c r="D337" s="21">
         <f t="shared" si="15"/>
@@ -10205,16 +10547,16 @@
         <v>0</v>
       </c>
       <c r="J337" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="19" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C338" s="17">
-        <v>988</v>
+        <v>1101</v>
       </c>
       <c r="D338" s="21">
         <f t="shared" si="15"/>
@@ -10225,16 +10567,16 @@
         <v>0</v>
       </c>
       <c r="J338" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="19" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C339" s="17">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D339" s="21">
         <f t="shared" si="15"/>
@@ -10245,59 +10587,83 @@
         <v>0</v>
       </c>
       <c r="J339" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D340" s="21" t="e">
+      <c r="B340" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C340" s="17">
+        <v>1445</v>
+      </c>
+      <c r="D340" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G340" s="18">
-        <f t="shared" ref="G340:G374" si="17">F340*C340</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J340" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D341" s="21" t="e">
+      <c r="B341" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C341" s="17">
+        <v>590</v>
+      </c>
+      <c r="D341" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G341" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J341" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D342" s="21" t="e">
+      <c r="B342" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C342" s="17">
+        <v>963</v>
+      </c>
+      <c r="D342" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G342" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J342" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J342:J382" si="16">C342*A342</f>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D343" s="21" t="e">
+      <c r="B343" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C343" s="17">
+        <v>805</v>
+      </c>
+      <c r="D343" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G343" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J343" s="14">
@@ -10306,12 +10672,18 @@
       </c>
     </row>
     <row r="344" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D344" s="21" t="e">
+      <c r="B344" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C344" s="17">
+        <v>1082</v>
+      </c>
+      <c r="D344" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G344" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J344" s="14">
@@ -10320,12 +10692,18 @@
       </c>
     </row>
     <row r="345" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D345" s="21" t="e">
+      <c r="B345" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C345" s="17">
+        <v>457</v>
+      </c>
+      <c r="D345" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G345" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J345" s="14">
@@ -10334,12 +10712,18 @@
       </c>
     </row>
     <row r="346" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D346" s="21" t="e">
+      <c r="B346" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C346" s="17">
+        <v>988</v>
+      </c>
+      <c r="D346" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G346" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J346" s="14">
@@ -10348,12 +10732,18 @@
       </c>
     </row>
     <row r="347" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D347" s="21" t="e">
+      <c r="B347" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C347" s="17">
+        <v>298</v>
+      </c>
+      <c r="D347" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="G347" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J347" s="14">
@@ -10367,7 +10757,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G348" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G348:G382" si="17">F348*C348</f>
         <v>0</v>
       </c>
       <c r="J348" s="14">
@@ -10711,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D373" s="21" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
@@ -10725,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D374" s="21" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
@@ -10735,6 +11125,118 @@
         <v>0</v>
       </c>
       <c r="J374" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D375" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G375" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J375" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D376" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G376" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J376" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D377" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G377" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J377" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D378" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G378" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J378" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D379" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G379" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J379" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D380" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G380" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J380" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D381" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G381" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J381" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D382" s="21" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G382" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J382" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -10773,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -10782,15 +11284,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>75</v>
@@ -10813,7 +11315,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>83</v>
@@ -10836,7 +11338,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>450</v>
@@ -10859,7 +11361,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>1925</v>
@@ -10882,7 +11384,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>750</v>
@@ -10905,7 +11407,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>350</v>
@@ -10928,7 +11430,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>425</v>
@@ -10951,7 +11453,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>700</v>
@@ -10974,7 +11476,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>325</v>
@@ -10997,7 +11499,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
         <v>400</v>
@@ -11020,7 +11522,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>250</v>
@@ -11043,7 +11545,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3">
         <v>350</v>
@@ -11066,7 +11568,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>350</v>
@@ -11089,7 +11591,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>1275</v>
@@ -11112,7 +11614,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
         <v>200</v>
@@ -11135,7 +11637,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -11158,7 +11660,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
         <v>125</v>
@@ -11181,7 +11683,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
         <v>250</v>
@@ -11204,7 +11706,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
         <v>600</v>
@@ -11227,7 +11729,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
         <v>1650</v>
@@ -11250,7 +11752,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
         <v>100</v>
@@ -11273,7 +11775,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <v>650</v>
@@ -11296,7 +11798,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
         <v>650</v>
@@ -11319,7 +11821,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
         <v>500</v>
@@ -11342,7 +11844,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
         <v>600</v>
@@ -11365,7 +11867,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
         <v>575</v>
@@ -11388,7 +11890,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
         <v>675</v>
@@ -11411,7 +11913,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <v>60</v>
@@ -11434,7 +11936,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <v>300</v>
@@ -13348,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -13357,15 +13859,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3">
         <v>2080</v>
@@ -13388,7 +13890,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3">
         <v>2000</v>
@@ -13411,7 +13913,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
@@ -13434,7 +13936,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3">
         <v>2750</v>
@@ -13457,7 +13959,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3">
         <v>2700</v>
@@ -13480,7 +13982,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
         <v>3825</v>
@@ -15391,18 +15893,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3">
         <v>2100</v>
@@ -15418,7 +15920,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3">
         <v>200</v>
@@ -15434,7 +15936,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3">
         <v>400</v>
@@ -15450,7 +15952,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3">
         <v>650</v>
@@ -15466,7 +15968,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3">
         <v>100</v>
@@ -15482,7 +15984,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3">
         <v>600</v>
@@ -15498,7 +16000,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3">
         <v>250</v>
@@ -15513,7 +16015,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3">
         <v>750</v>
@@ -15528,7 +16030,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3">
         <v>1400</v>
@@ -15543,7 +16045,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3">
         <v>250</v>
@@ -15558,7 +16060,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3">
         <v>500</v>
@@ -15573,7 +16075,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3">
         <v>900</v>
@@ -15588,7 +16090,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3">
         <v>1360</v>
@@ -15603,7 +16105,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3">
         <v>160</v>
@@ -15618,7 +16120,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3">
         <v>780</v>
@@ -15633,7 +16135,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3">
         <v>800</v>
@@ -15648,7 +16150,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3">
         <v>900</v>
@@ -15663,7 +16165,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3">
         <v>450</v>
@@ -16750,18 +17252,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3">
         <v>313</v>
@@ -16773,7 +17275,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3">
         <v>491</v>
@@ -16788,7 +17290,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3">
         <v>960</v>
@@ -16800,7 +17302,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3">
         <v>243</v>
@@ -16812,7 +17314,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3">
         <v>589</v>
@@ -16824,7 +17326,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <v>603</v>
@@ -16836,7 +17338,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3">
         <v>947</v>
@@ -16848,7 +17350,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
         <v>954</v>
@@ -16860,7 +17362,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3">
         <v>460</v>
@@ -16872,7 +17374,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3">
         <v>459</v>
@@ -16884,7 +17386,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3">
         <v>248</v>
@@ -16896,7 +17398,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3">
         <v>212</v>
@@ -16908,7 +17410,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3">
         <v>232</v>
@@ -17915,18 +18417,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3">
         <v>176.99</v>
@@ -17941,7 +18443,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>23.97</v>
@@ -17956,7 +18458,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3">
         <v>70.8</v>
@@ -17971,7 +18473,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3">
         <v>71</v>
@@ -17986,7 +18488,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3">
         <v>424</v>
@@ -18001,7 +18503,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3">
         <v>424</v>
@@ -18016,7 +18518,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3">
         <v>40</v>
@@ -18031,7 +18533,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3">
         <v>74</v>
@@ -18046,7 +18548,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3">
         <v>74</v>
@@ -18061,7 +18563,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3">
         <v>74</v>
@@ -18076,7 +18578,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>74</v>
@@ -18091,7 +18593,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3">
         <v>74</v>
@@ -18106,7 +18608,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3">
         <v>74</v>
@@ -18121,7 +18623,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3">
         <v>664</v>
@@ -18136,7 +18638,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B16" s="3">
         <v>664</v>
@@ -18151,7 +18653,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B17" s="3">
         <v>664</v>
@@ -18166,7 +18668,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B18" s="3">
         <v>664</v>
@@ -18181,7 +18683,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3">
         <v>293</v>
@@ -18196,7 +18698,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B20" s="3">
         <v>293</v>
@@ -18211,7 +18713,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B21" s="3">
         <v>293</v>
@@ -18226,7 +18728,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3">
         <v>293</v>
@@ -18241,7 +18743,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3">
         <v>123</v>
@@ -19118,18 +19620,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>625</v>
@@ -19144,7 +19646,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>700</v>
@@ -19159,7 +19661,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3">
         <v>700</v>
@@ -19174,7 +19676,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3">
         <v>700</v>
@@ -19189,7 +19691,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3">
         <v>600</v>
@@ -19204,7 +19706,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3">
         <v>600</v>
@@ -19219,7 +19721,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -19234,7 +19736,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3">
         <v>650</v>
@@ -19249,7 +19751,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3">
         <v>650</v>
@@ -19264,7 +19766,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3">
         <v>600</v>
@@ -19279,7 +19781,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B12" s="3">
         <v>600</v>
@@ -19294,7 +19796,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B13" s="3">
         <v>700</v>
@@ -19314,7 +19816,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3">
         <v>830</v>
@@ -19326,7 +19828,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B16" s="3">
         <v>1200</v>
@@ -19338,7 +19840,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3">
         <v>1250</v>
@@ -19355,7 +19857,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4" t="e">
         <f t="shared" si="0"/>
@@ -20113,18 +20615,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3">
         <v>2000</v>
@@ -20136,7 +20638,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3">
         <v>750</v>
@@ -20151,7 +20653,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B4" s="3">
         <v>960</v>
@@ -20166,7 +20668,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3">
         <v>1200</v>
@@ -20181,7 +20683,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3">
         <v>1000</v>
@@ -20193,7 +20695,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4" t="e">
         <f t="shared" si="0"/>
@@ -20202,7 +20704,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B8" s="3">
         <v>1200</v>
@@ -20217,7 +20719,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3">
         <v>800</v>
@@ -20232,7 +20734,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B10" s="3">
         <v>2400</v>
@@ -20244,7 +20746,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B11" s="3">
         <v>2400</v>
@@ -20256,7 +20758,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B12" s="3">
         <v>1920</v>
@@ -20268,7 +20770,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B13" s="3">
         <v>3450</v>
@@ -20280,7 +20782,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3">
         <v>800</v>
@@ -20295,7 +20797,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B15" s="3">
         <v>800</v>
@@ -20307,7 +20809,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>665</v>
@@ -20322,7 +20824,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3">
         <v>1200</v>
@@ -20334,7 +20836,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B18" s="3">
         <v>750</v>
@@ -20346,7 +20848,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B19" s="3">
         <v>3000</v>
@@ -20358,7 +20860,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3">
         <v>1600</v>
@@ -20370,7 +20872,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3">
         <v>2000</v>
@@ -20382,7 +20884,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3">
         <v>2500</v>
@@ -20394,7 +20896,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B23" s="3">
         <v>160</v>
@@ -20409,7 +20911,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3">
         <v>960</v>
@@ -20424,7 +20926,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B25" s="3">
         <v>2400</v>
@@ -20436,7 +20938,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3">
         <v>3100</v>
@@ -20448,7 +20950,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B27" s="3">
         <v>1400</v>
@@ -20460,7 +20962,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B28" s="3">
         <v>3350</v>

--- a/Precio Venta3.xlsx
+++ b/Precio Venta3.xlsx
@@ -2015,8 +2015,8 @@
   <dimension ref="A1:O405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,14 +2069,14 @@
         <v>1952</v>
       </c>
       <c r="D2" s="21">
-        <f>(E2-C2)/C2*100</f>
+        <f t="shared" ref="D2:D17" si="0">(E2-C2)/C2*100</f>
         <v>11.936475409836065</v>
       </c>
       <c r="E2" s="17">
         <v>2185</v>
       </c>
       <c r="G2" s="18">
-        <f>F2*C2</f>
+        <f t="shared" ref="G2:G33" si="1">F2*C2</f>
         <v>0</v>
       </c>
       <c r="J2" s="14">
@@ -2095,14 +2095,14 @@
         <v>2771</v>
       </c>
       <c r="D3" s="21">
-        <f>(E3-C3)/C3*100</f>
+        <f t="shared" si="0"/>
         <v>11.872970046914471</v>
       </c>
       <c r="E3" s="17">
         <v>3100</v>
       </c>
       <c r="G3" s="18">
-        <f>F3*C3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" s="14">
@@ -2121,14 +2121,14 @@
         <v>979</v>
       </c>
       <c r="D4" s="21">
-        <f>(E4-C4)/C4*100</f>
+        <f t="shared" si="0"/>
         <v>11.848825331971399</v>
       </c>
       <c r="E4" s="17">
         <v>1095</v>
       </c>
       <c r="G4" s="18">
-        <f>F4*C4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="14">
@@ -2147,14 +2147,14 @@
         <v>514</v>
       </c>
       <c r="D5" s="21">
-        <f>(E5-C5)/C5*100</f>
+        <f t="shared" si="0"/>
         <v>11.867704280155641</v>
       </c>
       <c r="E5" s="17">
         <v>575</v>
       </c>
       <c r="G5" s="18">
-        <f>F5*C5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="14">
@@ -2170,14 +2170,14 @@
         <v>514</v>
       </c>
       <c r="D6" s="21">
-        <f>(E6-C6)/C6*100</f>
+        <f t="shared" si="0"/>
         <v>11.867704280155641</v>
       </c>
       <c r="E6" s="17">
         <v>575</v>
       </c>
       <c r="G6" s="18">
-        <f>F6*C6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="14"/>
@@ -2193,18 +2193,18 @@
         <v>2138</v>
       </c>
       <c r="D7" s="21">
-        <f>(E7-C7)/C7*100</f>
+        <f t="shared" si="0"/>
         <v>133.86342376052386</v>
       </c>
       <c r="E7" s="17">
         <v>5000</v>
       </c>
       <c r="G7" s="18">
-        <f>F7*C7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="14">
-        <f>C7*A7</f>
+        <f t="shared" ref="J7:J16" si="2">C7*A7</f>
         <v>2138</v>
       </c>
     </row>
@@ -2219,14 +2219,14 @@
         <v>244</v>
       </c>
       <c r="D8" s="21">
-        <f>(E8-C8)/C8*100</f>
+        <f t="shared" si="0"/>
         <v>35.245901639344261</v>
       </c>
       <c r="E8" s="17">
         <v>330</v>
       </c>
       <c r="G8" s="18">
-        <f>F8*C8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f>C8*A8</f>
+        <f t="shared" si="2"/>
         <v>1220</v>
       </c>
       <c r="K8" s="14">
@@ -2256,18 +2256,18 @@
         <v>475</v>
       </c>
       <c r="D9" s="21">
-        <f>(E9-C9)/C9*100</f>
+        <f t="shared" si="0"/>
         <v>35.789473684210527</v>
       </c>
       <c r="E9" s="17">
         <v>645</v>
       </c>
       <c r="G9" s="18">
-        <f>F9*C9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>C9*A9</f>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
     </row>
@@ -2282,18 +2282,18 @@
         <v>990</v>
       </c>
       <c r="D10" s="21">
-        <f>(E10-C10)/C10*100</f>
+        <f t="shared" si="0"/>
         <v>35.858585858585855</v>
       </c>
       <c r="E10" s="17">
         <v>1345</v>
       </c>
       <c r="G10" s="18">
-        <f>F10*C10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f>C10*A10</f>
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
     </row>
@@ -2305,18 +2305,18 @@
         <v>1386</v>
       </c>
       <c r="D11" s="21">
-        <f>(E11-C11)/C11*100</f>
+        <f t="shared" si="0"/>
         <v>29.870129870129869</v>
       </c>
       <c r="E11" s="17">
         <v>1800</v>
       </c>
       <c r="G11" s="18">
-        <f>F11*C11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f>C11*A11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2331,18 +2331,18 @@
         <v>385</v>
       </c>
       <c r="D12" s="21">
-        <f>(E12-C12)/C12*100</f>
+        <f t="shared" si="0"/>
         <v>20.779220779220779</v>
       </c>
       <c r="E12" s="17">
         <v>465</v>
       </c>
       <c r="G12" s="18">
-        <f>F12*C12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="14">
-        <f>C12*A12</f>
+        <f t="shared" si="2"/>
         <v>3080</v>
       </c>
     </row>
@@ -2357,18 +2357,18 @@
         <v>4616</v>
       </c>
       <c r="D13" s="21">
-        <f>(E13-C13)/C13*100</f>
+        <f t="shared" si="0"/>
         <v>20.883882149046791</v>
       </c>
       <c r="E13" s="17">
         <v>5580</v>
       </c>
       <c r="G13" s="18">
-        <f>F13*C13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="14">
-        <f>C13*A13</f>
+        <f t="shared" si="2"/>
         <v>4616</v>
       </c>
     </row>
@@ -2380,18 +2380,18 @@
         <v>4945</v>
       </c>
       <c r="D14" s="21">
-        <f>(E14-C14)/C14*100</f>
+        <f t="shared" si="0"/>
         <v>20.020222446916076</v>
       </c>
       <c r="E14" s="17">
         <v>5935</v>
       </c>
       <c r="G14" s="18">
-        <f>F14*C14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="14">
-        <f>C14*A14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2406,18 +2406,18 @@
         <v>1255</v>
       </c>
       <c r="D15" s="21">
-        <f>(E15-C15)/C15*100</f>
+        <f t="shared" si="0"/>
         <v>19.920318725099602</v>
       </c>
       <c r="E15" s="17">
         <v>1505</v>
       </c>
       <c r="G15" s="18">
-        <f>F15*C15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="14">
-        <f>C15*A15</f>
+        <f t="shared" si="2"/>
         <v>1255</v>
       </c>
     </row>
@@ -2429,18 +2429,18 @@
         <v>10500</v>
       </c>
       <c r="D16" s="21">
-        <f>(E16-C16)/C16*100</f>
+        <f t="shared" si="0"/>
         <v>19.761904761904763</v>
       </c>
       <c r="E16" s="17">
         <v>12575</v>
       </c>
       <c r="G16" s="18">
-        <f>F16*C16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="14">
-        <f>C16*A16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
         <v>118</v>
       </c>
       <c r="D17" s="21">
-        <f>(E17-C17)/C17*100</f>
+        <f t="shared" si="0"/>
         <v>22.881355932203391</v>
       </c>
       <c r="E17" s="17">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="18">
-        <f>F17*C17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="13"/>
@@ -2490,13 +2490,13 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30">
-        <f>F18*C18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32">
-        <f>C18*A18</f>
+        <f t="shared" ref="J18:J30" si="3">C18*A18</f>
         <v>0</v>
       </c>
       <c r="K18" s="31"/>
@@ -2512,18 +2512,18 @@
         <v>1045</v>
       </c>
       <c r="D19" s="21">
-        <f>(E19-C19)/C19*100</f>
+        <f t="shared" ref="D19:D50" si="4">(E19-C19)/C19*100</f>
         <v>7.1770334928229662</v>
       </c>
       <c r="E19" s="17">
         <v>1120</v>
       </c>
       <c r="G19" s="18">
-        <f>F19*C19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="14">
-        <f>C19*A19</f>
+        <f t="shared" si="3"/>
         <v>6270</v>
       </c>
     </row>
@@ -2538,18 +2538,18 @@
         <v>1045</v>
       </c>
       <c r="D20" s="21">
-        <f>(E20-C20)/C20*100</f>
+        <f t="shared" si="4"/>
         <v>7.1770334928229662</v>
       </c>
       <c r="E20" s="17">
         <v>1120</v>
       </c>
       <c r="G20" s="18">
-        <f>F20*C20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="14">
-        <f>C20*A20</f>
+        <f t="shared" si="3"/>
         <v>6270</v>
       </c>
     </row>
@@ -2564,18 +2564,18 @@
         <v>1234</v>
       </c>
       <c r="D21" s="21">
-        <f>(E21-C21)/C21*100</f>
+        <f t="shared" si="4"/>
         <v>6.9692058346839545</v>
       </c>
       <c r="E21" s="17">
         <v>1320</v>
       </c>
       <c r="G21" s="18">
-        <f>F21*C21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="14">
-        <f>C21*A21</f>
+        <f t="shared" si="3"/>
         <v>7404</v>
       </c>
     </row>
@@ -2590,18 +2590,18 @@
         <v>1451</v>
       </c>
       <c r="D22" s="21">
-        <f>(E22-C22)/C22*100</f>
+        <f t="shared" si="4"/>
         <v>6.8228807718814606</v>
       </c>
       <c r="E22" s="17">
         <v>1550</v>
       </c>
       <c r="G22" s="18">
-        <f>F22*C22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="14">
-        <f>C22*A22</f>
+        <f t="shared" si="3"/>
         <v>8706</v>
       </c>
     </row>
@@ -2616,18 +2616,18 @@
         <v>4644</v>
       </c>
       <c r="D23" s="21">
-        <f>(E23-C23)/C23*100</f>
+        <f t="shared" si="4"/>
         <v>7.0198105081826014</v>
       </c>
       <c r="E23" s="17">
         <v>4970</v>
       </c>
       <c r="G23" s="18">
-        <f>F23*C23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="14">
-        <f>C23*A23</f>
+        <f t="shared" si="3"/>
         <v>4644</v>
       </c>
     </row>
@@ -2642,18 +2642,18 @@
         <v>4356</v>
       </c>
       <c r="D24" s="21">
-        <f>(E24-C24)/C24*100</f>
+        <f t="shared" si="4"/>
         <v>6.9788797061524344</v>
       </c>
       <c r="E24" s="17">
         <v>4660</v>
       </c>
       <c r="G24" s="18">
-        <f>F24*C24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="14">
-        <f>C24*A24</f>
+        <f t="shared" si="3"/>
         <v>4356</v>
       </c>
     </row>
@@ -2668,18 +2668,18 @@
         <v>4647</v>
       </c>
       <c r="D25" s="21">
-        <f>(E25-C25)/C25*100</f>
+        <f t="shared" si="4"/>
         <v>6.9507208952012052</v>
       </c>
       <c r="E25" s="17">
         <v>4970</v>
       </c>
       <c r="G25" s="18">
-        <f>F25*C25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="14">
-        <f>C25*A25</f>
+        <f t="shared" si="3"/>
         <v>4647</v>
       </c>
     </row>
@@ -2694,18 +2694,18 @@
         <v>6352</v>
       </c>
       <c r="D26" s="21">
-        <f>(E26-C26)/C26*100</f>
+        <f t="shared" si="4"/>
         <v>7.0528967254408066</v>
       </c>
       <c r="E26" s="17">
         <v>6800</v>
       </c>
       <c r="G26" s="18">
-        <f>F26*C26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="14">
-        <f>C26*A26</f>
+        <f t="shared" si="3"/>
         <v>6352</v>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>5481</v>
       </c>
       <c r="D27" s="21">
-        <f>(E27-C27)/C27*100</f>
+        <f t="shared" si="4"/>
         <v>7.006020799124248</v>
       </c>
       <c r="E27" s="17">
@@ -2728,13 +2728,13 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="18">
-        <f>F27*C27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14">
-        <f>C27*A27</f>
+        <f t="shared" si="3"/>
         <v>10962</v>
       </c>
       <c r="K27" s="13"/>
@@ -2751,18 +2751,18 @@
         <v>4229</v>
       </c>
       <c r="D28" s="21">
-        <f>(E28-C28)/C28*100</f>
+        <f t="shared" si="4"/>
         <v>19.177110427997164</v>
       </c>
       <c r="E28" s="17">
         <v>5040</v>
       </c>
       <c r="G28" s="18">
-        <f>F28*C28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="14">
-        <f>C28*A28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2777,18 +2777,18 @@
         <v>735</v>
       </c>
       <c r="D29" s="21">
-        <f>(E29-C29)/C29*100</f>
+        <f t="shared" si="4"/>
         <v>12.244897959183673</v>
       </c>
       <c r="E29" s="17">
         <v>825</v>
       </c>
       <c r="G29" s="18">
-        <f>F29*C29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="14">
-        <f>C29*A29</f>
+        <f t="shared" si="3"/>
         <v>5880</v>
       </c>
     </row>
@@ -2803,18 +2803,18 @@
         <v>780</v>
       </c>
       <c r="D30" s="21">
-        <f>(E30-C30)/C30*100</f>
+        <f t="shared" si="4"/>
         <v>12.179487179487179</v>
       </c>
       <c r="E30" s="17">
         <v>875</v>
       </c>
       <c r="G30" s="18">
-        <f>F30*C30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="14">
-        <f>C30*A30</f>
+        <f t="shared" si="3"/>
         <v>4680</v>
       </c>
     </row>
@@ -2826,14 +2826,14 @@
         <v>2350</v>
       </c>
       <c r="D31" s="21">
-        <f>(E31-C31)/C31*100</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E31" s="17">
         <v>2632</v>
       </c>
       <c r="G31" s="18">
-        <f>F31*C31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="14"/>
@@ -2849,14 +2849,14 @@
         <v>656</v>
       </c>
       <c r="D32" s="21">
-        <f>(E32-C32)/C32*100</f>
+        <f t="shared" si="4"/>
         <v>12.042682926829269</v>
       </c>
       <c r="E32" s="17">
         <v>735</v>
       </c>
       <c r="G32" s="18">
-        <f>F32*C32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="14">
@@ -2875,14 +2875,14 @@
         <v>780</v>
       </c>
       <c r="D33" s="21">
-        <f>(E33-C33)/C33*100</f>
+        <f t="shared" si="4"/>
         <v>12.179487179487179</v>
       </c>
       <c r="E33" s="17">
         <v>875</v>
       </c>
       <c r="G33" s="18">
-        <f>F33*C33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="14">
@@ -2898,14 +2898,14 @@
         <v>1005</v>
       </c>
       <c r="D34" s="21">
-        <f>(E34-C34)/C34*100</f>
+        <f t="shared" si="4"/>
         <v>11.940298507462686</v>
       </c>
       <c r="E34" s="17">
         <v>1125</v>
       </c>
       <c r="G34" s="18">
-        <f>F34*C34</f>
+        <f t="shared" ref="G34:G65" si="5">F34*C34</f>
         <v>0</v>
       </c>
       <c r="J34" s="14"/>
@@ -2921,18 +2921,18 @@
         <v>768</v>
       </c>
       <c r="D35" s="21">
-        <f>(E35-C35)/C35*100</f>
+        <f t="shared" si="4"/>
         <v>11.979166666666668</v>
       </c>
       <c r="E35" s="17">
         <v>860</v>
       </c>
       <c r="G35" s="18">
-        <f>F35*C35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="14">
-        <f>C35*A35</f>
+        <f t="shared" ref="J35:J66" si="6">C35*A35</f>
         <v>4608</v>
       </c>
     </row>
@@ -2947,18 +2947,18 @@
         <v>636</v>
       </c>
       <c r="D36" s="21">
-        <f>(E36-C36)/C36*100</f>
+        <f t="shared" si="4"/>
         <v>12.421383647798741</v>
       </c>
       <c r="E36" s="17">
         <v>715</v>
       </c>
       <c r="G36" s="18">
-        <f>F36*C36</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="14">
-        <f>C36*A36</f>
+        <f t="shared" si="6"/>
         <v>5088</v>
       </c>
     </row>
@@ -2973,18 +2973,18 @@
         <v>768</v>
       </c>
       <c r="D37" s="21">
-        <f>(E37-C37)/C37*100</f>
+        <f t="shared" si="4"/>
         <v>11.979166666666668</v>
       </c>
       <c r="E37" s="17">
         <v>860</v>
       </c>
       <c r="G37" s="18">
-        <f>F37*C37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <f>C37*A37</f>
+        <f t="shared" si="6"/>
         <v>4608</v>
       </c>
     </row>
@@ -2999,18 +2999,18 @@
         <v>633</v>
       </c>
       <c r="D38" s="21">
-        <f>(E38-C38)/C38*100</f>
+        <f t="shared" si="4"/>
         <v>12.164296998420221</v>
       </c>
       <c r="E38" s="17">
         <v>710</v>
       </c>
       <c r="G38" s="18">
-        <f>F38*C38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <f>C38*A38</f>
+        <f t="shared" si="6"/>
         <v>5064</v>
       </c>
     </row>
@@ -3025,18 +3025,18 @@
         <v>375</v>
       </c>
       <c r="D39" s="21">
-        <f>(E39-C39)/C39*100</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E39" s="17">
         <v>450</v>
       </c>
       <c r="G39" s="18">
-        <f>F39*C39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="14">
-        <f>C39*A39</f>
+        <f t="shared" si="6"/>
         <v>1125</v>
       </c>
     </row>
@@ -3051,18 +3051,18 @@
         <v>708</v>
       </c>
       <c r="D40" s="21">
-        <f>(E40-C40)/C40*100</f>
+        <f t="shared" si="4"/>
         <v>20.056497175141246</v>
       </c>
       <c r="E40" s="17">
         <v>850</v>
       </c>
       <c r="G40" s="18">
-        <f>F40*C40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="14">
-        <f>C40*A40</f>
+        <f t="shared" si="6"/>
         <v>2832</v>
       </c>
     </row>
@@ -3077,18 +3077,18 @@
         <v>632</v>
       </c>
       <c r="D41" s="21">
-        <f>(E41-C41)/C41*100</f>
+        <f t="shared" si="4"/>
         <v>9.9683544303797476</v>
       </c>
       <c r="E41" s="17">
         <v>695</v>
       </c>
       <c r="G41" s="18">
-        <f>F41*C41</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="14">
-        <f>C41*A41</f>
+        <f t="shared" si="6"/>
         <v>5056</v>
       </c>
     </row>
@@ -3103,18 +3103,18 @@
         <v>1245</v>
       </c>
       <c r="D42" s="21">
-        <f>(E42-C42)/C42*100</f>
+        <f t="shared" si="4"/>
         <v>10.040160642570282</v>
       </c>
       <c r="E42" s="17">
         <v>1370</v>
       </c>
       <c r="G42" s="18">
-        <f>F42*C42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J42" s="14">
-        <f>C42*A42</f>
+        <f t="shared" si="6"/>
         <v>7470</v>
       </c>
     </row>
@@ -3129,18 +3129,18 @@
         <v>1659</v>
       </c>
       <c r="D43" s="21">
-        <f>(E43-C43)/C43*100</f>
+        <f t="shared" si="4"/>
         <v>37.43218806509946</v>
       </c>
       <c r="E43" s="17">
         <v>2280</v>
       </c>
       <c r="G43" s="18">
-        <f>F43*C43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J43" s="14">
-        <f>C43*A43</f>
+        <f t="shared" si="6"/>
         <v>1659</v>
       </c>
     </row>
@@ -3155,18 +3155,18 @@
         <v>734</v>
       </c>
       <c r="D44" s="21">
-        <f>(E44-C44)/C44*100</f>
+        <f t="shared" si="4"/>
         <v>36.239782016348776</v>
       </c>
       <c r="E44" s="17">
         <v>1000</v>
       </c>
       <c r="G44" s="18">
-        <f>F44*C44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J44" s="14">
-        <f>C44*A44</f>
+        <f t="shared" si="6"/>
         <v>2936</v>
       </c>
     </row>
@@ -3181,18 +3181,18 @@
         <v>1460</v>
       </c>
       <c r="D45" s="21">
-        <f>(E45-C45)/C45*100</f>
+        <f t="shared" si="4"/>
         <v>35.61643835616438</v>
       </c>
       <c r="E45" s="17">
         <v>1980</v>
       </c>
       <c r="G45" s="18">
-        <f>F45*C45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f>C45*A45</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
     </row>
@@ -3207,18 +3207,18 @@
         <v>734</v>
       </c>
       <c r="D46" s="21">
-        <f>(E46-C46)/C46*100</f>
+        <f t="shared" si="4"/>
         <v>36.239782016348776</v>
       </c>
       <c r="E46" s="17">
         <v>1000</v>
       </c>
       <c r="G46" s="18">
-        <f>F46*C46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J46" s="14">
-        <f>C46*A46</f>
+        <f t="shared" si="6"/>
         <v>2936</v>
       </c>
     </row>
@@ -3233,18 +3233,18 @@
         <v>7640</v>
       </c>
       <c r="D47" s="21">
-        <f>(E47-C47)/C47*100</f>
+        <f t="shared" si="4"/>
         <v>35.078534031413611</v>
       </c>
       <c r="E47" s="17">
         <v>10320</v>
       </c>
       <c r="G47" s="18">
-        <f>F47*C47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J47" s="14">
-        <f>C47*A47</f>
+        <f t="shared" si="6"/>
         <v>7640</v>
       </c>
     </row>
@@ -3256,18 +3256,18 @@
         <v>1705</v>
       </c>
       <c r="D48" s="21">
-        <f>(E48-C48)/C48*100</f>
+        <f t="shared" si="4"/>
         <v>35.777126099706749</v>
       </c>
       <c r="E48" s="17">
         <v>2315</v>
       </c>
       <c r="G48" s="18">
-        <f>F48*C48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J48" s="14">
-        <f>C48*A48</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
         <v>620</v>
       </c>
       <c r="D49" s="21">
-        <f>(E49-C49)/C49*100</f>
+        <f t="shared" si="4"/>
         <v>35.483870967741936</v>
       </c>
       <c r="E49" s="17">
@@ -3288,13 +3288,13 @@
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="18">
-        <f>F49*C49</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="14">
-        <f>C49*A49</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K49" s="13"/>
@@ -3314,18 +3314,18 @@
         <v>263</v>
       </c>
       <c r="D50" s="21">
-        <f>(E50-C50)/C50*100</f>
+        <f t="shared" si="4"/>
         <v>34.980988593155892</v>
       </c>
       <c r="E50" s="17">
         <v>355</v>
       </c>
       <c r="G50" s="18">
-        <f>F50*C50</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J50" s="14">
-        <f>C50*A50</f>
+        <f t="shared" si="6"/>
         <v>526</v>
       </c>
     </row>
@@ -3340,18 +3340,18 @@
         <v>656</v>
       </c>
       <c r="D51" s="21">
-        <f>(E51-C51)/C51*100</f>
+        <f t="shared" ref="D51:D82" si="7">(E51-C51)/C51*100</f>
         <v>35.670731707317074</v>
       </c>
       <c r="E51" s="17">
         <v>890</v>
       </c>
       <c r="G51" s="18">
-        <f>F51*C51</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J51" s="14">
-        <f>C51*A51</f>
+        <f t="shared" si="6"/>
         <v>1312</v>
       </c>
     </row>
@@ -3366,18 +3366,18 @@
         <v>1580</v>
       </c>
       <c r="D52" s="21">
-        <f>(E52-C52)/C52*100</f>
+        <f t="shared" si="7"/>
         <v>35.75949367088608</v>
       </c>
       <c r="E52" s="17">
         <v>2145</v>
       </c>
       <c r="G52" s="18">
-        <f>F52*C52</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J52" s="14">
-        <f>C52*A52</f>
+        <f t="shared" si="6"/>
         <v>1580</v>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
         <v>257</v>
       </c>
       <c r="D53" s="21">
-        <f>(E53-C53)/C53*100</f>
+        <f t="shared" si="7"/>
         <v>36.186770428015564</v>
       </c>
       <c r="E53" s="17">
@@ -3400,13 +3400,13 @@
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="18">
-        <f>F53*C53</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="14">
-        <f>C53*A53</f>
+        <f t="shared" si="6"/>
         <v>514</v>
       </c>
       <c r="K53" s="13"/>
@@ -3426,18 +3426,18 @@
         <v>193</v>
       </c>
       <c r="D54" s="21">
-        <f>(E54-C54)/C54*100</f>
+        <f t="shared" si="7"/>
         <v>34.715025906735754</v>
       </c>
       <c r="E54" s="17">
         <v>260</v>
       </c>
       <c r="G54" s="18">
-        <f>F54*C54</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J54" s="14">
-        <f>C54*A54</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
     </row>
@@ -3452,18 +3452,18 @@
         <v>706</v>
       </c>
       <c r="D55" s="21">
-        <f>(E55-C55)/C55*100</f>
+        <f t="shared" si="7"/>
         <v>35.269121813031163</v>
       </c>
       <c r="E55" s="17">
         <v>955</v>
       </c>
       <c r="G55" s="18">
-        <f>F55*C55</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J55" s="14">
-        <f>C55*A55</f>
+        <f t="shared" si="6"/>
         <v>1412</v>
       </c>
     </row>
@@ -3475,18 +3475,18 @@
         <v>2781</v>
       </c>
       <c r="D56" s="21">
-        <f>(E56-C56)/C56*100</f>
+        <f t="shared" si="7"/>
         <v>20.100683207479324</v>
       </c>
       <c r="E56" s="17">
         <v>3340</v>
       </c>
       <c r="G56" s="18">
-        <f>F56*C56</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J56" s="14">
-        <f>C56*A56</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3498,18 +3498,18 @@
         <v>2216</v>
       </c>
       <c r="D57" s="21">
-        <f>(E57-C57)/C57*100</f>
+        <f t="shared" si="7"/>
         <v>20.036101083032491</v>
       </c>
       <c r="E57" s="17">
         <v>2660</v>
       </c>
       <c r="G57" s="18">
-        <f>F57*C57</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J57" s="14">
-        <f>C57*A57</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3524,18 +3524,18 @@
         <v>344</v>
       </c>
       <c r="D58" s="21">
-        <f>(E58-C58)/C58*100</f>
+        <f t="shared" si="7"/>
         <v>20.63953488372093</v>
       </c>
       <c r="E58" s="17">
         <v>415</v>
       </c>
       <c r="G58" s="18">
-        <f>F58*C58</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J58" s="14">
-        <f>C58*A58</f>
+        <f t="shared" si="6"/>
         <v>1376</v>
       </c>
     </row>
@@ -3550,18 +3550,18 @@
         <v>344</v>
       </c>
       <c r="D59" s="21">
-        <f>(E59-C59)/C59*100</f>
+        <f t="shared" si="7"/>
         <v>20.63953488372093</v>
       </c>
       <c r="E59" s="17">
         <v>415</v>
       </c>
       <c r="G59" s="18">
-        <f>F59*C59</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J59" s="14">
-        <f>C59*A59</f>
+        <f t="shared" si="6"/>
         <v>1376</v>
       </c>
     </row>
@@ -3576,18 +3576,18 @@
         <v>344</v>
       </c>
       <c r="D60" s="21">
-        <f>(E60-C60)/C60*100</f>
+        <f t="shared" si="7"/>
         <v>20.63953488372093</v>
       </c>
       <c r="E60" s="17">
         <v>415</v>
       </c>
       <c r="G60" s="18">
-        <f>F60*C60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J60" s="14">
-        <f>C60*A60</f>
+        <f t="shared" si="6"/>
         <v>1376</v>
       </c>
     </row>
@@ -3602,18 +3602,18 @@
         <v>1163</v>
       </c>
       <c r="D61" s="21">
-        <f>(E61-C61)/C61*100</f>
+        <f t="shared" si="7"/>
         <v>10.060189165950128</v>
       </c>
       <c r="E61" s="17">
         <v>1280</v>
       </c>
       <c r="G61" s="18">
-        <f>F61*C61</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J61" s="14">
-        <f>C61*A61</f>
+        <f t="shared" si="6"/>
         <v>6978</v>
       </c>
     </row>
@@ -3628,18 +3628,18 @@
         <v>1091</v>
       </c>
       <c r="D62" s="21">
-        <f>(E62-C62)/C62*100</f>
+        <f t="shared" si="7"/>
         <v>9.9908340971585705</v>
       </c>
       <c r="E62" s="17">
         <v>1200</v>
       </c>
       <c r="G62" s="18">
-        <f>F62*C62</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J62" s="14">
-        <f>C62*A62</f>
+        <f t="shared" si="6"/>
         <v>6546</v>
       </c>
     </row>
@@ -3654,18 +3654,18 @@
         <v>910</v>
       </c>
       <c r="D63" s="21">
-        <f>(E63-C63)/C63*100</f>
+        <f t="shared" si="7"/>
         <v>9.8901098901098905</v>
       </c>
       <c r="E63" s="17">
         <v>1000</v>
       </c>
       <c r="G63" s="18">
-        <f>F63*C63</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J63" s="14">
-        <f>C63*A63</f>
+        <f t="shared" si="6"/>
         <v>5460</v>
       </c>
     </row>
@@ -3680,18 +3680,18 @@
         <v>505</v>
       </c>
       <c r="D64" s="21">
-        <f>(E64-C64)/C64*100</f>
+        <f t="shared" si="7"/>
         <v>9.9009900990099009</v>
       </c>
       <c r="E64" s="17">
         <v>555</v>
       </c>
       <c r="G64" s="18">
-        <f>F64*C64</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J64" s="14">
-        <f>C64*A64</f>
+        <f t="shared" si="6"/>
         <v>3030</v>
       </c>
     </row>
@@ -3706,18 +3706,18 @@
         <v>1196</v>
       </c>
       <c r="D65" s="21">
-        <f>(E65-C65)/C65*100</f>
+        <f t="shared" si="7"/>
         <v>9.9498327759197327</v>
       </c>
       <c r="E65" s="17">
         <v>1315</v>
       </c>
       <c r="G65" s="18">
-        <f>F65*C65</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J65" s="14">
-        <f>C65*A65</f>
+        <f t="shared" si="6"/>
         <v>7176</v>
       </c>
     </row>
@@ -3732,18 +3732,18 @@
         <v>1191</v>
       </c>
       <c r="D66" s="21">
-        <f>(E66-C66)/C66*100</f>
+        <f t="shared" si="7"/>
         <v>9.9916036943744757</v>
       </c>
       <c r="E66" s="17">
         <v>1310</v>
       </c>
       <c r="G66" s="18">
-        <f>F66*C66</f>
+        <f t="shared" ref="G66:G97" si="8">F66*C66</f>
         <v>0</v>
       </c>
       <c r="J66" s="14">
-        <f>C66*A66</f>
+        <f t="shared" si="6"/>
         <v>4764</v>
       </c>
     </row>
@@ -3758,18 +3758,18 @@
         <v>4148</v>
       </c>
       <c r="D67" s="21">
-        <f>(E67-C67)/C67*100</f>
+        <f t="shared" si="7"/>
         <v>20.057859209257472</v>
       </c>
       <c r="E67" s="17">
         <v>4980</v>
       </c>
       <c r="G67" s="18">
-        <f>F67*C67</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J67" s="14">
-        <f>C67*A67</f>
+        <f t="shared" ref="J67:J98" si="9">C67*A67</f>
         <v>4148</v>
       </c>
     </row>
@@ -3784,18 +3784,18 @@
         <v>1580</v>
       </c>
       <c r="D68" s="21">
-        <f>(E68-C68)/C68*100</f>
+        <f t="shared" si="7"/>
         <v>35.75949367088608</v>
       </c>
       <c r="E68" s="17">
         <v>2145</v>
       </c>
       <c r="G68" s="18">
-        <f>F68*C68</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J68" s="14">
-        <f>C68*A68</f>
+        <f t="shared" si="9"/>
         <v>1580</v>
       </c>
     </row>
@@ -3810,18 +3810,18 @@
         <v>373</v>
       </c>
       <c r="D69" s="21">
-        <f>(E69-C69)/C69*100</f>
+        <f t="shared" si="7"/>
         <v>20.64343163538874</v>
       </c>
       <c r="E69" s="17">
         <v>450</v>
       </c>
       <c r="G69" s="18">
-        <f>F69*C69</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J69" s="14">
-        <f>C69*A69</f>
+        <f t="shared" si="9"/>
         <v>2238</v>
       </c>
     </row>
@@ -3836,18 +3836,18 @@
         <v>557</v>
       </c>
       <c r="D70" s="21">
-        <f>(E70-C70)/C70*100</f>
+        <f t="shared" si="7"/>
         <v>35.547576301615798</v>
       </c>
       <c r="E70" s="17">
         <v>755</v>
       </c>
       <c r="G70" s="18">
-        <f>F70*C70</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J70" s="14">
-        <f>C70*A70</f>
+        <f t="shared" si="9"/>
         <v>1114</v>
       </c>
     </row>
@@ -3862,18 +3862,18 @@
         <v>1068</v>
       </c>
       <c r="D71" s="21">
-        <f>(E71-C71)/C71*100</f>
+        <f t="shared" si="7"/>
         <v>29.681647940074907</v>
       </c>
       <c r="E71" s="17">
         <v>1385</v>
       </c>
       <c r="G71" s="18">
-        <f>F71*C71</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J71" s="14">
-        <f>C71*A71</f>
+        <f t="shared" si="9"/>
         <v>2136</v>
       </c>
     </row>
@@ -3888,18 +3888,18 @@
         <v>1068</v>
       </c>
       <c r="D72" s="21">
-        <f>(E72-C72)/C72*100</f>
+        <f t="shared" si="7"/>
         <v>29.681647940074907</v>
       </c>
       <c r="E72" s="17">
         <v>1385</v>
       </c>
       <c r="G72" s="18">
-        <f>F72*C72</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J72" s="14">
-        <f>C72*A72</f>
+        <f t="shared" si="9"/>
         <v>2136</v>
       </c>
     </row>
@@ -3911,18 +3911,18 @@
         <v>880</v>
       </c>
       <c r="D73" s="21">
-        <f>(E73-C73)/C73*100</f>
+        <f t="shared" si="7"/>
         <v>30.113636363636363</v>
       </c>
       <c r="E73" s="17">
         <v>1145</v>
       </c>
       <c r="G73" s="18">
-        <f>F73*C73</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J73" s="14">
-        <f>C73*A73</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3937,18 +3937,18 @@
         <v>350</v>
       </c>
       <c r="D74" s="21">
-        <f>(E74-C74)/C74*100</f>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
       <c r="E74" s="17">
         <v>475</v>
       </c>
       <c r="G74" s="18">
-        <f>F74*C74</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J74" s="14">
-        <f>C74*A74</f>
+        <f t="shared" si="9"/>
         <v>1400</v>
       </c>
     </row>
@@ -3963,18 +3963,18 @@
         <v>350</v>
       </c>
       <c r="D75" s="21">
-        <f>(E75-C75)/C75*100</f>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
       <c r="E75" s="17">
         <v>475</v>
       </c>
       <c r="G75" s="18">
-        <f>F75*C75</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J75" s="14">
-        <f>C75*A75</f>
+        <f t="shared" si="9"/>
         <v>1400</v>
       </c>
     </row>
@@ -3989,18 +3989,18 @@
         <v>1580</v>
       </c>
       <c r="D76" s="21">
-        <f>(E76-C76)/C76*100</f>
+        <f t="shared" si="7"/>
         <v>35.75949367088608</v>
       </c>
       <c r="E76" s="17">
         <v>2145</v>
       </c>
       <c r="G76" s="18">
-        <f>F76*C76</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J76" s="14">
-        <f>C76*A76</f>
+        <f t="shared" si="9"/>
         <v>1580</v>
       </c>
     </row>
@@ -4015,18 +4015,18 @@
         <v>133</v>
       </c>
       <c r="D77" s="21">
-        <f>(E77-C77)/C77*100</f>
+        <f t="shared" si="7"/>
         <v>27.819548872180448</v>
       </c>
       <c r="E77" s="17">
         <v>170</v>
       </c>
       <c r="G77" s="18">
-        <f>F77*C77</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J77" s="14">
-        <f>C77*A77</f>
+        <f t="shared" si="9"/>
         <v>1064</v>
       </c>
     </row>
@@ -4041,18 +4041,18 @@
         <v>221</v>
       </c>
       <c r="D78" s="21">
-        <f>(E78-C78)/C78*100</f>
+        <f t="shared" si="7"/>
         <v>31.221719457013574</v>
       </c>
       <c r="E78" s="17">
         <v>290</v>
       </c>
       <c r="G78" s="18">
-        <f>F78*C78</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J78" s="14">
-        <f>C78*A78</f>
+        <f t="shared" si="9"/>
         <v>884</v>
       </c>
     </row>
@@ -4067,18 +4067,18 @@
         <v>366</v>
       </c>
       <c r="D79" s="21">
-        <f>(E79-C79)/C79*100</f>
+        <f t="shared" si="7"/>
         <v>29.78142076502732</v>
       </c>
       <c r="E79" s="17">
         <v>475</v>
       </c>
       <c r="G79" s="18">
-        <f>F79*C79</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J79" s="14">
-        <f>C79*A79</f>
+        <f t="shared" si="9"/>
         <v>2196</v>
       </c>
     </row>
@@ -4090,18 +4090,18 @@
         <v>163</v>
       </c>
       <c r="D80" s="21">
-        <f>(E80-C80)/C80*100</f>
+        <f t="shared" si="7"/>
         <v>28.834355828220858</v>
       </c>
       <c r="E80" s="17">
         <v>210</v>
       </c>
       <c r="G80" s="18">
-        <f>F80*C80</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J80" s="14">
-        <f>C80*A80</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4113,18 +4113,18 @@
         <v>306</v>
       </c>
       <c r="D81" s="21">
-        <f>(E81-C81)/C81*100</f>
+        <f t="shared" si="7"/>
         <v>30.718954248366014</v>
       </c>
       <c r="E81" s="17">
         <v>400</v>
       </c>
       <c r="G81" s="18">
-        <f>F81*C81</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J81" s="14">
-        <f>C81*A81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4136,18 +4136,18 @@
         <v>528</v>
       </c>
       <c r="D82" s="21">
-        <f>(E82-C82)/C82*100</f>
+        <f t="shared" si="7"/>
         <v>29.734848484848484</v>
       </c>
       <c r="E82" s="17">
         <v>685</v>
       </c>
       <c r="G82" s="18">
-        <f>F82*C82</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J82" s="14">
-        <f>C82*A82</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4162,18 +4162,18 @@
         <v>650</v>
       </c>
       <c r="D83" s="21">
-        <f>(E83-C83)/C83*100</f>
+        <f t="shared" ref="D83:D114" si="10">(E83-C83)/C83*100</f>
         <v>30</v>
       </c>
       <c r="E83" s="17">
         <v>845</v>
       </c>
       <c r="G83" s="18">
-        <f>F83*C83</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J83" s="14">
-        <f>C83*A83</f>
+        <f t="shared" si="9"/>
         <v>4550</v>
       </c>
     </row>
@@ -4188,18 +4188,18 @@
         <v>552</v>
       </c>
       <c r="D84" s="21">
-        <f>(E84-C84)/C84*100</f>
+        <f t="shared" si="10"/>
         <v>35.869565217391305</v>
       </c>
       <c r="E84" s="17">
         <v>750</v>
       </c>
       <c r="G84" s="18">
-        <f>F84*C84</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J84" s="14">
-        <f>C84*A84</f>
+        <f t="shared" si="9"/>
         <v>1104</v>
       </c>
     </row>
@@ -4214,18 +4214,18 @@
         <v>494</v>
       </c>
       <c r="D85" s="21">
-        <f>(E85-C85)/C85*100</f>
+        <f t="shared" si="10"/>
         <v>35.627530364372468</v>
       </c>
       <c r="E85" s="17">
         <v>670</v>
       </c>
       <c r="G85" s="18">
-        <f>F85*C85</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J85" s="14">
-        <f>C85*A85</f>
+        <f t="shared" si="9"/>
         <v>1482</v>
       </c>
     </row>
@@ -4237,18 +4237,18 @@
         <v>3001</v>
       </c>
       <c r="D86" s="21">
-        <f>(E86-C86)/C86*100</f>
+        <f t="shared" si="10"/>
         <v>19.960013328890369</v>
       </c>
       <c r="E86" s="17">
         <v>3600</v>
       </c>
       <c r="G86" s="18">
-        <f>F86*C86</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J86" s="14">
-        <f>C86*A86</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4260,18 +4260,18 @@
         <v>1384</v>
       </c>
       <c r="D87" s="21">
-        <f>(E87-C87)/C87*100</f>
+        <f t="shared" si="10"/>
         <v>19.942196531791907</v>
       </c>
       <c r="E87" s="17">
         <v>1660</v>
       </c>
       <c r="G87" s="18">
-        <f>F87*C87</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J87" s="14">
-        <f>C87*A87</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4286,18 +4286,18 @@
         <v>1389</v>
       </c>
       <c r="D88" s="21">
-        <f>(E88-C88)/C88*100</f>
+        <f t="shared" si="10"/>
         <v>19.870410367170628</v>
       </c>
       <c r="E88" s="17">
         <v>1665</v>
       </c>
       <c r="G88" s="18">
-        <f>F88*C88</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J88" s="14">
-        <f>C88*A88</f>
+        <f t="shared" si="9"/>
         <v>2778</v>
       </c>
     </row>
@@ -4312,18 +4312,18 @@
         <v>761</v>
       </c>
       <c r="D89" s="21">
-        <f>(E89-C89)/C89*100</f>
+        <f t="shared" si="10"/>
         <v>20.236530880420499</v>
       </c>
       <c r="E89" s="17">
         <v>915</v>
       </c>
       <c r="G89" s="18">
-        <f>F89*C89</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J89" s="14">
-        <f>C89*A89</f>
+        <f t="shared" si="9"/>
         <v>2283</v>
       </c>
     </row>
@@ -4338,18 +4338,18 @@
         <v>1586</v>
       </c>
       <c r="D90" s="21">
-        <f>(E90-C90)/C90*100</f>
+        <f t="shared" si="10"/>
         <v>20.113493064312738</v>
       </c>
       <c r="E90" s="17">
         <v>1905</v>
       </c>
       <c r="G90" s="18">
-        <f>F90*C90</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J90" s="14">
-        <f>C90*A90</f>
+        <f t="shared" si="9"/>
         <v>3172</v>
       </c>
     </row>
@@ -4364,18 +4364,18 @@
         <v>1004</v>
       </c>
       <c r="D91" s="21">
-        <f>(E91-C91)/C91*100</f>
+        <f t="shared" si="10"/>
         <v>20.019920318725099</v>
       </c>
       <c r="E91" s="17">
         <v>1205</v>
       </c>
       <c r="G91" s="18">
-        <f>F91*C91</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J91" s="14">
-        <f>C91*A91</f>
+        <f t="shared" si="9"/>
         <v>2008</v>
       </c>
     </row>
@@ -4390,18 +4390,18 @@
         <v>749</v>
       </c>
       <c r="D92" s="21">
-        <f>(E92-C92)/C92*100</f>
+        <f t="shared" si="10"/>
         <v>35.514018691588781</v>
       </c>
       <c r="E92" s="17">
         <v>1015</v>
       </c>
       <c r="G92" s="18">
-        <f>F92*C92</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J92" s="14">
-        <f>C92*A92</f>
+        <f t="shared" si="9"/>
         <v>1498</v>
       </c>
     </row>
@@ -4416,18 +4416,18 @@
         <v>1100</v>
       </c>
       <c r="D93" s="21">
-        <f>(E93-C93)/C93*100</f>
+        <f t="shared" si="10"/>
         <v>35.454545454545453</v>
       </c>
       <c r="E93" s="17">
         <v>1490</v>
       </c>
       <c r="G93" s="18">
-        <f>F93*C93</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J93" s="14">
-        <f>C93*A93</f>
+        <f t="shared" si="9"/>
         <v>2200</v>
       </c>
     </row>
@@ -4442,18 +4442,18 @@
         <v>757</v>
       </c>
       <c r="D94" s="21">
-        <f>(E94-C94)/C94*100</f>
+        <f t="shared" si="10"/>
         <v>20.211360634081903</v>
       </c>
       <c r="E94" s="17">
         <v>910</v>
       </c>
       <c r="G94" s="18">
-        <f>F94*C94</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J94" s="14">
-        <f>C94*A94</f>
+        <f t="shared" si="9"/>
         <v>757</v>
       </c>
     </row>
@@ -4468,18 +4468,18 @@
         <v>932</v>
       </c>
       <c r="D95" s="21">
-        <f>(E95-C95)/C95*100</f>
+        <f t="shared" si="10"/>
         <v>20.171673819742487</v>
       </c>
       <c r="E95" s="17">
         <v>1120</v>
       </c>
       <c r="G95" s="18">
-        <f>F95*C95</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J95" s="14">
-        <f>C95*A95</f>
+        <f t="shared" si="9"/>
         <v>932</v>
       </c>
     </row>
@@ -4494,18 +4494,18 @@
         <v>792</v>
       </c>
       <c r="D96" s="21">
-        <f>(E96-C96)/C96*100</f>
+        <f t="shared" si="10"/>
         <v>19.949494949494952</v>
       </c>
       <c r="E96" s="17">
         <v>950</v>
       </c>
       <c r="G96" s="18">
-        <f>F96*C96</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J96" s="14">
-        <f>C96*A96</f>
+        <f t="shared" si="9"/>
         <v>792</v>
       </c>
     </row>
@@ -4520,18 +4520,18 @@
         <v>824</v>
       </c>
       <c r="D97" s="21">
-        <f>(E97-C97)/C97*100</f>
+        <f t="shared" si="10"/>
         <v>45.631067961165051</v>
       </c>
       <c r="E97" s="17">
         <v>1200</v>
       </c>
       <c r="G97" s="18">
-        <f>F97*C97</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J97" s="14">
-        <f>C97*A97</f>
+        <f t="shared" si="9"/>
         <v>29664</v>
       </c>
     </row>
@@ -4546,18 +4546,18 @@
         <v>824</v>
       </c>
       <c r="D98" s="21">
-        <f>(E98-C98)/C98*100</f>
+        <f t="shared" si="10"/>
         <v>45.631067961165051</v>
       </c>
       <c r="E98" s="17">
         <v>1200</v>
       </c>
       <c r="G98" s="18">
-        <f>F98*C98</f>
+        <f t="shared" ref="G98:G129" si="11">F98*C98</f>
         <v>0</v>
       </c>
       <c r="J98" s="14">
-        <f>C98*A98</f>
+        <f t="shared" si="9"/>
         <v>19776</v>
       </c>
     </row>
@@ -4569,18 +4569,18 @@
         <v>875</v>
       </c>
       <c r="D99" s="21">
-        <f>(E99-C99)/C99*100</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="E99" s="17">
         <v>1190</v>
       </c>
       <c r="G99" s="18">
-        <f>F99*C99</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J99" s="14">
-        <f>C99*A99</f>
+        <f t="shared" ref="J99:J120" si="12">C99*A99</f>
         <v>0</v>
       </c>
     </row>
@@ -4595,14 +4595,14 @@
         <v>260</v>
       </c>
       <c r="D100" s="21">
-        <f>(E100-C100)/C100*100</f>
+        <f t="shared" si="10"/>
         <v>34.615384615384613</v>
       </c>
       <c r="E100" s="17">
         <v>350</v>
       </c>
       <c r="G100" s="18">
-        <f>F100*C100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H100" s="14">
@@ -4610,7 +4610,7 @@
         <v>1112.4000000000001</v>
       </c>
       <c r="J100" s="14">
-        <f>C100*A100</f>
+        <f t="shared" si="12"/>
         <v>780</v>
       </c>
     </row>
@@ -4625,18 +4625,18 @@
         <v>200</v>
       </c>
       <c r="D101" s="21">
-        <f>(E101-C101)/C101*100</f>
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="E101" s="17">
         <v>275</v>
       </c>
       <c r="G101" s="18">
-        <f>F101*C101</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J101" s="14">
-        <f>C101*A101</f>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
     </row>
@@ -4651,18 +4651,18 @@
         <v>209</v>
       </c>
       <c r="D102" s="21">
-        <f>(E102-C102)/C102*100</f>
+        <f t="shared" si="10"/>
         <v>29.186602870813399</v>
       </c>
       <c r="E102" s="17">
         <v>270</v>
       </c>
       <c r="G102" s="18">
-        <f>F102*C102</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J102" s="14">
-        <f>C102*A102</f>
+        <f t="shared" si="12"/>
         <v>836</v>
       </c>
     </row>
@@ -4677,18 +4677,18 @@
         <v>209</v>
       </c>
       <c r="D103" s="21">
-        <f>(E103-C103)/C103*100</f>
+        <f t="shared" si="10"/>
         <v>29.186602870813399</v>
       </c>
       <c r="E103" s="17">
         <v>270</v>
       </c>
       <c r="G103" s="18">
-        <f>F103*C103</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J103" s="14">
-        <f>C103*A103</f>
+        <f t="shared" si="12"/>
         <v>836</v>
       </c>
     </row>
@@ -4703,18 +4703,18 @@
         <v>490</v>
       </c>
       <c r="D104" s="21">
-        <f>(E104-C104)/C104*100</f>
+        <f t="shared" si="10"/>
         <v>29.591836734693878</v>
       </c>
       <c r="E104" s="17">
         <v>635</v>
       </c>
       <c r="G104" s="18">
-        <f>F104*C104</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J104" s="14">
-        <f>C104*A104</f>
+        <f t="shared" si="12"/>
         <v>1960</v>
       </c>
     </row>
@@ -4729,18 +4729,18 @@
         <v>1157</v>
       </c>
       <c r="D105" s="21">
-        <f>(E105-C105)/C105*100</f>
+        <f t="shared" si="10"/>
         <v>29.645635263612789</v>
       </c>
       <c r="E105" s="17">
         <v>1500</v>
       </c>
       <c r="G105" s="18">
-        <f>F105*C105</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J105" s="14">
-        <f>C105*A105</f>
+        <f t="shared" si="12"/>
         <v>4628</v>
       </c>
     </row>
@@ -4755,18 +4755,18 @@
         <v>2081</v>
       </c>
       <c r="D106" s="21">
-        <f>(E106-C106)/C106*100</f>
+        <f t="shared" si="10"/>
         <v>35.752042287361846</v>
       </c>
       <c r="E106" s="17">
         <v>2825</v>
       </c>
       <c r="G106" s="18">
-        <f>F106*C106</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J106" s="14">
-        <f>C106*A106</f>
+        <f t="shared" si="12"/>
         <v>4162</v>
       </c>
     </row>
@@ -4781,18 +4781,18 @@
         <v>1652</v>
       </c>
       <c r="D107" s="21">
-        <f>(E107-C107)/C107*100</f>
+        <f t="shared" si="10"/>
         <v>35.593220338983052</v>
       </c>
       <c r="E107" s="17">
         <v>2240</v>
       </c>
       <c r="G107" s="18">
-        <f>F107*C107</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J107" s="14">
-        <f>C107*A107</f>
+        <f t="shared" si="12"/>
         <v>3304</v>
       </c>
     </row>
@@ -4807,18 +4807,18 @@
         <v>1049</v>
       </c>
       <c r="D108" s="21">
-        <f>(E108-C108)/C108*100</f>
+        <f t="shared" si="10"/>
         <v>30.123927550047664</v>
       </c>
       <c r="E108" s="17">
         <v>1365</v>
       </c>
       <c r="G108" s="18">
-        <f>F108*C108</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J108" s="14">
-        <f>C108*A108</f>
+        <f t="shared" si="12"/>
         <v>4196</v>
       </c>
     </row>
@@ -4833,18 +4833,18 @@
         <v>554</v>
       </c>
       <c r="D109" s="21">
-        <f>(E109-C109)/C109*100</f>
+        <f t="shared" si="10"/>
         <v>29.963898916967509</v>
       </c>
       <c r="E109" s="17">
         <v>720</v>
       </c>
       <c r="G109" s="18">
-        <f>F109*C109</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J109" s="14">
-        <f>C109*A109</f>
+        <f t="shared" si="12"/>
         <v>3324</v>
       </c>
     </row>
@@ -4859,18 +4859,18 @@
         <v>1236</v>
       </c>
       <c r="D110" s="21">
-        <f>(E110-C110)/C110*100</f>
+        <f t="shared" si="10"/>
         <v>29.854368932038831</v>
       </c>
       <c r="E110" s="17">
         <v>1605</v>
       </c>
       <c r="G110" s="18">
-        <f>F110*C110</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J110" s="14">
-        <f>C110*A110</f>
+        <f t="shared" si="12"/>
         <v>4944</v>
       </c>
     </row>
@@ -4885,18 +4885,18 @@
         <v>648</v>
       </c>
       <c r="D111" s="21">
-        <f>(E111-C111)/C111*100</f>
+        <f t="shared" si="10"/>
         <v>30.401234567901238</v>
       </c>
       <c r="E111" s="17">
         <v>845</v>
       </c>
       <c r="G111" s="18">
-        <f>F111*C111</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J111" s="14">
-        <f>C111*A111</f>
+        <f t="shared" si="12"/>
         <v>3888</v>
       </c>
     </row>
@@ -4911,18 +4911,18 @@
         <v>949</v>
       </c>
       <c r="D112" s="21">
-        <f>(E112-C112)/C112*100</f>
+        <f t="shared" si="10"/>
         <v>29.610115911485774</v>
       </c>
       <c r="E112" s="17">
         <v>1230</v>
       </c>
       <c r="G112" s="18">
-        <f>F112*C112</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J112" s="14">
-        <f>C112*A112</f>
+        <f t="shared" si="12"/>
         <v>1898</v>
       </c>
     </row>
@@ -4937,18 +4937,18 @@
         <v>453</v>
       </c>
       <c r="D113" s="21">
-        <f>(E113-C113)/C113*100</f>
+        <f t="shared" si="10"/>
         <v>30.242825607064017</v>
       </c>
       <c r="E113" s="17">
         <v>590</v>
       </c>
       <c r="G113" s="18">
-        <f>F113*C113</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J113" s="14">
-        <f>C113*A113</f>
+        <f t="shared" si="12"/>
         <v>906</v>
       </c>
     </row>
@@ -4963,18 +4963,18 @@
         <v>3976</v>
       </c>
       <c r="D114" s="21">
-        <f>(E114-C114)/C114*100</f>
+        <f t="shared" si="10"/>
         <v>29.904426559356136</v>
       </c>
       <c r="E114" s="17">
         <v>5165</v>
       </c>
       <c r="G114" s="18">
-        <f>F114*C114</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J114" s="14">
-        <f>C114*A114</f>
+        <f t="shared" si="12"/>
         <v>3976</v>
       </c>
     </row>
@@ -4989,18 +4989,18 @@
         <v>455</v>
       </c>
       <c r="D115" s="21">
-        <f>(E115-C115)/C115*100</f>
+        <f t="shared" ref="D115:D146" si="13">(E115-C115)/C115*100</f>
         <v>29.670329670329672</v>
       </c>
       <c r="E115" s="17">
         <v>590</v>
       </c>
       <c r="G115" s="18">
-        <f>F115*C115</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J115" s="14">
-        <f>C115*A115</f>
+        <f t="shared" si="12"/>
         <v>910</v>
       </c>
     </row>
@@ -5015,18 +5015,18 @@
         <v>4175</v>
       </c>
       <c r="D116" s="21">
-        <f>(E116-C116)/C116*100</f>
+        <f t="shared" si="13"/>
         <v>29.940119760479039</v>
       </c>
       <c r="E116" s="17">
         <v>5425</v>
       </c>
       <c r="G116" s="18">
-        <f>F116*C116</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J116" s="14">
-        <f>C116*A116</f>
+        <f t="shared" si="12"/>
         <v>4175</v>
       </c>
     </row>
@@ -5038,18 +5038,18 @@
         <v>4321</v>
       </c>
       <c r="D117" s="21">
-        <f>(E117-C117)/C117*100</f>
+        <f t="shared" si="13"/>
         <v>35.616755380698912</v>
       </c>
       <c r="E117" s="17">
         <v>5860</v>
       </c>
       <c r="G117" s="18">
-        <f>F117*C117</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J117" s="14">
-        <f>C117*A117</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5061,18 +5061,18 @@
         <v>4321</v>
       </c>
       <c r="D118" s="21">
-        <f>(E118-C118)/C118*100</f>
+        <f t="shared" si="13"/>
         <v>35.616755380698912</v>
       </c>
       <c r="E118" s="17">
         <v>5860</v>
       </c>
       <c r="G118" s="18">
-        <f>F118*C118</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J118" s="14">
-        <f>C118*A118</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5084,18 +5084,18 @@
         <v>4301</v>
       </c>
       <c r="D119" s="21">
-        <f>(E119-C119)/C119*100</f>
+        <f t="shared" si="13"/>
         <v>36.24738432922576</v>
       </c>
       <c r="E119" s="17">
         <v>5860</v>
       </c>
       <c r="G119" s="18">
-        <f>F119*C119</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J119" s="14">
-        <f>C119*A119</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5107,18 +5107,18 @@
         <v>1992</v>
       </c>
       <c r="D120" s="21">
-        <f>(E120-C120)/C120*100</f>
+        <f t="shared" si="13"/>
         <v>35.542168674698793</v>
       </c>
       <c r="E120" s="17">
         <v>2700</v>
       </c>
       <c r="G120" s="18">
-        <f>F120*C120</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J120" s="14">
-        <f>C120*A120</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5130,14 +5130,14 @@
         <v>2298</v>
       </c>
       <c r="D121" s="21">
-        <f>(E121-C121)/C121*100</f>
+        <f t="shared" si="13"/>
         <v>19.973890339425587</v>
       </c>
       <c r="E121" s="17">
         <v>2757</v>
       </c>
       <c r="G121" s="18">
-        <f>F121*C121</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J121" s="14"/>
@@ -5153,18 +5153,18 @@
         <v>768</v>
       </c>
       <c r="D122" s="21">
-        <f>(E122-C122)/C122*100</f>
+        <f t="shared" si="13"/>
         <v>19.791666666666664</v>
       </c>
       <c r="E122" s="17">
         <v>920</v>
       </c>
       <c r="G122" s="18">
-        <f>F122*C122</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J122" s="14">
-        <f>C122*A122</f>
+        <f t="shared" ref="J122:J137" si="14">C122*A122</f>
         <v>3072</v>
       </c>
     </row>
@@ -5179,18 +5179,18 @@
         <v>948</v>
       </c>
       <c r="D123" s="21">
-        <f>(E123-C123)/C123*100</f>
+        <f t="shared" si="13"/>
         <v>20.253164556962027</v>
       </c>
       <c r="E123" s="17">
         <v>1140</v>
       </c>
       <c r="G123" s="18">
-        <f>F123*C123</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J123" s="14">
-        <f>C123*A123</f>
+        <f t="shared" si="14"/>
         <v>3792</v>
       </c>
     </row>
@@ -5205,18 +5205,18 @@
         <v>323</v>
       </c>
       <c r="D124" s="21">
-        <f>(E124-C124)/C124*100</f>
+        <f t="shared" si="13"/>
         <v>36.222910216718269</v>
       </c>
       <c r="E124" s="17">
         <v>440</v>
       </c>
       <c r="G124" s="18">
-        <f>F124*C124</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J124" s="14">
-        <f>C124*A124</f>
+        <f t="shared" si="14"/>
         <v>1292</v>
       </c>
     </row>
@@ -5231,18 +5231,18 @@
         <v>323</v>
       </c>
       <c r="D125" s="21">
-        <f>(E125-C125)/C125*100</f>
+        <f t="shared" si="13"/>
         <v>36.222910216718269</v>
       </c>
       <c r="E125" s="17">
         <v>440</v>
       </c>
       <c r="G125" s="18">
-        <f>F125*C125</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J125" s="14">
-        <f>C125*A125</f>
+        <f t="shared" si="14"/>
         <v>1938</v>
       </c>
     </row>
@@ -5257,18 +5257,18 @@
         <v>1193</v>
       </c>
       <c r="D126" s="21">
-        <f>(E126-C126)/C126*100</f>
+        <f t="shared" si="13"/>
         <v>19.865884325230514</v>
       </c>
       <c r="E126" s="17">
         <v>1430</v>
       </c>
       <c r="G126" s="18">
-        <f>F126*C126</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J126" s="14">
-        <f>C126*A126</f>
+        <f t="shared" si="14"/>
         <v>2386</v>
       </c>
     </row>
@@ -5283,18 +5283,18 @@
         <v>1545</v>
       </c>
       <c r="D127" s="21">
-        <f>(E127-C127)/C127*100</f>
+        <f t="shared" si="13"/>
         <v>20.064724919093852</v>
       </c>
       <c r="E127" s="17">
         <v>1855</v>
       </c>
       <c r="G127" s="18">
-        <f>F127*C127</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J127" s="14">
-        <f>C127*A127</f>
+        <f t="shared" si="14"/>
         <v>3090</v>
       </c>
     </row>
@@ -5306,18 +5306,18 @@
         <v>385</v>
       </c>
       <c r="D128" s="21">
-        <f>(E128-C128)/C128*100</f>
+        <f t="shared" si="13"/>
         <v>20.779220779220779</v>
       </c>
       <c r="E128" s="17">
         <v>465</v>
       </c>
       <c r="G128" s="18">
-        <f>F128*C128</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J128" s="14">
-        <f>C128*A128</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5329,15 +5329,15 @@
         <v>1101</v>
       </c>
       <c r="D129" s="21">
-        <f>(E129-C129)/C129*100</f>
+        <f t="shared" si="13"/>
         <v>-100</v>
       </c>
       <c r="G129" s="18">
-        <f>F129*C129</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J129" s="14">
-        <f>C129*A129</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5352,18 +5352,18 @@
         <v>297</v>
       </c>
       <c r="D130" s="21">
-        <f>(E130-C130)/C130*100</f>
+        <f t="shared" si="13"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E130" s="17">
         <v>405</v>
       </c>
       <c r="G130" s="18">
-        <f>F130*C130</f>
+        <f t="shared" ref="G130:G161" si="15">F130*C130</f>
         <v>0</v>
       </c>
       <c r="J130" s="14">
-        <f>C130*A130</f>
+        <f t="shared" si="14"/>
         <v>1188</v>
       </c>
     </row>
@@ -5378,18 +5378,18 @@
         <v>404</v>
       </c>
       <c r="D131" s="21">
-        <f>(E131-C131)/C131*100</f>
+        <f t="shared" si="13"/>
         <v>36.138613861386141</v>
       </c>
       <c r="E131" s="17">
         <v>550</v>
       </c>
       <c r="G131" s="18">
-        <f>F131*C131</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J131" s="14">
-        <f>C131*A131</f>
+        <f t="shared" si="14"/>
         <v>1616</v>
       </c>
     </row>
@@ -5404,18 +5404,18 @@
         <v>630</v>
       </c>
       <c r="D132" s="21">
-        <f>(E132-C132)/C132*100</f>
+        <f t="shared" si="13"/>
         <v>15.079365079365079</v>
       </c>
       <c r="E132" s="17">
         <v>725</v>
       </c>
       <c r="G132" s="18">
-        <f>F132*C132</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J132" s="14">
-        <f>C132*A132</f>
+        <f t="shared" si="14"/>
         <v>1260</v>
       </c>
     </row>
@@ -5430,18 +5430,18 @@
         <v>576</v>
       </c>
       <c r="D133" s="21">
-        <f>(E133-C133)/C133*100</f>
+        <f t="shared" si="13"/>
         <v>14.583333333333334</v>
       </c>
       <c r="E133" s="17">
         <v>660</v>
       </c>
       <c r="G133" s="18">
-        <f>F133*C133</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J133" s="14">
-        <f>C133*A133</f>
+        <f t="shared" si="14"/>
         <v>576</v>
       </c>
     </row>
@@ -5456,18 +5456,18 @@
         <v>461</v>
       </c>
       <c r="D134" s="21">
-        <f>(E134-C134)/C134*100</f>
+        <f t="shared" si="13"/>
         <v>14.967462039045554</v>
       </c>
       <c r="E134" s="17">
         <v>530</v>
       </c>
       <c r="G134" s="18">
-        <f>F134*C134</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J134" s="14">
-        <f>C134*A134</f>
+        <f t="shared" si="14"/>
         <v>922</v>
       </c>
     </row>
@@ -5482,18 +5482,18 @@
         <v>767</v>
       </c>
       <c r="D135" s="21">
-        <f>(E135-C135)/C135*100</f>
+        <f t="shared" si="13"/>
         <v>15.384615384615385</v>
       </c>
       <c r="E135" s="17">
         <v>885</v>
       </c>
       <c r="G135" s="18">
-        <f>F135*C135</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J135" s="14">
-        <f>C135*A135</f>
+        <f t="shared" si="14"/>
         <v>767</v>
       </c>
     </row>
@@ -5508,18 +5508,18 @@
         <v>456</v>
       </c>
       <c r="D136" s="21">
-        <f>(E136-C136)/C136*100</f>
+        <f t="shared" si="13"/>
         <v>15.131578947368421</v>
       </c>
       <c r="E136" s="17">
         <v>525</v>
       </c>
       <c r="G136" s="18">
-        <f>F136*C136</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J136" s="14">
-        <f>C136*A136</f>
+        <f t="shared" si="14"/>
         <v>1368</v>
       </c>
     </row>
@@ -5534,18 +5534,18 @@
         <v>1482</v>
       </c>
       <c r="D137" s="21">
-        <f>(E137-C137)/C137*100</f>
+        <f t="shared" si="13"/>
         <v>237.38191632928473</v>
       </c>
       <c r="E137" s="17">
         <v>5000</v>
       </c>
       <c r="G137" s="18">
-        <f>F137*C137</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J137" s="14">
-        <f>C137*A137</f>
+        <f t="shared" si="14"/>
         <v>1482</v>
       </c>
     </row>
@@ -5557,14 +5557,14 @@
         <v>143</v>
       </c>
       <c r="D138" s="21">
-        <f>(E138-C138)/C138*100</f>
+        <f t="shared" si="13"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E138" s="17">
         <v>195</v>
       </c>
       <c r="G138" s="18">
-        <f>F138*C138</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J138" s="14"/>
@@ -5577,14 +5577,14 @@
         <v>143</v>
       </c>
       <c r="D139" s="21">
-        <f>(E139-C139)/C139*100</f>
+        <f t="shared" si="13"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E139" s="17">
         <v>195</v>
       </c>
       <c r="G139" s="18">
-        <f>F139*C139</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J139" s="14"/>
@@ -5600,18 +5600,18 @@
         <v>137</v>
       </c>
       <c r="D140" s="21">
-        <f>(E140-C140)/C140*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E140" s="17">
         <v>185</v>
       </c>
       <c r="G140" s="18">
-        <f>F140*C140</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J140" s="14">
-        <f>C140*A140</f>
+        <f t="shared" ref="J140:J165" si="16">C140*A140</f>
         <v>822</v>
       </c>
     </row>
@@ -5626,18 +5626,18 @@
         <v>137</v>
       </c>
       <c r="D141" s="21">
-        <f>(E141-C141)/C141*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E141" s="17">
         <v>185</v>
       </c>
       <c r="G141" s="18">
-        <f>F141*C141</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J141" s="14">
-        <f>C141*A141</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5652,18 +5652,18 @@
         <v>137</v>
       </c>
       <c r="D142" s="21">
-        <f>(E142-C142)/C142*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E142" s="17">
         <v>185</v>
       </c>
       <c r="G142" s="18">
-        <f>F142*C142</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J142" s="14">
-        <f>C142*A142</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5678,18 +5678,18 @@
         <v>137</v>
       </c>
       <c r="D143" s="21">
-        <f>(E143-C143)/C143*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E143" s="17">
         <v>185</v>
       </c>
       <c r="G143" s="18">
-        <f>F143*C143</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J143" s="14">
-        <f>C143*A143</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5704,18 +5704,18 @@
         <v>137</v>
       </c>
       <c r="D144" s="21">
-        <f>(E144-C144)/C144*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E144" s="17">
         <v>185</v>
       </c>
       <c r="G144" s="18">
-        <f>F144*C144</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J144" s="14">
-        <f>C144*A144</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5730,18 +5730,18 @@
         <v>137</v>
       </c>
       <c r="D145" s="21">
-        <f>(E145-C145)/C145*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E145" s="17">
         <v>185</v>
       </c>
       <c r="G145" s="18">
-        <f>F145*C145</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J145" s="14">
-        <f>C145*A145</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5756,18 +5756,18 @@
         <v>137</v>
       </c>
       <c r="D146" s="21">
-        <f>(E146-C146)/C146*100</f>
+        <f t="shared" si="13"/>
         <v>35.036496350364963</v>
       </c>
       <c r="E146" s="17">
         <v>185</v>
       </c>
       <c r="G146" s="18">
-        <f>F146*C146</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J146" s="14">
-        <f>C146*A146</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5782,18 +5782,18 @@
         <v>137</v>
       </c>
       <c r="D147" s="21">
-        <f>(E147-C147)/C147*100</f>
+        <f t="shared" ref="D147:D178" si="17">(E147-C147)/C147*100</f>
         <v>35.036496350364963</v>
       </c>
       <c r="E147" s="17">
         <v>185</v>
       </c>
       <c r="G147" s="18">
-        <f>F147*C147</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J147" s="14">
-        <f>C147*A147</f>
+        <f t="shared" si="16"/>
         <v>822</v>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
         <v>319</v>
       </c>
       <c r="D148" s="21">
-        <f>(E148-C148)/C148*100</f>
+        <f t="shared" si="17"/>
         <v>25.391849529780565</v>
       </c>
       <c r="E148" s="17">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="G148" s="18"/>
       <c r="J148" s="14">
-        <f>C148*A148</f>
+        <f t="shared" si="16"/>
         <v>1914</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
         <v>319</v>
       </c>
       <c r="D149" s="21">
-        <f>(E149-C149)/C149*100</f>
+        <f t="shared" si="17"/>
         <v>25.391849529780565</v>
       </c>
       <c r="E149" s="17">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="14">
-        <f>C149*A149</f>
+        <f t="shared" si="16"/>
         <v>1914</v>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
         <v>1743</v>
       </c>
       <c r="D150" s="21">
-        <f>(E150-C150)/C150*100</f>
+        <f t="shared" si="17"/>
         <v>24.497991967871485</v>
       </c>
       <c r="E150" s="17">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="14">
-        <f>C150*A150</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
         <v>319</v>
       </c>
       <c r="D151" s="21">
-        <f>(E151-C151)/C151*100</f>
+        <f t="shared" si="17"/>
         <v>25.391849529780565</v>
       </c>
       <c r="E151" s="17">
@@ -5894,7 +5894,7 @@
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="14">
-        <f>C151*A151</f>
+        <f t="shared" si="16"/>
         <v>1914</v>
       </c>
       <c r="K151" s="13"/>
@@ -5913,18 +5913,18 @@
         <v>495</v>
       </c>
       <c r="D152" s="21">
-        <f>(E152-C152)/C152*100</f>
+        <f t="shared" si="17"/>
         <v>35.353535353535356</v>
       </c>
       <c r="E152" s="17">
         <v>670</v>
       </c>
       <c r="G152" s="18">
-        <f>F152*C152</f>
+        <f t="shared" ref="G152:G183" si="18">F152*C152</f>
         <v>0</v>
       </c>
       <c r="J152" s="14">
-        <f>C152*A152</f>
+        <f t="shared" si="16"/>
         <v>990</v>
       </c>
     </row>
@@ -5939,18 +5939,18 @@
         <v>495</v>
       </c>
       <c r="D153" s="21">
-        <f>(E153-C153)/C153*100</f>
+        <f t="shared" si="17"/>
         <v>35.353535353535356</v>
       </c>
       <c r="E153" s="17">
         <v>670</v>
       </c>
       <c r="G153" s="18">
-        <f>F153*C153</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J153" s="14">
-        <f>C153*A153</f>
+        <f t="shared" si="16"/>
         <v>990</v>
       </c>
     </row>
@@ -5965,18 +5965,18 @@
         <v>719</v>
       </c>
       <c r="D154" s="21">
-        <f>(E154-C154)/C154*100</f>
+        <f t="shared" si="17"/>
         <v>9.8748261474269814</v>
       </c>
       <c r="E154" s="17">
         <v>790</v>
       </c>
       <c r="G154" s="18">
-        <f>F154*C154</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J154" s="14">
-        <f>C154*A154</f>
+        <f t="shared" si="16"/>
         <v>5752</v>
       </c>
     </row>
@@ -5996,13 +5996,13 @@
       </c>
       <c r="F155" s="29"/>
       <c r="G155" s="30">
-        <f>F155*C155</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
       <c r="J155" s="32">
-        <f>C155*A155</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K155" s="31"/>
@@ -6018,18 +6018,18 @@
         <v>918</v>
       </c>
       <c r="D156" s="21">
-        <f>(E156-C156)/C156*100</f>
+        <f t="shared" ref="D156:D187" si="19">(E156-C156)/C156*100</f>
         <v>10.021786492374728</v>
       </c>
       <c r="E156" s="17">
         <v>1010</v>
       </c>
       <c r="G156" s="18">
-        <f>F156*C156</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J156" s="14">
-        <f>C156*A156</f>
+        <f t="shared" si="16"/>
         <v>3672</v>
       </c>
     </row>
@@ -6044,18 +6044,18 @@
         <v>1201</v>
       </c>
       <c r="D157" s="21">
-        <f>(E157-C157)/C157*100</f>
+        <f t="shared" si="19"/>
         <v>9.9084096586178187</v>
       </c>
       <c r="E157" s="17">
         <v>1320</v>
       </c>
       <c r="G157" s="18">
-        <f>F157*C157</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J157" s="14">
-        <f>C157*A157</f>
+        <f t="shared" si="16"/>
         <v>4804</v>
       </c>
     </row>
@@ -6070,18 +6070,18 @@
         <v>1352</v>
       </c>
       <c r="D158" s="21">
-        <f>(E158-C158)/C158*100</f>
+        <f t="shared" si="19"/>
         <v>35.72485207100592</v>
       </c>
       <c r="E158" s="17">
         <v>1835</v>
       </c>
       <c r="G158" s="18">
-        <f>F158*C158</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J158" s="14">
-        <f>C158*A158</f>
+        <f t="shared" si="16"/>
         <v>2704</v>
       </c>
     </row>
@@ -6096,18 +6096,18 @@
         <v>1395</v>
       </c>
       <c r="D159" s="21">
-        <f>(E159-C159)/C159*100</f>
+        <f t="shared" si="19"/>
         <v>35.483870967741936</v>
       </c>
       <c r="E159" s="17">
         <v>1890</v>
       </c>
       <c r="G159" s="18">
-        <f>F159*C159</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J159" s="14">
-        <f>C159*A159</f>
+        <f t="shared" si="16"/>
         <v>2790</v>
       </c>
     </row>
@@ -6122,18 +6122,18 @@
         <v>1213</v>
       </c>
       <c r="D160" s="21">
-        <f>(E160-C160)/C160*100</f>
+        <f t="shared" si="19"/>
         <v>35.614179719703216</v>
       </c>
       <c r="E160" s="17">
         <v>1645</v>
       </c>
       <c r="G160" s="18">
-        <f>F160*C160</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J160" s="14">
-        <f>C160*A160</f>
+        <f t="shared" si="16"/>
         <v>2426</v>
       </c>
     </row>
@@ -6148,18 +6148,18 @@
         <v>1083</v>
       </c>
       <c r="D161" s="21">
-        <f>(E161-C161)/C161*100</f>
+        <f t="shared" si="19"/>
         <v>35.73407202216066</v>
       </c>
       <c r="E161" s="17">
         <v>1470</v>
       </c>
       <c r="G161" s="18">
-        <f>F161*C161</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J161" s="14">
-        <f>C161*A161</f>
+        <f t="shared" si="16"/>
         <v>2166</v>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
         <v>902</v>
       </c>
       <c r="D162" s="21">
-        <f>(E162-C162)/C162*100</f>
+        <f t="shared" si="19"/>
         <v>35.809312638580934</v>
       </c>
       <c r="E162" s="17">
@@ -6180,13 +6180,13 @@
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="18">
-        <f>F162*C162</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="14">
-        <f>C162*A162</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K162" s="13"/>
@@ -6202,18 +6202,18 @@
         <v>1517</v>
       </c>
       <c r="D163" s="21">
-        <f>(E163-C163)/C163*100</f>
+        <f t="shared" si="19"/>
         <v>35.794330916282135</v>
       </c>
       <c r="E163" s="17">
         <v>2060</v>
       </c>
       <c r="G163" s="18">
-        <f>F163*C163</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J163" s="14">
-        <f>C163*A163</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6228,18 +6228,18 @@
         <v>866</v>
       </c>
       <c r="D164" s="21">
-        <f>(E164-C164)/C164*100</f>
+        <f t="shared" si="19"/>
         <v>35.681293302540418</v>
       </c>
       <c r="E164" s="17">
         <v>1175</v>
       </c>
       <c r="G164" s="18">
-        <f>F164*C164</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J164" s="14">
-        <f>C164*A164</f>
+        <f t="shared" si="16"/>
         <v>1732</v>
       </c>
     </row>
@@ -6254,18 +6254,18 @@
         <v>306</v>
       </c>
       <c r="D165" s="21">
-        <f>(E165-C165)/C165*100</f>
+        <f t="shared" si="19"/>
         <v>35.62091503267974</v>
       </c>
       <c r="E165" s="17">
         <v>415</v>
       </c>
       <c r="G165" s="18">
-        <f>F165*C165</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J165" s="14">
-        <f>C165*A165</f>
+        <f t="shared" si="16"/>
         <v>612</v>
       </c>
     </row>
@@ -6278,7 +6278,7 @@
         <v>478</v>
       </c>
       <c r="D166" s="28">
-        <f>(E166-C166)/C166*100</f>
+        <f t="shared" si="19"/>
         <v>35.98326359832636</v>
       </c>
       <c r="E166" s="27">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="F166" s="29"/>
       <c r="G166" s="30">
-        <f>F166*C166</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H166" s="31"/>
@@ -6305,18 +6305,18 @@
         <v>430</v>
       </c>
       <c r="D167" s="21">
-        <f>(E167-C167)/C167*100</f>
+        <f t="shared" si="19"/>
         <v>36.046511627906973</v>
       </c>
       <c r="E167" s="17">
         <v>585</v>
       </c>
       <c r="G167" s="18">
-        <f>F167*C167</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J167" s="14">
-        <f>C167*A167</f>
+        <f t="shared" ref="J167:J206" si="20">C167*A167</f>
         <v>860</v>
       </c>
     </row>
@@ -6331,18 +6331,18 @@
         <v>409</v>
       </c>
       <c r="D168" s="21">
-        <f>(E168-C168)/C168*100</f>
+        <f t="shared" si="19"/>
         <v>35.696821515892417</v>
       </c>
       <c r="E168" s="17">
         <v>555</v>
       </c>
       <c r="G168" s="18">
-        <f>F168*C168</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J168" s="14">
-        <f>C168*A168</f>
+        <f t="shared" si="20"/>
         <v>818</v>
       </c>
     </row>
@@ -6357,18 +6357,18 @@
         <v>340</v>
       </c>
       <c r="D169" s="21">
-        <f>(E169-C169)/C169*100</f>
+        <f t="shared" si="19"/>
         <v>35.294117647058826</v>
       </c>
       <c r="E169" s="17">
         <v>460</v>
       </c>
       <c r="G169" s="18">
-        <f>F169*C169</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J169" s="14">
-        <f>C169*A169</f>
+        <f t="shared" si="20"/>
         <v>680</v>
       </c>
     </row>
@@ -6383,18 +6383,18 @@
         <v>340</v>
       </c>
       <c r="D170" s="21">
-        <f>(E170-C170)/C170*100</f>
+        <f t="shared" si="19"/>
         <v>35.294117647058826</v>
       </c>
       <c r="E170" s="17">
         <v>460</v>
       </c>
       <c r="G170" s="18">
-        <f>F170*C170</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J170" s="14">
-        <f>C170*A170</f>
+        <f t="shared" si="20"/>
         <v>680</v>
       </c>
     </row>
@@ -6409,18 +6409,18 @@
         <v>531</v>
       </c>
       <c r="D171" s="21">
-        <f>(E171-C171)/C171*100</f>
+        <f t="shared" si="19"/>
         <v>35.593220338983052</v>
       </c>
       <c r="E171" s="17">
         <v>720</v>
       </c>
       <c r="G171" s="18">
-        <f>F171*C171</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J171" s="14">
-        <f>C171*A171</f>
+        <f t="shared" si="20"/>
         <v>1062</v>
       </c>
     </row>
@@ -6432,18 +6432,18 @@
         <v>569</v>
       </c>
       <c r="D172" s="21">
-        <f>(E172-C172)/C172*100</f>
+        <f t="shared" si="19"/>
         <v>35.325131810193319</v>
       </c>
       <c r="E172" s="17">
         <v>770</v>
       </c>
       <c r="G172" s="18">
-        <f>F172*C172</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J172" s="14">
-        <f>C172*A172</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6455,18 +6455,18 @@
         <v>443</v>
       </c>
       <c r="D173" s="21">
-        <f>(E173-C173)/C173*100</f>
+        <f t="shared" si="19"/>
         <v>35.440180586907452</v>
       </c>
       <c r="E173" s="17">
         <v>600</v>
       </c>
       <c r="G173" s="18">
-        <f>F173*C173</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J173" s="14">
-        <f>C173*A173</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6478,18 +6478,18 @@
         <v>437</v>
       </c>
       <c r="D174" s="21">
-        <f>(E174-C174)/C174*100</f>
+        <f t="shared" si="19"/>
         <v>36.155606407322658</v>
       </c>
       <c r="E174" s="17">
         <v>595</v>
       </c>
       <c r="G174" s="18">
-        <f>F174*C174</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J174" s="14">
-        <f>C174*A174</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6504,18 +6504,18 @@
         <v>685</v>
       </c>
       <c r="D175" s="21">
-        <f>(E175-C175)/C175*100</f>
+        <f t="shared" si="19"/>
         <v>19.708029197080293</v>
       </c>
       <c r="E175" s="17">
         <v>820</v>
       </c>
       <c r="G175" s="18">
-        <f>F175*C175</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J175" s="14">
-        <f>C175*A175</f>
+        <f t="shared" si="20"/>
         <v>1370</v>
       </c>
     </row>
@@ -6530,18 +6530,18 @@
         <v>264</v>
       </c>
       <c r="D176" s="21">
-        <f>(E176-C176)/C176*100</f>
+        <f t="shared" si="19"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E176" s="17">
         <v>360</v>
       </c>
       <c r="G176" s="18">
-        <f>F176*C176</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J176" s="14">
-        <f>C176*A176</f>
+        <f t="shared" si="20"/>
         <v>528</v>
       </c>
     </row>
@@ -6556,18 +6556,18 @@
         <v>264</v>
       </c>
       <c r="D177" s="21">
-        <f>(E177-C177)/C177*100</f>
+        <f t="shared" si="19"/>
         <v>42.045454545454547</v>
       </c>
       <c r="E177" s="17">
         <v>375</v>
       </c>
       <c r="G177" s="18">
-        <f>F177*C177</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J177" s="14">
-        <f>C177*A177</f>
+        <f t="shared" si="20"/>
         <v>528</v>
       </c>
     </row>
@@ -6582,18 +6582,18 @@
         <v>264</v>
       </c>
       <c r="D178" s="21">
-        <f>(E178-C178)/C178*100</f>
+        <f t="shared" si="19"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E178" s="17">
         <v>360</v>
       </c>
       <c r="G178" s="18">
-        <f>F178*C178</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J178" s="14">
-        <f>C178*A178</f>
+        <f t="shared" si="20"/>
         <v>528</v>
       </c>
     </row>
@@ -6608,18 +6608,18 @@
         <v>1359</v>
       </c>
       <c r="D179" s="21">
-        <f>(E179-C179)/C179*100</f>
+        <f t="shared" si="19"/>
         <v>35.393671817512882</v>
       </c>
       <c r="E179" s="17">
         <v>1840</v>
       </c>
       <c r="G179" s="18">
-        <f>F179*C179</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J179" s="14">
-        <f>C179*A179</f>
+        <f t="shared" si="20"/>
         <v>2718</v>
       </c>
     </row>
@@ -6634,18 +6634,18 @@
         <v>834</v>
       </c>
       <c r="D180" s="21">
-        <f>(E180-C180)/C180*100</f>
+        <f t="shared" si="19"/>
         <v>19.904076738609113</v>
       </c>
       <c r="E180" s="17">
         <v>1000</v>
       </c>
       <c r="G180" s="18">
-        <f>F180*C180</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J180" s="14">
-        <f>C180*A180</f>
+        <f t="shared" si="20"/>
         <v>834</v>
       </c>
     </row>
@@ -6660,18 +6660,18 @@
         <v>579</v>
       </c>
       <c r="D181" s="21">
-        <f>(E181-C181)/C181*100</f>
+        <f t="shared" si="19"/>
         <v>9.6718480138169269</v>
       </c>
       <c r="E181" s="17">
         <v>635</v>
       </c>
       <c r="G181" s="18">
-        <f>F181*C181</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J181" s="14">
-        <f>C181*A181</f>
+        <f t="shared" si="20"/>
         <v>1737</v>
       </c>
     </row>
@@ -6686,18 +6686,18 @@
         <v>1095</v>
       </c>
       <c r="D182" s="21">
-        <f>(E182-C182)/C182*100</f>
+        <f t="shared" si="19"/>
         <v>9.5890410958904102</v>
       </c>
       <c r="E182" s="17">
         <v>1200</v>
       </c>
       <c r="G182" s="18">
-        <f>F182*C182</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J182" s="14">
-        <f>C182*A182</f>
+        <f t="shared" si="20"/>
         <v>3285</v>
       </c>
     </row>
@@ -6712,18 +6712,18 @@
         <v>444</v>
       </c>
       <c r="D183" s="21">
-        <f>(E183-C183)/C183*100</f>
+        <f t="shared" si="19"/>
         <v>35.135135135135137</v>
       </c>
       <c r="E183" s="17">
         <v>600</v>
       </c>
       <c r="G183" s="18">
-        <f>F183*C183</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J183" s="14">
-        <f>C183*A183</f>
+        <f t="shared" si="20"/>
         <v>888</v>
       </c>
     </row>
@@ -6738,18 +6738,18 @@
         <v>400</v>
       </c>
       <c r="D184" s="21">
-        <f>(E184-C184)/C184*100</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="E184" s="17">
         <v>460</v>
       </c>
       <c r="G184" s="18">
-        <f>F184*C184</f>
+        <f t="shared" ref="G184:G215" si="21">F184*C184</f>
         <v>0</v>
       </c>
       <c r="J184" s="14">
-        <f>C184*A184</f>
+        <f t="shared" si="20"/>
         <v>1600</v>
       </c>
     </row>
@@ -6761,18 +6761,18 @@
         <v>1243</v>
       </c>
       <c r="D185" s="21">
-        <f>(E185-C185)/C185*100</f>
+        <f t="shared" si="19"/>
         <v>35.55913113435237</v>
       </c>
       <c r="E185" s="17">
         <v>1685</v>
       </c>
       <c r="G185" s="18">
-        <f>F185*C185</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J185" s="14">
-        <f>C185*A185</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6784,18 +6784,18 @@
         <v>401</v>
       </c>
       <c r="D186" s="21">
-        <f>(E186-C186)/C186*100</f>
+        <f t="shared" si="19"/>
         <v>29.67581047381546</v>
       </c>
       <c r="E186" s="17">
         <v>520</v>
       </c>
       <c r="G186" s="18">
-        <f>F186*C186</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J186" s="14">
-        <f>C186*A186</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6807,18 +6807,18 @@
         <v>577</v>
       </c>
       <c r="D187" s="21">
-        <f>(E187-C187)/C187*100</f>
+        <f t="shared" si="19"/>
         <v>29.982668977469672</v>
       </c>
       <c r="E187" s="17">
         <v>750</v>
       </c>
       <c r="G187" s="18">
-        <f>F187*C187</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J187" s="14">
-        <f>C187*A187</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6830,18 +6830,18 @@
         <v>671</v>
       </c>
       <c r="D188" s="21">
-        <f>(E188-C188)/C188*100</f>
+        <f t="shared" ref="D188:D219" si="22">(E188-C188)/C188*100</f>
         <v>35.618479880774963</v>
       </c>
       <c r="E188" s="17">
         <v>910</v>
       </c>
       <c r="G188" s="18">
-        <f>F188*C188</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J188" s="14">
-        <f>C188*A188</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6853,18 +6853,18 @@
         <v>480</v>
       </c>
       <c r="D189" s="21">
-        <f>(E189-C189)/C189*100</f>
+        <f t="shared" si="22"/>
         <v>35.416666666666671</v>
       </c>
       <c r="E189" s="17">
         <v>650</v>
       </c>
       <c r="G189" s="18">
-        <f>F189*C189</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J189" s="14">
-        <f>C189*A189</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6879,18 +6879,18 @@
         <v>1191</v>
       </c>
       <c r="D190" s="21">
-        <f>(E190-C190)/C190*100</f>
+        <f t="shared" si="22"/>
         <v>35.600335852225022</v>
       </c>
       <c r="E190" s="17">
         <v>1615</v>
       </c>
       <c r="G190" s="18">
-        <f>F190*C190</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J190" s="14">
-        <f>C190*A190</f>
+        <f t="shared" si="20"/>
         <v>2382</v>
       </c>
     </row>
@@ -6905,18 +6905,18 @@
         <v>1329</v>
       </c>
       <c r="D191" s="21">
-        <f>(E191-C191)/C191*100</f>
+        <f t="shared" si="22"/>
         <v>35.440180586907452</v>
       </c>
       <c r="E191" s="17">
         <v>1800</v>
       </c>
       <c r="G191" s="18">
-        <f>F191*C191</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J191" s="14">
-        <f>C191*A191</f>
+        <f t="shared" si="20"/>
         <v>2658</v>
       </c>
     </row>
@@ -6928,18 +6928,18 @@
         <v>430</v>
       </c>
       <c r="D192" s="21">
-        <f>(E192-C192)/C192*100</f>
+        <f t="shared" si="22"/>
         <v>36.046511627906973</v>
       </c>
       <c r="E192" s="17">
         <v>585</v>
       </c>
       <c r="G192" s="18">
-        <f>F192*C192</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J192" s="14">
-        <f>C192*A192</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6951,18 +6951,18 @@
         <v>430</v>
       </c>
       <c r="D193" s="21">
-        <f>(E193-C193)/C193*100</f>
+        <f t="shared" si="22"/>
         <v>36.046511627906973</v>
       </c>
       <c r="E193" s="17">
         <v>585</v>
       </c>
       <c r="G193" s="18">
-        <f>F193*C193</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J193" s="14">
-        <f>C193*A193</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6974,18 +6974,18 @@
         <v>430</v>
       </c>
       <c r="D194" s="21">
-        <f>(E194-C194)/C194*100</f>
+        <f t="shared" si="22"/>
         <v>36.046511627906973</v>
       </c>
       <c r="E194" s="17">
         <v>585</v>
       </c>
       <c r="G194" s="18">
-        <f>F194*C194</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J194" s="14">
-        <f>C194*A194</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7000,18 +7000,18 @@
         <v>593</v>
       </c>
       <c r="D195" s="21">
-        <f>(E195-C195)/C195*100</f>
+        <f t="shared" si="22"/>
         <v>35.750421585160204</v>
       </c>
       <c r="E195" s="17">
         <v>805</v>
       </c>
       <c r="G195" s="18">
-        <f>F195*C195</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J195" s="14">
-        <f>C195*A195</f>
+        <f t="shared" si="20"/>
         <v>1186</v>
       </c>
     </row>
@@ -7026,18 +7026,18 @@
         <v>464</v>
       </c>
       <c r="D196" s="21">
-        <f>(E196-C196)/C196*100</f>
+        <f t="shared" si="22"/>
         <v>35.775862068965516</v>
       </c>
       <c r="E196" s="17">
         <v>630</v>
       </c>
       <c r="G196" s="18">
-        <f>F196*C196</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J196" s="14">
-        <f>C196*A196</f>
+        <f t="shared" si="20"/>
         <v>928</v>
       </c>
     </row>
@@ -7052,18 +7052,18 @@
         <v>593</v>
       </c>
       <c r="D197" s="21">
-        <f>(E197-C197)/C197*100</f>
+        <f t="shared" si="22"/>
         <v>35.750421585160204</v>
       </c>
       <c r="E197" s="17">
         <v>805</v>
       </c>
       <c r="G197" s="18">
-        <f>F197*C197</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J197" s="14">
-        <f>C197*A197</f>
+        <f t="shared" si="20"/>
         <v>1186</v>
       </c>
     </row>
@@ -7078,18 +7078,18 @@
         <v>464</v>
       </c>
       <c r="D198" s="21">
-        <f>(E198-C198)/C198*100</f>
+        <f t="shared" si="22"/>
         <v>35.775862068965516</v>
       </c>
       <c r="E198" s="17">
         <v>630</v>
       </c>
       <c r="G198" s="18">
-        <f>F198*C198</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J198" s="14">
-        <f>C198*A198</f>
+        <f t="shared" si="20"/>
         <v>928</v>
       </c>
     </row>
@@ -7104,18 +7104,18 @@
         <v>814</v>
       </c>
       <c r="D199" s="21">
-        <f>(E199-C199)/C199*100</f>
+        <f t="shared" si="22"/>
         <v>20.393120393120391</v>
       </c>
       <c r="E199" s="17">
         <v>980</v>
       </c>
       <c r="G199" s="18">
-        <f>F199*C199</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J199" s="14">
-        <f>C199*A199</f>
+        <f t="shared" si="20"/>
         <v>2442</v>
       </c>
     </row>
@@ -7130,18 +7130,18 @@
         <v>294</v>
       </c>
       <c r="D200" s="21">
-        <f>(E200-C200)/C200*100</f>
+        <f t="shared" si="22"/>
         <v>36.054421768707485</v>
       </c>
       <c r="E200" s="17">
         <v>400</v>
       </c>
       <c r="G200" s="18">
-        <f>F200*C200</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J200" s="14">
-        <f>C200*A200</f>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
     </row>
@@ -7156,18 +7156,18 @@
         <v>294</v>
       </c>
       <c r="D201" s="21">
-        <f>(E201-C201)/C201*100</f>
+        <f t="shared" si="22"/>
         <v>36.054421768707485</v>
       </c>
       <c r="E201" s="17">
         <v>400</v>
       </c>
       <c r="G201" s="18">
-        <f>F201*C201</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J201" s="14">
-        <f>C201*A201</f>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
     </row>
@@ -7182,18 +7182,18 @@
         <v>294</v>
       </c>
       <c r="D202" s="21">
-        <f>(E202-C202)/C202*100</f>
+        <f t="shared" si="22"/>
         <v>36.054421768707485</v>
       </c>
       <c r="E202" s="17">
         <v>400</v>
       </c>
       <c r="G202" s="18">
-        <f>F202*C202</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J202" s="14">
-        <f>C202*A202</f>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
     </row>
@@ -7208,18 +7208,18 @@
         <v>294</v>
       </c>
       <c r="D203" s="21">
-        <f>(E203-C203)/C203*100</f>
+        <f t="shared" si="22"/>
         <v>36.054421768707485</v>
       </c>
       <c r="E203" s="17">
         <v>400</v>
       </c>
       <c r="G203" s="18">
-        <f>F203*C203</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J203" s="14">
-        <f>C203*A203</f>
+        <f t="shared" si="20"/>
         <v>1176</v>
       </c>
     </row>
@@ -7234,18 +7234,18 @@
         <v>791</v>
       </c>
       <c r="D204" s="21">
-        <f>(E204-C204)/C204*100</f>
+        <f t="shared" si="22"/>
         <v>30.214917825537295</v>
       </c>
       <c r="E204" s="17">
         <v>1030</v>
       </c>
       <c r="G204" s="18">
-        <f>F204*C204</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J204" s="14">
-        <f>C204*A204</f>
+        <f t="shared" si="20"/>
         <v>3164</v>
       </c>
     </row>
@@ -7260,18 +7260,18 @@
         <v>420</v>
       </c>
       <c r="D205" s="21">
-        <f>(E205-C205)/C205*100</f>
+        <f t="shared" si="22"/>
         <v>29.761904761904763</v>
       </c>
       <c r="E205" s="17">
         <v>545</v>
       </c>
       <c r="G205" s="18">
-        <f>F205*C205</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J205" s="14">
-        <f>C205*A205</f>
+        <f t="shared" si="20"/>
         <v>1680</v>
       </c>
     </row>
@@ -7286,18 +7286,18 @@
         <v>707</v>
       </c>
       <c r="D206" s="21">
-        <f>(E206-C206)/C206*100</f>
+        <f t="shared" si="22"/>
         <v>30.12729844413013</v>
       </c>
       <c r="E206" s="17">
         <v>920</v>
       </c>
       <c r="G206" s="18">
-        <f>F206*C206</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J206" s="14">
-        <f>C206*A206</f>
+        <f t="shared" si="20"/>
         <v>2828</v>
       </c>
     </row>
@@ -7309,14 +7309,14 @@
         <v>823</v>
       </c>
       <c r="D207" s="21">
-        <f>(E207-C207)/C207*100</f>
+        <f t="shared" si="22"/>
         <v>9.3560145808019435</v>
       </c>
       <c r="E207" s="17">
         <v>900</v>
       </c>
       <c r="G207" s="18">
-        <f>F207*C207</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J207" s="14"/>
@@ -7329,14 +7329,14 @@
         <v>371</v>
       </c>
       <c r="D208" s="21">
-        <f>(E208-C208)/C208*100</f>
+        <f t="shared" si="22"/>
         <v>34.770889487870619</v>
       </c>
       <c r="E208" s="17">
         <v>500</v>
       </c>
       <c r="G208" s="18">
-        <f>F208*C208</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J208" s="14"/>
@@ -7352,14 +7352,14 @@
         <v>1708</v>
       </c>
       <c r="D209" s="21">
-        <f>(E209-C209)/C209*100</f>
+        <f t="shared" si="22"/>
         <v>35.831381733021075</v>
       </c>
       <c r="E209" s="17">
         <v>2320</v>
       </c>
       <c r="G209" s="18">
-        <f>F209*C209</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J209" s="14">
@@ -7378,14 +7378,14 @@
         <v>630</v>
       </c>
       <c r="D210" s="21">
-        <f>(E210-C210)/C210*100</f>
+        <f t="shared" si="22"/>
         <v>35.714285714285715</v>
       </c>
       <c r="E210" s="17">
         <v>855</v>
       </c>
       <c r="G210" s="18">
-        <f>F210*C210</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J210" s="14">
@@ -7404,14 +7404,14 @@
         <v>622</v>
       </c>
       <c r="D211" s="21">
-        <f>(E211-C211)/C211*100</f>
+        <f t="shared" si="22"/>
         <v>10.128617363344052</v>
       </c>
       <c r="E211" s="17">
         <v>685</v>
       </c>
       <c r="G211" s="18">
-        <f>F211*C211</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J211" s="14">
@@ -7430,14 +7430,14 @@
         <v>1570</v>
       </c>
       <c r="D212" s="21">
-        <f>(E212-C212)/C212*100</f>
+        <f t="shared" si="22"/>
         <v>10.191082802547772</v>
       </c>
       <c r="E212" s="17">
         <v>1730</v>
       </c>
       <c r="G212" s="18">
-        <f>F212*C212</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J212" s="14">
@@ -7453,14 +7453,14 @@
         <v>945</v>
       </c>
       <c r="D213" s="21">
-        <f>(E213-C213)/C213*100</f>
+        <f t="shared" si="22"/>
         <v>10.052910052910052</v>
       </c>
       <c r="E213" s="17">
         <v>1040</v>
       </c>
       <c r="G213" s="18">
-        <f>F213*C213</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J213" s="14"/>
@@ -7476,18 +7476,18 @@
         <v>576</v>
       </c>
       <c r="D214" s="21">
-        <f>(E214-C214)/C214*100</f>
+        <f t="shared" si="22"/>
         <v>19.791666666666664</v>
       </c>
       <c r="E214" s="17">
         <v>690</v>
       </c>
       <c r="G214" s="18">
-        <f>F214*C214</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J214" s="14">
-        <f>C214*A214</f>
+        <f t="shared" ref="J214:J230" si="23">C214*A214</f>
         <v>1152</v>
       </c>
     </row>
@@ -7502,18 +7502,18 @@
         <v>1927</v>
       </c>
       <c r="D215" s="21">
-        <f>(E215-C215)/C215*100</f>
+        <f t="shared" si="22"/>
         <v>35.703165542293718</v>
       </c>
       <c r="E215" s="17">
         <v>2615</v>
       </c>
       <c r="G215" s="18">
-        <f>F215*C215</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J215" s="14">
-        <f>C215*A215</f>
+        <f t="shared" si="23"/>
         <v>3854</v>
       </c>
     </row>
@@ -7528,18 +7528,18 @@
         <v>415</v>
       </c>
       <c r="D216" s="21">
-        <f>(E216-C216)/C216*100</f>
+        <f t="shared" si="22"/>
         <v>34.939759036144579</v>
       </c>
       <c r="E216" s="17">
         <v>560</v>
       </c>
       <c r="G216" s="18">
-        <f>F216*C216</f>
+        <f t="shared" ref="G216:G247" si="24">F216*C216</f>
         <v>0</v>
       </c>
       <c r="J216" s="14">
-        <f>C216*A216</f>
+        <f t="shared" si="23"/>
         <v>830</v>
       </c>
     </row>
@@ -7551,18 +7551,18 @@
         <v>461</v>
       </c>
       <c r="D217" s="21">
-        <f>(E217-C217)/C217*100</f>
+        <f t="shared" si="22"/>
         <v>35.574837310195228</v>
       </c>
       <c r="E217" s="17">
         <v>625</v>
       </c>
       <c r="G217" s="18">
-        <f>F217*C217</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J217" s="14">
-        <f>C217*A217</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7577,18 +7577,18 @@
         <v>520</v>
       </c>
       <c r="D218" s="21">
-        <f>(E218-C218)/C218*100</f>
+        <f t="shared" si="22"/>
         <v>20.192307692307693</v>
       </c>
       <c r="E218" s="17">
         <v>625</v>
       </c>
       <c r="G218" s="18">
-        <f>F218*C218</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J218" s="14">
-        <f>C218*A218</f>
+        <f t="shared" si="23"/>
         <v>1560</v>
       </c>
     </row>
@@ -7603,18 +7603,18 @@
         <v>205</v>
       </c>
       <c r="D219" s="21">
-        <f>(E219-C219)/C219*100</f>
+        <f t="shared" si="22"/>
         <v>9.7560975609756095</v>
       </c>
       <c r="E219" s="17">
         <v>225</v>
       </c>
       <c r="G219" s="18">
-        <f>F219*C219</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J219" s="14">
-        <f>C219*A219</f>
+        <f t="shared" si="23"/>
         <v>1025</v>
       </c>
     </row>
@@ -7629,18 +7629,18 @@
         <v>376</v>
       </c>
       <c r="D220" s="21">
-        <f>(E220-C220)/C220*100</f>
+        <f t="shared" ref="D220:D251" si="25">(E220-C220)/C220*100</f>
         <v>10.372340425531915</v>
       </c>
       <c r="E220" s="17">
         <v>415</v>
       </c>
       <c r="G220" s="18">
-        <f>F220*C220</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J220" s="14">
-        <f>C220*A220</f>
+        <f t="shared" si="23"/>
         <v>3008</v>
       </c>
     </row>
@@ -7655,18 +7655,18 @@
         <v>742</v>
       </c>
       <c r="D221" s="21">
-        <f>(E221-C221)/C221*100</f>
+        <f t="shared" si="25"/>
         <v>9.8382749326145547</v>
       </c>
       <c r="E221" s="17">
         <v>815</v>
       </c>
       <c r="G221" s="18">
-        <f>F221*C221</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J221" s="14">
-        <f>C221*A221</f>
+        <f t="shared" si="23"/>
         <v>1484</v>
       </c>
     </row>
@@ -7681,18 +7681,18 @@
         <v>1205</v>
       </c>
       <c r="D222" s="21">
-        <f>(E222-C222)/C222*100</f>
+        <f t="shared" si="25"/>
         <v>9.9585062240663902</v>
       </c>
       <c r="E222" s="17">
         <v>1325</v>
       </c>
       <c r="G222" s="18">
-        <f>F222*C222</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J222" s="14">
-        <f>C222*A222</f>
+        <f t="shared" si="23"/>
         <v>4820</v>
       </c>
     </row>
@@ -7707,18 +7707,18 @@
         <v>1437</v>
       </c>
       <c r="D223" s="21">
-        <f>(E223-C223)/C223*100</f>
+        <f t="shared" si="25"/>
         <v>9.9512874043145452</v>
       </c>
       <c r="E223" s="17">
         <v>1580</v>
       </c>
       <c r="G223" s="18">
-        <f>F223*C223</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J223" s="14">
-        <f>C223*A223</f>
+        <f t="shared" si="23"/>
         <v>5748</v>
       </c>
     </row>
@@ -7733,18 +7733,18 @@
         <v>1117</v>
       </c>
       <c r="D224" s="21">
-        <f>(E224-C224)/C224*100</f>
+        <f t="shared" si="25"/>
         <v>10.116383169203223</v>
       </c>
       <c r="E224" s="17">
         <v>1230</v>
       </c>
       <c r="G224" s="18">
-        <f>F224*C224</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J224" s="14">
-        <f>C224*A224</f>
+        <f t="shared" si="23"/>
         <v>4468</v>
       </c>
     </row>
@@ -7759,18 +7759,18 @@
         <v>1498</v>
       </c>
       <c r="D225" s="21">
-        <f>(E225-C225)/C225*100</f>
+        <f t="shared" si="25"/>
         <v>10.146862483311081</v>
       </c>
       <c r="E225" s="17">
         <v>1650</v>
       </c>
       <c r="G225" s="18">
-        <f>F225*C225</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J225" s="14">
-        <f>C225*A225</f>
+        <f t="shared" si="23"/>
         <v>5992</v>
       </c>
     </row>
@@ -7785,18 +7785,18 @@
         <v>1006</v>
       </c>
       <c r="D226" s="21">
-        <f>(E226-C226)/C226*100</f>
+        <f t="shared" si="25"/>
         <v>10.337972166998012</v>
       </c>
       <c r="E226" s="17">
         <v>1110</v>
       </c>
       <c r="G226" s="18">
-        <f>F226*C226</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J226" s="14">
-        <f>C226*A226</f>
+        <f t="shared" si="23"/>
         <v>3018</v>
       </c>
     </row>
@@ -7811,18 +7811,18 @@
         <v>291</v>
       </c>
       <c r="D227" s="21">
-        <f>(E227-C227)/C227*100</f>
+        <f t="shared" si="25"/>
         <v>35.738831615120276</v>
       </c>
       <c r="E227" s="17">
         <v>395</v>
       </c>
       <c r="G227" s="18">
-        <f>F227*C227</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J227" s="14">
-        <f>C227*A227</f>
+        <f t="shared" si="23"/>
         <v>873</v>
       </c>
     </row>
@@ -7837,18 +7837,18 @@
         <v>551</v>
       </c>
       <c r="D228" s="21">
-        <f>(E228-C228)/C228*100</f>
+        <f t="shared" si="25"/>
         <v>36.116152450090745</v>
       </c>
       <c r="E228" s="17">
         <v>750</v>
       </c>
       <c r="G228" s="18">
-        <f>F228*C228</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J228" s="14">
-        <f>C228*A228</f>
+        <f t="shared" si="23"/>
         <v>2204</v>
       </c>
     </row>
@@ -7863,18 +7863,18 @@
         <v>985</v>
       </c>
       <c r="D229" s="21">
-        <f>(E229-C229)/C229*100</f>
+        <f t="shared" si="25"/>
         <v>35.532994923857871</v>
       </c>
       <c r="E229" s="17">
         <v>1335</v>
       </c>
       <c r="G229" s="18">
-        <f>F229*C229</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J229" s="14">
-        <f>C229*A229</f>
+        <f t="shared" si="23"/>
         <v>2955</v>
       </c>
     </row>
@@ -7889,18 +7889,18 @@
         <v>2231</v>
       </c>
       <c r="D230" s="21">
-        <f>(E230-C230)/C230*100</f>
+        <f t="shared" si="25"/>
         <v>35.589421783953384</v>
       </c>
       <c r="E230" s="17">
         <v>3025</v>
       </c>
       <c r="G230" s="18">
-        <f>F230*C230</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J230" s="14">
-        <f>C230*A230</f>
+        <f t="shared" si="23"/>
         <v>2231</v>
       </c>
     </row>
@@ -7912,14 +7912,14 @@
         <v>777</v>
       </c>
       <c r="D231" s="21">
-        <f>(E231-C231)/C231*100</f>
+        <f t="shared" si="25"/>
         <v>35.778635778635781</v>
       </c>
       <c r="E231" s="17">
         <v>1055</v>
       </c>
       <c r="G231" s="18">
-        <f>F231*C231</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J231" s="14"/>
@@ -7932,14 +7932,14 @@
         <v>1045</v>
       </c>
       <c r="D232" s="21">
-        <f>(E232-C232)/C232*100</f>
+        <f t="shared" si="25"/>
         <v>30.14354066985646</v>
       </c>
       <c r="E232" s="17">
         <v>1360</v>
       </c>
       <c r="G232" s="18">
-        <f>F232*C232</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J232" s="14">
@@ -7955,14 +7955,14 @@
         <v>912</v>
       </c>
       <c r="D233" s="21">
-        <f>(E233-C233)/C233*100</f>
+        <f t="shared" si="25"/>
         <v>29.934210526315791</v>
       </c>
       <c r="E233" s="17">
         <v>1185</v>
       </c>
       <c r="G233" s="18">
-        <f>F233*C233</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J233" s="14">
@@ -7981,14 +7981,14 @@
         <v>3108</v>
       </c>
       <c r="D234" s="21">
-        <f>(E234-C234)/C234*100</f>
+        <f t="shared" si="25"/>
         <v>60.875160875160873</v>
       </c>
       <c r="E234" s="17">
         <v>5000</v>
       </c>
       <c r="G234" s="18">
-        <f>F234*C234</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J234" s="14"/>
@@ -8004,18 +8004,18 @@
         <v>225</v>
       </c>
       <c r="D235" s="21">
-        <f>(E235-C235)/C235*100</f>
+        <f t="shared" si="25"/>
         <v>35.555555555555557</v>
       </c>
       <c r="E235" s="17">
         <v>305</v>
       </c>
       <c r="G235" s="18">
-        <f>F235*C235</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J235" s="14">
-        <f>C235*A235</f>
+        <f t="shared" ref="J235:J240" si="26">C235*A235</f>
         <v>675</v>
       </c>
     </row>
@@ -8030,18 +8030,18 @@
         <v>223</v>
       </c>
       <c r="D236" s="21">
-        <f>(E236-C236)/C236*100</f>
+        <f t="shared" si="25"/>
         <v>34.529147982062781</v>
       </c>
       <c r="E236" s="17">
         <v>300</v>
       </c>
       <c r="G236" s="18">
-        <f>F236*C236</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J236" s="14">
-        <f>C236*A236</f>
+        <f t="shared" si="26"/>
         <v>669</v>
       </c>
     </row>
@@ -8056,18 +8056,18 @@
         <v>223</v>
       </c>
       <c r="D237" s="21">
-        <f>(E237-C237)/C237*100</f>
+        <f t="shared" si="25"/>
         <v>34.529147982062781</v>
       </c>
       <c r="E237" s="17">
         <v>300</v>
       </c>
       <c r="G237" s="18">
-        <f>F237*C237</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J237" s="14">
-        <f>C237*A237</f>
+        <f t="shared" si="26"/>
         <v>669</v>
       </c>
     </row>
@@ -8082,18 +8082,18 @@
         <v>223</v>
       </c>
       <c r="D238" s="21">
-        <f>(E238-C238)/C238*100</f>
+        <f t="shared" si="25"/>
         <v>34.529147982062781</v>
       </c>
       <c r="E238" s="17">
         <v>300</v>
       </c>
       <c r="G238" s="18">
-        <f>F238*C238</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J238" s="14">
-        <f>C238*A238</f>
+        <f t="shared" si="26"/>
         <v>669</v>
       </c>
     </row>
@@ -8108,18 +8108,18 @@
         <v>11288</v>
       </c>
       <c r="D239" s="21">
-        <f>(E239-C239)/C239*100</f>
+        <f t="shared" si="25"/>
         <v>10.028348688873139</v>
       </c>
       <c r="E239" s="17">
         <v>12420</v>
       </c>
       <c r="G239" s="18">
-        <f>F239*C239</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J239" s="14">
-        <f>C239*A239</f>
+        <f t="shared" si="26"/>
         <v>11288</v>
       </c>
     </row>
@@ -8131,18 +8131,18 @@
         <v>298</v>
       </c>
       <c r="D240" s="21">
-        <f>(E240-C240)/C240*100</f>
+        <f t="shared" si="25"/>
         <v>35.906040268456373</v>
       </c>
       <c r="E240" s="17">
         <v>405</v>
       </c>
       <c r="G240" s="18">
-        <f>F240*C240</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J240" s="14">
-        <f>C240*A240</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8154,14 +8154,14 @@
         <v>1007</v>
       </c>
       <c r="D241" s="21">
-        <f>(E241-C241)/C241*100</f>
+        <f t="shared" si="25"/>
         <v>20.059582919563059</v>
       </c>
       <c r="E241" s="17">
         <v>1209</v>
       </c>
       <c r="G241" s="18">
-        <f>F241*C241</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J241" s="14"/>
@@ -8177,18 +8177,18 @@
         <v>1509</v>
       </c>
       <c r="D242" s="21">
-        <f>(E242-C242)/C242*100</f>
+        <f t="shared" si="25"/>
         <v>19.946984758117956</v>
       </c>
       <c r="E242" s="17">
         <v>1810</v>
       </c>
       <c r="G242" s="18">
-        <f>F242*C242</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J242" s="14">
-        <f>C242*A242</f>
+        <f t="shared" ref="J242:J267" si="27">C242*A242</f>
         <v>1509</v>
       </c>
     </row>
@@ -8203,18 +8203,18 @@
         <v>2435</v>
       </c>
       <c r="D243" s="21">
-        <f>(E243-C243)/C243*100</f>
+        <f t="shared" si="25"/>
         <v>19.71252566735113</v>
       </c>
       <c r="E243" s="17">
         <v>2915</v>
       </c>
       <c r="G243" s="18">
-        <f>F243*C243</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J243" s="14">
-        <f>C243*A243</f>
+        <f t="shared" si="27"/>
         <v>2435</v>
       </c>
     </row>
@@ -8226,18 +8226,18 @@
         <v>6598</v>
       </c>
       <c r="D244" s="21">
-        <f>(E244-C244)/C244*100</f>
+        <f t="shared" si="25"/>
         <v>19.733252500757807</v>
       </c>
       <c r="E244" s="17">
         <v>7900</v>
       </c>
       <c r="G244" s="18">
-        <f>F244*C244</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J244" s="14">
-        <f>C244*A244</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8249,18 +8249,18 @@
         <v>4286</v>
       </c>
       <c r="D245" s="21">
-        <f>(E245-C245)/C245*100</f>
+        <f t="shared" si="25"/>
         <v>36.024265048996732</v>
       </c>
       <c r="E245" s="17">
         <v>5830</v>
       </c>
       <c r="G245" s="18">
-        <f>F245*C245</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J245" s="14">
-        <f>C245*A245</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8272,18 +8272,18 @@
         <v>1528</v>
       </c>
       <c r="D246" s="21">
-        <f>(E246-C246)/C246*100</f>
+        <f t="shared" si="25"/>
         <v>20.091623036649214</v>
       </c>
       <c r="E246" s="17">
         <v>1835</v>
       </c>
       <c r="G246" s="18">
-        <f>F246*C246</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J246" s="14">
-        <f>C246*A246</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8298,18 +8298,18 @@
         <v>424</v>
       </c>
       <c r="D247" s="21">
-        <f>(E247-C247)/C247*100</f>
+        <f t="shared" si="25"/>
         <v>35.613207547169814</v>
       </c>
       <c r="E247" s="17">
         <v>575</v>
       </c>
       <c r="G247" s="18">
-        <f>F247*C247</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J247" s="14">
-        <f>C247*A247</f>
+        <f t="shared" si="27"/>
         <v>848</v>
       </c>
     </row>
@@ -8324,18 +8324,18 @@
         <v>862</v>
       </c>
       <c r="D248" s="21">
-        <f>(E248-C248)/C248*100</f>
+        <f t="shared" si="25"/>
         <v>18.329466357308586</v>
       </c>
       <c r="E248" s="17">
         <v>1020</v>
       </c>
       <c r="G248" s="18">
-        <f>F248*C248</f>
+        <f t="shared" ref="G248:G279" si="28">F248*C248</f>
         <v>0</v>
       </c>
       <c r="J248" s="14">
-        <f>C248*A248</f>
+        <f t="shared" si="27"/>
         <v>3448</v>
       </c>
     </row>
@@ -8350,18 +8350,18 @@
         <v>220</v>
       </c>
       <c r="D249" s="21">
-        <f>(E249-C249)/C249*100</f>
+        <f t="shared" si="25"/>
         <v>18.181818181818183</v>
       </c>
       <c r="E249" s="17">
         <v>260</v>
       </c>
       <c r="G249" s="18">
-        <f>F249*C249</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J249" s="14">
-        <f>C249*A249</f>
+        <f t="shared" si="27"/>
         <v>1760</v>
       </c>
     </row>
@@ -8376,18 +8376,18 @@
         <v>1934</v>
       </c>
       <c r="D250" s="21">
-        <f>(E250-C250)/C250*100</f>
+        <f t="shared" si="25"/>
         <v>17.890382626680452</v>
       </c>
       <c r="E250" s="17">
         <v>2280</v>
       </c>
       <c r="G250" s="18">
-        <f>F250*C250</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J250" s="14">
-        <f>C250*A250</f>
+        <f t="shared" si="27"/>
         <v>3868</v>
       </c>
     </row>
@@ -8402,18 +8402,18 @@
         <v>437</v>
       </c>
       <c r="D251" s="21">
-        <f>(E251-C251)/C251*100</f>
+        <f t="shared" si="25"/>
         <v>17.848970251716249</v>
       </c>
       <c r="E251" s="17">
         <v>515</v>
       </c>
       <c r="G251" s="18">
-        <f>F251*C251</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J251" s="14">
-        <f>C251*A251</f>
+        <f t="shared" si="27"/>
         <v>1748</v>
       </c>
     </row>
@@ -8428,18 +8428,18 @@
         <v>668</v>
       </c>
       <c r="D252" s="21">
-        <f>(E252-C252)/C252*100</f>
+        <f t="shared" ref="D252:D283" si="29">(E252-C252)/C252*100</f>
         <v>34.730538922155688</v>
       </c>
       <c r="E252" s="17">
         <v>900</v>
       </c>
       <c r="G252" s="18">
-        <f>F252*C252</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J252" s="14">
-        <f>C252*A252</f>
+        <f t="shared" si="27"/>
         <v>2672</v>
       </c>
     </row>
@@ -8454,18 +8454,18 @@
         <v>2208</v>
       </c>
       <c r="D253" s="21">
-        <f>(E253-C253)/C253*100</f>
+        <f t="shared" si="29"/>
         <v>35.869565217391305</v>
       </c>
       <c r="E253" s="17">
         <v>3000</v>
       </c>
       <c r="G253" s="18">
-        <f>F253*C253</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J253" s="14">
-        <f>C253*A253</f>
+        <f t="shared" si="27"/>
         <v>2208</v>
       </c>
     </row>
@@ -8480,18 +8480,18 @@
         <v>1271</v>
       </c>
       <c r="D254" s="21">
-        <f>(E254-C254)/C254*100</f>
+        <f t="shared" si="29"/>
         <v>35.719905586152635</v>
       </c>
       <c r="E254" s="17">
         <v>1725</v>
       </c>
       <c r="G254" s="18">
-        <f>F254*C254</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J254" s="14">
-        <f>C254*A254</f>
+        <f t="shared" si="27"/>
         <v>2542</v>
       </c>
     </row>
@@ -8506,18 +8506,18 @@
         <v>302</v>
       </c>
       <c r="D255" s="21">
-        <f>(E255-C255)/C255*100</f>
+        <f t="shared" si="29"/>
         <v>35.76158940397351</v>
       </c>
       <c r="E255" s="17">
         <v>410</v>
       </c>
       <c r="G255" s="18">
-        <f>F255*C255</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J255" s="14">
-        <f>C255*A255</f>
+        <f t="shared" si="27"/>
         <v>1208</v>
       </c>
     </row>
@@ -8532,18 +8532,18 @@
         <v>700</v>
       </c>
       <c r="D256" s="21">
-        <f>(E256-C256)/C256*100</f>
+        <f t="shared" si="29"/>
         <v>35.714285714285715</v>
       </c>
       <c r="E256" s="17">
         <v>950</v>
       </c>
       <c r="G256" s="18">
-        <f>F256*C256</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J256" s="14">
-        <f>C256*A256</f>
+        <f t="shared" si="27"/>
         <v>1400</v>
       </c>
     </row>
@@ -8558,18 +8558,18 @@
         <v>1033</v>
       </c>
       <c r="D257" s="21">
-        <f>(E257-C257)/C257*100</f>
+        <f t="shared" si="29"/>
         <v>35.527589545014521</v>
       </c>
       <c r="E257" s="17">
         <v>1400</v>
       </c>
       <c r="G257" s="18">
-        <f>F257*C257</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J257" s="14">
-        <f>C257*A257</f>
+        <f t="shared" si="27"/>
         <v>2066</v>
       </c>
     </row>
@@ -8584,18 +8584,18 @@
         <v>1033</v>
       </c>
       <c r="D258" s="21">
-        <f>(E258-C258)/C258*100</f>
+        <f t="shared" si="29"/>
         <v>35.527589545014521</v>
       </c>
       <c r="E258" s="17">
         <v>1400</v>
       </c>
       <c r="G258" s="18">
-        <f>F258*C258</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J258" s="14">
-        <f>C258*A258</f>
+        <f t="shared" si="27"/>
         <v>2066</v>
       </c>
     </row>
@@ -8610,18 +8610,18 @@
         <v>1202</v>
       </c>
       <c r="D259" s="21">
-        <f>(E259-C259)/C259*100</f>
+        <f t="shared" si="29"/>
         <v>35.607321131447591</v>
       </c>
       <c r="E259" s="17">
         <v>1630</v>
       </c>
       <c r="G259" s="18">
-        <f>F259*C259</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J259" s="14">
-        <f>C259*A259</f>
+        <f t="shared" si="27"/>
         <v>2404</v>
       </c>
     </row>
@@ -8636,18 +8636,18 @@
         <v>10702</v>
       </c>
       <c r="D260" s="21">
-        <f>(E260-C260)/C260*100</f>
+        <f t="shared" si="29"/>
         <v>35.535413941319376</v>
       </c>
       <c r="E260" s="17">
         <v>14505</v>
       </c>
       <c r="G260" s="18">
-        <f>F260*C260</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J260" s="14">
-        <f>C260*A260</f>
+        <f t="shared" si="27"/>
         <v>10702</v>
       </c>
     </row>
@@ -8662,18 +8662,18 @@
         <v>529</v>
       </c>
       <c r="D261" s="21">
-        <f>(E261-C261)/C261*100</f>
+        <f t="shared" si="29"/>
         <v>36.105860113421549</v>
       </c>
       <c r="E261" s="17">
         <v>720</v>
       </c>
       <c r="G261" s="18">
-        <f>F261*C261</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J261" s="14">
-        <f>C261*A261</f>
+        <f t="shared" si="27"/>
         <v>2645</v>
       </c>
     </row>
@@ -8688,18 +8688,18 @@
         <v>371</v>
       </c>
       <c r="D262" s="21">
-        <f>(E262-C262)/C262*100</f>
+        <f t="shared" si="29"/>
         <v>34.770889487870619</v>
       </c>
       <c r="E262" s="17">
         <v>500</v>
       </c>
       <c r="G262" s="18">
-        <f>F262*C262</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J262" s="14">
-        <f>C262*A262</f>
+        <f t="shared" si="27"/>
         <v>2226</v>
       </c>
     </row>
@@ -8711,18 +8711,18 @@
         <v>3107</v>
       </c>
       <c r="D263" s="21">
-        <f>(E263-C263)/C263*100</f>
+        <f t="shared" si="29"/>
         <v>35.661409719987127</v>
       </c>
       <c r="E263" s="17">
         <v>4215</v>
       </c>
       <c r="G263" s="18">
-        <f>F263*C263</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J263" s="14">
-        <f>C263*A263</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8734,18 +8734,18 @@
         <v>1089</v>
       </c>
       <c r="D264" s="21">
-        <f>(E264-C264)/C264*100</f>
+        <f t="shared" si="29"/>
         <v>19.375573921028465</v>
       </c>
       <c r="E264" s="17">
         <v>1300</v>
       </c>
       <c r="G264" s="18">
-        <f>F264*C264</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J264" s="14">
-        <f>C264*A264</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -8760,18 +8760,18 @@
         <v>336</v>
       </c>
       <c r="D265" s="21">
-        <f>(E265-C265)/C265*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E265" s="17">
         <v>400</v>
       </c>
       <c r="G265" s="18">
-        <f>F265*C265</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J265" s="14">
-        <f>C265*A265</f>
+        <f t="shared" si="27"/>
         <v>4032</v>
       </c>
     </row>
@@ -8786,18 +8786,18 @@
         <v>671</v>
       </c>
       <c r="D266" s="21">
-        <f>(E266-C266)/C266*100</f>
+        <f t="shared" si="29"/>
         <v>19.225037257824145</v>
       </c>
       <c r="E266" s="17">
         <v>800</v>
       </c>
       <c r="G266" s="18">
-        <f>F266*C266</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J266" s="14">
-        <f>C266*A266</f>
+        <f t="shared" si="27"/>
         <v>8052</v>
       </c>
     </row>
@@ -8812,18 +8812,18 @@
         <v>826</v>
       </c>
       <c r="D267" s="21">
-        <f>(E267-C267)/C267*100</f>
+        <f t="shared" si="29"/>
         <v>19.854721549636803</v>
       </c>
       <c r="E267" s="17">
         <v>990</v>
       </c>
       <c r="G267" s="18">
-        <f>F267*C267</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J267" s="14">
-        <f>C267*A267</f>
+        <f t="shared" si="27"/>
         <v>24780</v>
       </c>
     </row>
@@ -8835,14 +8835,14 @@
         <v>1102</v>
       </c>
       <c r="D268" s="21">
-        <f>(E268-C268)/C268*100</f>
+        <f t="shared" si="29"/>
         <v>17.967332123411978</v>
       </c>
       <c r="E268" s="17">
         <v>1300</v>
       </c>
       <c r="G268" s="18">
-        <f>F268*C268</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J268" s="14"/>
@@ -8858,14 +8858,14 @@
         <v>336</v>
       </c>
       <c r="D269" s="21">
-        <f>(E269-C269)/C269*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E269" s="17">
         <v>400</v>
       </c>
       <c r="G269" s="18">
-        <f>F269*C269</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J269" s="14">
@@ -8884,14 +8884,14 @@
         <v>1466</v>
       </c>
       <c r="D270" s="21">
-        <f>(E270-C270)/C270*100</f>
+        <f t="shared" si="29"/>
         <v>20.054570259208731</v>
       </c>
       <c r="E270" s="17">
         <v>1760</v>
       </c>
       <c r="G270" s="18">
-        <f>F270*C270</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J270" s="14">
@@ -8910,14 +8910,14 @@
         <v>671</v>
       </c>
       <c r="D271" s="21">
-        <f>(E271-C271)/C271*100</f>
+        <f t="shared" si="29"/>
         <v>19.225037257824145</v>
       </c>
       <c r="E271" s="17">
         <v>800</v>
       </c>
       <c r="G271" s="18">
-        <f>F271*C271</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J271" s="14">
@@ -8933,14 +8933,14 @@
         <v>1092</v>
       </c>
       <c r="D272" s="21">
-        <f>(E272-C272)/C272*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E272" s="17">
         <v>1300</v>
       </c>
       <c r="G272" s="18">
-        <f>F272*C272</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J272" s="14"/>
@@ -8956,14 +8956,14 @@
         <v>336</v>
       </c>
       <c r="D273" s="21">
-        <f>(E273-C273)/C273*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E273" s="17">
         <v>400</v>
       </c>
       <c r="G273" s="18">
-        <f>F273*C273</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J273" s="14">
@@ -8979,14 +8979,14 @@
         <v>1466</v>
       </c>
       <c r="D274" s="21">
-        <f>(E274-C274)/C274*100</f>
+        <f t="shared" si="29"/>
         <v>20.054570259208731</v>
       </c>
       <c r="E274" s="17">
         <v>1760</v>
       </c>
       <c r="G274" s="18">
-        <f>F274*C274</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J274" s="14"/>
@@ -9002,14 +9002,14 @@
         <v>671</v>
       </c>
       <c r="D275" s="21">
-        <f>(E275-C275)/C275*100</f>
+        <f t="shared" si="29"/>
         <v>19.225037257824145</v>
       </c>
       <c r="E275" s="17">
         <v>800</v>
       </c>
       <c r="G275" s="18">
-        <f>F275*C275</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J275" s="14">
@@ -9025,7 +9025,7 @@
         <v>1092</v>
       </c>
       <c r="D276" s="21">
-        <f>(E276-C276)/C276*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E276" s="17">
@@ -9042,7 +9042,7 @@
         <v>1423</v>
       </c>
       <c r="D277" s="21">
-        <f>(E277-C277)/C277*100</f>
+        <f t="shared" si="29"/>
         <v>19.465917076598735</v>
       </c>
       <c r="E277" s="17">
@@ -9065,7 +9065,7 @@
         <v>336</v>
       </c>
       <c r="D278" s="21">
-        <f>(E278-C278)/C278*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E278" s="17">
@@ -9091,7 +9091,7 @@
         <v>671</v>
       </c>
       <c r="D279" s="21">
-        <f>(E279-C279)/C279*100</f>
+        <f t="shared" si="29"/>
         <v>19.225037257824145</v>
       </c>
       <c r="E279" s="17">
@@ -9114,7 +9114,7 @@
         <v>1092</v>
       </c>
       <c r="D280" s="21">
-        <f>(E280-C280)/C280*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E280" s="17">
@@ -9131,7 +9131,7 @@
         <v>336</v>
       </c>
       <c r="D281" s="21">
-        <f>(E281-C281)/C281*100</f>
+        <f t="shared" si="29"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E281" s="17">
@@ -9168,7 +9168,7 @@
         <v>671</v>
       </c>
       <c r="D283" s="21">
-        <f>(E283-C283)/C283*100</f>
+        <f t="shared" ref="D283:D306" si="30">(E283-C283)/C283*100</f>
         <v>19.225037257824145</v>
       </c>
       <c r="E283" s="17">
@@ -9191,7 +9191,7 @@
         <v>1092</v>
       </c>
       <c r="D284" s="21">
-        <f>(E284-C284)/C284*100</f>
+        <f t="shared" si="30"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E284" s="17">
@@ -9208,14 +9208,14 @@
         <v>336</v>
       </c>
       <c r="D285" s="21">
-        <f>(E285-C285)/C285*100</f>
+        <f t="shared" si="30"/>
         <v>19.047619047619047</v>
       </c>
       <c r="E285" s="17">
         <v>400</v>
       </c>
       <c r="G285" s="18">
-        <f>F285*C285</f>
+        <f t="shared" ref="G285:G316" si="31">F285*C285</f>
         <v>0</v>
       </c>
       <c r="J285" s="14"/>
@@ -9231,18 +9231,18 @@
         <v>1466</v>
       </c>
       <c r="D286" s="21">
-        <f>(E286-C286)/C286*100</f>
+        <f t="shared" si="30"/>
         <v>20.054570259208731</v>
       </c>
       <c r="E286" s="17">
         <v>1760</v>
       </c>
       <c r="G286" s="18">
-        <f>F286*C286</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J286" s="14">
-        <f>C286*A286</f>
+        <f t="shared" ref="J286:J317" si="32">C286*A286</f>
         <v>5864</v>
       </c>
     </row>
@@ -9257,18 +9257,18 @@
         <v>671</v>
       </c>
       <c r="D287" s="21">
-        <f>(E287-C287)/C287*100</f>
+        <f t="shared" si="30"/>
         <v>19.225037257824145</v>
       </c>
       <c r="E287" s="17">
         <v>800</v>
       </c>
       <c r="G287" s="18">
-        <f>F287*C287</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J287" s="14">
-        <f>C287*A287</f>
+        <f t="shared" si="32"/>
         <v>4026</v>
       </c>
     </row>
@@ -9283,18 +9283,18 @@
         <v>292</v>
       </c>
       <c r="D288" s="21">
-        <f>(E288-C288)/C288*100</f>
+        <f t="shared" si="30"/>
         <v>19.863013698630137</v>
       </c>
       <c r="E288" s="17">
         <v>350</v>
       </c>
       <c r="G288" s="18">
-        <f>F288*C288</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J288" s="14">
-        <f>C288*A288</f>
+        <f t="shared" si="32"/>
         <v>1752</v>
       </c>
     </row>
@@ -9309,18 +9309,18 @@
         <v>292</v>
       </c>
       <c r="D289" s="21">
-        <f>(E289-C289)/C289*100</f>
+        <f t="shared" si="30"/>
         <v>19.863013698630137</v>
       </c>
       <c r="E289" s="17">
         <v>350</v>
       </c>
       <c r="G289" s="18">
-        <f>F289*C289</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J289" s="14">
-        <f>C289*A289</f>
+        <f t="shared" si="32"/>
         <v>1752</v>
       </c>
     </row>
@@ -9335,18 +9335,18 @@
         <v>292</v>
       </c>
       <c r="D290" s="21">
-        <f>(E290-C290)/C290*100</f>
+        <f t="shared" si="30"/>
         <v>19.863013698630137</v>
       </c>
       <c r="E290" s="17">
         <v>350</v>
       </c>
       <c r="G290" s="18">
-        <f>F290*C290</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J290" s="14">
-        <f>C290*A290</f>
+        <f t="shared" si="32"/>
         <v>1752</v>
       </c>
     </row>
@@ -9361,18 +9361,18 @@
         <v>934</v>
       </c>
       <c r="D291" s="21">
-        <f>(E291-C291)/C291*100</f>
+        <f t="shared" si="30"/>
         <v>19.914346895074946</v>
       </c>
       <c r="E291" s="17">
         <v>1120</v>
       </c>
       <c r="G291" s="18">
-        <f>F291*C291</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J291" s="14">
-        <f>C291*A291</f>
+        <f t="shared" si="32"/>
         <v>2802</v>
       </c>
     </row>
@@ -9387,18 +9387,18 @@
         <v>934</v>
       </c>
       <c r="D292" s="21">
-        <f>(E292-C292)/C292*100</f>
+        <f t="shared" si="30"/>
         <v>19.914346895074946</v>
       </c>
       <c r="E292" s="17">
         <v>1120</v>
       </c>
       <c r="G292" s="18">
-        <f>F292*C292</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J292" s="14">
-        <f>C292*A292</f>
+        <f t="shared" si="32"/>
         <v>2802</v>
       </c>
     </row>
@@ -9413,18 +9413,18 @@
         <v>934</v>
       </c>
       <c r="D293" s="21">
-        <f>(E293-C293)/C293*100</f>
+        <f t="shared" si="30"/>
         <v>19.914346895074946</v>
       </c>
       <c r="E293" s="17">
         <v>1120</v>
       </c>
       <c r="G293" s="18">
-        <f>F293*C293</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J293" s="14">
-        <f>C293*A293</f>
+        <f t="shared" si="32"/>
         <v>2802</v>
       </c>
     </row>
@@ -9436,18 +9436,18 @@
         <v>963</v>
       </c>
       <c r="D294" s="21">
-        <f>(E294-C294)/C294*100</f>
+        <f t="shared" si="30"/>
         <v>14.226375908618898</v>
       </c>
       <c r="E294" s="17">
         <v>1100</v>
       </c>
       <c r="G294" s="18">
-        <f>F294*C294</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J294" s="14">
-        <f>C294*A294</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
         <v>307</v>
       </c>
       <c r="D295" s="21">
-        <f>(E295-C295)/C295*100</f>
+        <f t="shared" si="30"/>
         <v>20.521172638436482</v>
       </c>
       <c r="E295" s="17">
@@ -9468,13 +9468,13 @@
       </c>
       <c r="F295" s="16"/>
       <c r="G295" s="18">
-        <f>F295*C295</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
       <c r="J295" s="14">
-        <f>C295*A295</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K295" s="13"/>
@@ -9491,7 +9491,7 @@
         <v>1445</v>
       </c>
       <c r="D296" s="21">
-        <f>(E296-C296)/C296*100</f>
+        <f t="shared" si="30"/>
         <v>20.069204152249135</v>
       </c>
       <c r="E296" s="17">
@@ -9499,13 +9499,13 @@
       </c>
       <c r="F296" s="16"/>
       <c r="G296" s="18">
-        <f>F296*C296</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
       <c r="J296" s="14">
-        <f>C296*A296</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K296" s="13"/>
@@ -9521,18 +9521,18 @@
         <v>590</v>
       </c>
       <c r="D297" s="21">
-        <f>(E297-C297)/C297*100</f>
+        <f t="shared" si="30"/>
         <v>20.33898305084746</v>
       </c>
       <c r="E297" s="17">
         <v>710</v>
       </c>
       <c r="G297" s="18">
-        <f>F297*C297</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J297" s="14">
-        <f>C297*A297</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
         <v>189</v>
       </c>
       <c r="D298" s="28">
-        <f>(E298-C298)/C298*100</f>
+        <f t="shared" si="30"/>
         <v>34.920634920634917</v>
       </c>
       <c r="E298" s="27">
@@ -9553,13 +9553,13 @@
       </c>
       <c r="F298" s="29"/>
       <c r="G298" s="30">
-        <f>F298*C298</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H298" s="31"/>
       <c r="I298" s="31"/>
       <c r="J298" s="32">
-        <f>C298*A298</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K298" s="31"/>
@@ -9575,7 +9575,7 @@
         <v>1580</v>
       </c>
       <c r="D299" s="28">
-        <f>(E299-C299)/C299*100</f>
+        <f t="shared" si="30"/>
         <v>35.75949367088608</v>
       </c>
       <c r="E299" s="27">
@@ -9583,13 +9583,13 @@
       </c>
       <c r="F299" s="29"/>
       <c r="G299" s="30">
-        <f>F299*C299</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H299" s="31"/>
       <c r="I299" s="31"/>
       <c r="J299" s="32">
-        <f>C299*A299</f>
+        <f t="shared" si="32"/>
         <v>1580</v>
       </c>
       <c r="K299" s="31"/>
@@ -9605,18 +9605,18 @@
         <v>1394</v>
       </c>
       <c r="D300" s="21">
-        <f>(E300-C300)/C300*100</f>
+        <f t="shared" si="30"/>
         <v>20.157819225251075</v>
       </c>
       <c r="E300" s="17">
         <v>1675</v>
       </c>
       <c r="G300" s="18">
-        <f>F300*C300</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J300" s="14">
-        <f>C300*A300</f>
+        <f t="shared" si="32"/>
         <v>1394</v>
       </c>
     </row>
@@ -9631,18 +9631,18 @@
         <v>207</v>
       </c>
       <c r="D301" s="21">
-        <f>(E301-C301)/C301*100</f>
+        <f t="shared" si="30"/>
         <v>11.111111111111111</v>
       </c>
       <c r="E301" s="17">
         <v>230</v>
       </c>
       <c r="G301" s="18">
-        <f>F301*C301</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J301" s="14">
-        <f>C301*A301</f>
+        <f t="shared" si="32"/>
         <v>1242</v>
       </c>
     </row>
@@ -9657,18 +9657,18 @@
         <v>167</v>
       </c>
       <c r="D302" s="21">
-        <f>(E302-C302)/C302*100</f>
+        <f t="shared" si="30"/>
         <v>13.77245508982036</v>
       </c>
       <c r="E302" s="17">
         <v>190</v>
       </c>
       <c r="G302" s="18">
-        <f>F302*C302</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J302" s="14">
-        <f>C302*A302</f>
+        <f t="shared" si="32"/>
         <v>1670</v>
       </c>
     </row>
@@ -9683,18 +9683,18 @@
         <v>494</v>
       </c>
       <c r="D303" s="21">
-        <f>(E303-C303)/C303*100</f>
+        <f t="shared" si="30"/>
         <v>35.627530364372468</v>
       </c>
       <c r="E303" s="17">
         <v>670</v>
       </c>
       <c r="G303" s="18">
-        <f>F303*C303</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J303" s="14">
-        <f>C303*A303</f>
+        <f t="shared" si="32"/>
         <v>1482</v>
       </c>
     </row>
@@ -9709,18 +9709,18 @@
         <v>859</v>
       </c>
       <c r="D304" s="21">
-        <f>(E304-C304)/C304*100</f>
+        <f t="shared" si="30"/>
         <v>35.622817229336441</v>
       </c>
       <c r="E304" s="17">
         <v>1165</v>
       </c>
       <c r="G304" s="18">
-        <f>F304*C304</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J304" s="14">
-        <f>C304*A304</f>
+        <f t="shared" si="32"/>
         <v>3436</v>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
         <v>466</v>
       </c>
       <c r="D305" s="21">
-        <f>(E305-C305)/C305*100</f>
+        <f t="shared" si="30"/>
         <v>35.193133047210303</v>
       </c>
       <c r="E305" s="17">
@@ -9743,13 +9743,13 @@
       </c>
       <c r="F305" s="16"/>
       <c r="G305" s="18">
-        <f>F305*C305</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
       <c r="J305" s="14">
-        <f>C305*A305</f>
+        <f t="shared" si="32"/>
         <v>1398</v>
       </c>
       <c r="K305" s="13"/>
@@ -9768,18 +9768,18 @@
         <v>291</v>
       </c>
       <c r="D306" s="21">
-        <f>(E306-C306)/C306*100</f>
+        <f t="shared" si="30"/>
         <v>35.738831615120276</v>
       </c>
       <c r="E306" s="17">
         <v>395</v>
       </c>
       <c r="G306" s="18">
-        <f>F306*C306</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J306" s="14">
-        <f>C306*A306</f>
+        <f t="shared" si="32"/>
         <v>1164</v>
       </c>
     </row>
@@ -9801,13 +9801,13 @@
       </c>
       <c r="F307" s="29"/>
       <c r="G307" s="30">
-        <f>F307*C307</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H307" s="31"/>
       <c r="I307" s="31"/>
       <c r="J307" s="32">
-        <f>C307*A307</f>
+        <f t="shared" si="32"/>
         <v>1216</v>
       </c>
       <c r="K307" s="31"/>
@@ -9823,18 +9823,18 @@
         <v>306</v>
       </c>
       <c r="D308" s="21">
-        <f>(E308-C308)/C308*100</f>
+        <f t="shared" ref="D308:D339" si="33">(E308-C308)/C308*100</f>
         <v>35.62091503267974</v>
       </c>
       <c r="E308" s="17">
         <v>415</v>
       </c>
       <c r="G308" s="18">
-        <f>F308*C308</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J308" s="14">
-        <f>C308*A308</f>
+        <f t="shared" si="32"/>
         <v>1224</v>
       </c>
     </row>
@@ -9849,18 +9849,18 @@
         <v>330</v>
       </c>
       <c r="D309" s="21">
-        <f>(E309-C309)/C309*100</f>
+        <f t="shared" si="33"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E309" s="17">
         <v>450</v>
       </c>
       <c r="G309" s="18">
-        <f>F309*C309</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J309" s="14">
-        <f>C309*A309</f>
+        <f t="shared" si="32"/>
         <v>1320</v>
       </c>
     </row>
@@ -9875,18 +9875,18 @@
         <v>308</v>
       </c>
       <c r="D310" s="21">
-        <f>(E310-C310)/C310*100</f>
+        <f t="shared" si="33"/>
         <v>36.363636363636367</v>
       </c>
       <c r="E310" s="17">
         <v>420</v>
       </c>
       <c r="G310" s="18">
-        <f>F310*C310</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J310" s="14">
-        <f>C310*A310</f>
+        <f t="shared" si="32"/>
         <v>924</v>
       </c>
     </row>
@@ -9901,18 +9901,18 @@
         <v>568</v>
       </c>
       <c r="D311" s="21">
-        <f>(E311-C311)/C311*100</f>
+        <f t="shared" si="33"/>
         <v>35.563380281690144</v>
       </c>
       <c r="E311" s="17">
         <v>770</v>
       </c>
       <c r="G311" s="18">
-        <f>F311*C311</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J311" s="14">
-        <f>C311*A311</f>
+        <f t="shared" si="32"/>
         <v>2272</v>
       </c>
     </row>
@@ -9927,18 +9927,18 @@
         <v>926</v>
       </c>
       <c r="D312" s="21">
-        <f>(E312-C312)/C312*100</f>
+        <f t="shared" si="33"/>
         <v>35.529157667386606</v>
       </c>
       <c r="E312" s="17">
         <v>1255</v>
       </c>
       <c r="G312" s="18">
-        <f>F312*C312</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J312" s="14">
-        <f>C312*A312</f>
+        <f t="shared" si="32"/>
         <v>2778</v>
       </c>
     </row>
@@ -9953,18 +9953,18 @@
         <v>1406</v>
       </c>
       <c r="D313" s="21">
-        <f>(E313-C313)/C313*100</f>
+        <f t="shared" si="33"/>
         <v>35.135135135135137</v>
       </c>
       <c r="E313" s="17">
         <v>1900</v>
       </c>
       <c r="G313" s="18">
-        <f>F313*C313</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J313" s="14">
-        <f>C313*A313</f>
+        <f t="shared" si="32"/>
         <v>1406</v>
       </c>
     </row>
@@ -9979,18 +9979,18 @@
         <v>450</v>
       </c>
       <c r="D314" s="21">
-        <f>(E314-C314)/C314*100</f>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="E314" s="17">
         <v>585</v>
       </c>
       <c r="G314" s="18">
-        <f>F314*C314</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J314" s="14">
-        <f>C314*A314</f>
+        <f t="shared" si="32"/>
         <v>1800</v>
       </c>
     </row>
@@ -10005,18 +10005,18 @@
         <v>431</v>
       </c>
       <c r="D315" s="21">
-        <f>(E315-C315)/C315*100</f>
+        <f t="shared" si="33"/>
         <v>26.450116009280745</v>
       </c>
       <c r="E315" s="17">
         <v>545</v>
       </c>
       <c r="G315" s="18">
-        <f>F315*C315</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J315" s="14">
-        <f>C315*A315</f>
+        <f t="shared" si="32"/>
         <v>2155</v>
       </c>
     </row>
@@ -10031,18 +10031,18 @@
         <v>431</v>
       </c>
       <c r="D316" s="21">
-        <f>(E316-C316)/C316*100</f>
+        <f t="shared" si="33"/>
         <v>26.450116009280745</v>
       </c>
       <c r="E316" s="17">
         <v>545</v>
       </c>
       <c r="G316" s="18">
-        <f>F316*C316</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J316" s="14">
-        <f>C316*A316</f>
+        <f t="shared" si="32"/>
         <v>2155</v>
       </c>
     </row>
@@ -10057,18 +10057,18 @@
         <v>270</v>
       </c>
       <c r="D317" s="21">
-        <f>(E317-C317)/C317*100</f>
+        <f t="shared" si="33"/>
         <v>35.185185185185183</v>
       </c>
       <c r="E317" s="17">
         <v>365</v>
       </c>
       <c r="G317" s="18">
-        <f>F317*C317</f>
+        <f t="shared" ref="G317:G348" si="34">F317*C317</f>
         <v>0</v>
       </c>
       <c r="J317" s="14">
-        <f>C317*A317</f>
+        <f t="shared" si="32"/>
         <v>1080</v>
       </c>
     </row>
@@ -10083,18 +10083,18 @@
         <v>448</v>
       </c>
       <c r="D318" s="21">
-        <f>(E318-C318)/C318*100</f>
+        <f t="shared" si="33"/>
         <v>36.160714285714285</v>
       </c>
       <c r="E318" s="17">
         <v>610</v>
       </c>
       <c r="G318" s="18">
-        <f>F318*C318</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J318" s="14">
-        <f>C318*A318</f>
+        <f t="shared" ref="J318:J349" si="35">C318*A318</f>
         <v>896</v>
       </c>
     </row>
@@ -10109,18 +10109,18 @@
         <v>1436</v>
       </c>
       <c r="D319" s="21">
-        <f>(E319-C319)/C319*100</f>
+        <f t="shared" si="33"/>
         <v>35.793871866295262</v>
       </c>
       <c r="E319" s="17">
         <v>1950</v>
       </c>
       <c r="G319" s="18">
-        <f>F319*C319</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J319" s="14">
-        <f>C319*A319</f>
+        <f t="shared" si="35"/>
         <v>2872</v>
       </c>
     </row>
@@ -10135,18 +10135,18 @@
         <v>3618</v>
       </c>
       <c r="D320" s="21">
-        <f>(E320-C320)/C320*100</f>
+        <f t="shared" si="33"/>
         <v>35.43394140409066</v>
       </c>
       <c r="E320" s="17">
         <v>4900</v>
       </c>
       <c r="G320" s="18">
-        <f>F320*C320</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J320" s="14">
-        <f>C320*A320</f>
+        <f t="shared" si="35"/>
         <v>3618</v>
       </c>
       <c r="O320">
@@ -10164,18 +10164,18 @@
         <v>1351</v>
       </c>
       <c r="D321" s="21">
-        <f>(E321-C321)/C321*100</f>
+        <f t="shared" si="33"/>
         <v>35.455218356772761</v>
       </c>
       <c r="E321" s="17">
         <v>1830</v>
       </c>
       <c r="G321" s="18">
-        <f>F321*C321</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J321" s="14">
-        <f>C321*A321</f>
+        <f t="shared" si="35"/>
         <v>1351</v>
       </c>
     </row>
@@ -10190,18 +10190,18 @@
         <v>896</v>
       </c>
       <c r="D322" s="21">
-        <f>(E322-C322)/C322*100</f>
+        <f t="shared" si="33"/>
         <v>35.602678571428569</v>
       </c>
       <c r="E322" s="17">
         <v>1215</v>
       </c>
       <c r="G322" s="18">
-        <f>F322*C322</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J322" s="14">
-        <f>C322*A322</f>
+        <f t="shared" si="35"/>
         <v>1792</v>
       </c>
     </row>
@@ -10216,18 +10216,18 @@
         <v>607</v>
       </c>
       <c r="D323" s="21">
-        <f>(E323-C323)/C323*100</f>
+        <f t="shared" si="33"/>
         <v>20.263591433278417</v>
       </c>
       <c r="E323" s="17">
         <v>730</v>
       </c>
       <c r="G323" s="18">
-        <f>F323*C323</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J323" s="14">
-        <f>C323*A323</f>
+        <f t="shared" si="35"/>
         <v>3642</v>
       </c>
     </row>
@@ -10242,18 +10242,18 @@
         <v>2694</v>
       </c>
       <c r="D324" s="21">
-        <f>(E324-C324)/C324*100</f>
+        <f t="shared" si="33"/>
         <v>20.081662954714179</v>
       </c>
       <c r="E324" s="17">
         <v>3235</v>
       </c>
       <c r="G324" s="18">
-        <f>F324*C324</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J324" s="14">
-        <f>C324*A324</f>
+        <f t="shared" si="35"/>
         <v>5388</v>
       </c>
     </row>
@@ -10268,18 +10268,18 @@
         <v>233</v>
       </c>
       <c r="D325" s="21">
-        <f>(E325-C325)/C325*100</f>
+        <f t="shared" si="33"/>
         <v>41.630901287553648</v>
       </c>
       <c r="E325" s="17">
         <v>330</v>
       </c>
       <c r="G325" s="18">
-        <f>F325*C325</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J325" s="14">
-        <f>C325*A325</f>
+        <f t="shared" si="35"/>
         <v>932</v>
       </c>
     </row>
@@ -10294,18 +10294,18 @@
         <v>233</v>
       </c>
       <c r="D326" s="21">
-        <f>(E326-C326)/C326*100</f>
+        <f t="shared" si="33"/>
         <v>41.630901287553648</v>
       </c>
       <c r="E326" s="17">
         <v>330</v>
       </c>
       <c r="G326" s="18">
-        <f>F326*C326</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J326" s="14">
-        <f>C326*A326</f>
+        <f t="shared" si="35"/>
         <v>932</v>
       </c>
     </row>
@@ -10320,18 +10320,18 @@
         <v>233</v>
       </c>
       <c r="D327" s="21">
-        <f>(E327-C327)/C327*100</f>
+        <f t="shared" si="33"/>
         <v>41.630901287553648</v>
       </c>
       <c r="E327" s="17">
         <v>330</v>
       </c>
       <c r="G327" s="18">
-        <f>F327*C327</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J327" s="14">
-        <f>C327*A327</f>
+        <f t="shared" si="35"/>
         <v>932</v>
       </c>
     </row>
@@ -10346,18 +10346,18 @@
         <v>233</v>
       </c>
       <c r="D328" s="21">
-        <f>(E328-C328)/C328*100</f>
+        <f t="shared" si="33"/>
         <v>41.630901287553648</v>
       </c>
       <c r="E328" s="17">
         <v>330</v>
       </c>
       <c r="G328" s="18">
-        <f>F328*C328</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J328" s="14">
-        <f>C328*A328</f>
+        <f t="shared" si="35"/>
         <v>932</v>
       </c>
     </row>
@@ -10372,18 +10372,18 @@
         <v>287</v>
       </c>
       <c r="D329" s="21">
-        <f>(E329-C329)/C329*100</f>
+        <f t="shared" si="33"/>
         <v>35.88850174216028</v>
       </c>
       <c r="E329" s="17">
         <v>390</v>
       </c>
       <c r="G329" s="18">
-        <f>F329*C329</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J329" s="14">
-        <f>C329*A329</f>
+        <f t="shared" si="35"/>
         <v>861</v>
       </c>
     </row>
@@ -10398,18 +10398,18 @@
         <v>287</v>
       </c>
       <c r="D330" s="21">
-        <f>(E330-C330)/C330*100</f>
+        <f t="shared" si="33"/>
         <v>35.88850174216028</v>
       </c>
       <c r="E330" s="17">
         <v>390</v>
       </c>
       <c r="G330" s="18">
-        <f>F330*C330</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J330" s="14">
-        <f>C330*A330</f>
+        <f t="shared" si="35"/>
         <v>861</v>
       </c>
     </row>
@@ -10424,18 +10424,18 @@
         <v>287</v>
       </c>
       <c r="D331" s="21">
-        <f>(E331-C331)/C331*100</f>
+        <f t="shared" si="33"/>
         <v>35.88850174216028</v>
       </c>
       <c r="E331" s="17">
         <v>390</v>
       </c>
       <c r="G331" s="18">
-        <f>F331*C331</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J331" s="14">
-        <f>C331*A331</f>
+        <f t="shared" si="35"/>
         <v>861</v>
       </c>
     </row>
@@ -10450,18 +10450,18 @@
         <v>287</v>
       </c>
       <c r="D332" s="21">
-        <f>(E332-C332)/C332*100</f>
+        <f t="shared" si="33"/>
         <v>35.88850174216028</v>
       </c>
       <c r="E332" s="17">
         <v>390</v>
       </c>
       <c r="G332" s="18">
-        <f>F332*C332</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J332" s="14">
-        <f>C332*A332</f>
+        <f t="shared" si="35"/>
         <v>861</v>
       </c>
     </row>
@@ -10476,18 +10476,18 @@
         <v>287</v>
       </c>
       <c r="D333" s="21">
-        <f>(E333-C333)/C333*100</f>
+        <f t="shared" si="33"/>
         <v>35.88850174216028</v>
       </c>
       <c r="E333" s="17">
         <v>390</v>
       </c>
       <c r="G333" s="18">
-        <f>F333*C333</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J333" s="14">
-        <f>C333*A333</f>
+        <f t="shared" si="35"/>
         <v>861</v>
       </c>
     </row>
@@ -10502,18 +10502,18 @@
         <v>151</v>
       </c>
       <c r="D334" s="21">
-        <f>(E334-C334)/C334*100</f>
+        <f t="shared" si="33"/>
         <v>32.450331125827816</v>
       </c>
       <c r="E334" s="17">
         <v>200</v>
       </c>
       <c r="G334" s="18">
-        <f>F334*C334</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J334" s="14">
-        <f>C334*A334</f>
+        <f t="shared" si="35"/>
         <v>604</v>
       </c>
     </row>
@@ -10528,18 +10528,18 @@
         <v>407</v>
       </c>
       <c r="D335" s="21">
-        <f>(E335-C335)/C335*100</f>
+        <f t="shared" si="33"/>
         <v>30.22113022113022</v>
       </c>
       <c r="E335" s="17">
         <v>530</v>
       </c>
       <c r="G335" s="18">
-        <f>F335*C335</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J335" s="14">
-        <f>C335*A335</f>
+        <f t="shared" si="35"/>
         <v>2442</v>
       </c>
     </row>
@@ -10554,18 +10554,18 @@
         <v>769</v>
       </c>
       <c r="D336" s="21">
-        <f>(E336-C336)/C336*100</f>
+        <f t="shared" si="33"/>
         <v>30.039011703511054</v>
       </c>
       <c r="E336" s="17">
         <v>1000</v>
       </c>
       <c r="G336" s="18">
-        <f>F336*C336</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J336" s="14">
-        <f>C336*A336</f>
+        <f t="shared" si="35"/>
         <v>3076</v>
       </c>
     </row>
@@ -10580,18 +10580,18 @@
         <v>155</v>
       </c>
       <c r="D337" s="21">
-        <f>(E337-C337)/C337*100</f>
+        <f t="shared" si="33"/>
         <v>35.483870967741936</v>
       </c>
       <c r="E337" s="17">
         <v>210</v>
       </c>
       <c r="G337" s="18">
-        <f>F337*C337</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J337" s="14">
-        <f>C337*A337</f>
+        <f t="shared" si="35"/>
         <v>620</v>
       </c>
     </row>
@@ -10603,18 +10603,18 @@
         <v>4673</v>
       </c>
       <c r="D338" s="21">
-        <f>(E338-C338)/C338*100</f>
+        <f t="shared" si="33"/>
         <v>20.051358870104856</v>
       </c>
       <c r="E338" s="17">
         <v>5610</v>
       </c>
       <c r="G338" s="18">
-        <f>F338*C338</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J338" s="14">
-        <f>C338*A338</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10626,18 +10626,18 @@
         <v>1082</v>
       </c>
       <c r="D339" s="21">
-        <f>(E339-C339)/C339*100</f>
+        <f t="shared" si="33"/>
         <v>35.85951940850277</v>
       </c>
       <c r="E339" s="17">
         <v>1470</v>
       </c>
       <c r="G339" s="18">
-        <f>F339*C339</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J339" s="14">
-        <f>C339*A339</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10649,18 +10649,18 @@
         <v>988</v>
       </c>
       <c r="D340" s="21">
-        <f>(E340-C340)/C340*100</f>
+        <f t="shared" ref="D340:D371" si="36">(E340-C340)/C340*100</f>
         <v>35.627530364372468</v>
       </c>
       <c r="E340" s="17">
         <v>1340</v>
       </c>
       <c r="G340" s="18">
-        <f>F340*C340</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J340" s="14">
-        <f>C340*A340</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10672,18 +10672,18 @@
         <v>805</v>
       </c>
       <c r="D341" s="21">
-        <f>(E341-C341)/C341*100</f>
+        <f t="shared" si="36"/>
         <v>35.403726708074537</v>
       </c>
       <c r="E341" s="17">
         <v>1090</v>
       </c>
       <c r="G341" s="18">
-        <f>F341*C341</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J341" s="14">
-        <f>C341*A341</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10695,18 +10695,18 @@
         <v>988</v>
       </c>
       <c r="D342" s="21">
-        <f>(E342-C342)/C342*100</f>
+        <f t="shared" si="36"/>
         <v>35.627530364372468</v>
       </c>
       <c r="E342" s="17">
         <v>1340</v>
       </c>
       <c r="G342" s="18">
-        <f>F342*C342</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J342" s="14">
-        <f>C342*A342</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10718,18 +10718,18 @@
         <v>457</v>
       </c>
       <c r="D343" s="21">
-        <f>(E343-C343)/C343*100</f>
+        <f t="shared" si="36"/>
         <v>35.667396061269145</v>
       </c>
       <c r="E343" s="17">
         <v>620</v>
       </c>
       <c r="G343" s="18">
-        <f>F343*C343</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J343" s="14">
-        <f>C343*A343</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10741,18 +10741,18 @@
         <v>988</v>
       </c>
       <c r="D344" s="21">
-        <f>(E344-C344)/C344*100</f>
+        <f t="shared" si="36"/>
         <v>35.627530364372468</v>
       </c>
       <c r="E344" s="17">
         <v>1340</v>
       </c>
       <c r="G344" s="18">
-        <f>F344*C344</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J344" s="14">
-        <f>C344*A344</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10764,18 +10764,18 @@
         <v>988</v>
       </c>
       <c r="D345" s="21">
-        <f>(E345-C345)/C345*100</f>
+        <f t="shared" si="36"/>
         <v>35.627530364372468</v>
       </c>
       <c r="E345" s="17">
         <v>1340</v>
       </c>
       <c r="G345" s="18">
-        <f>F345*C345</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J345" s="14">
-        <f>C345*A345</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -10790,18 +10790,18 @@
         <v>201</v>
       </c>
       <c r="D346" s="21">
-        <f>(E346-C346)/C346*100</f>
+        <f t="shared" si="36"/>
         <v>34.328358208955223</v>
       </c>
       <c r="E346" s="17">
         <v>270</v>
       </c>
       <c r="G346" s="18">
-        <f>F346*C346</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J346" s="14">
-        <f>C346*A346</f>
+        <f t="shared" si="35"/>
         <v>804</v>
       </c>
     </row>
@@ -10816,18 +10816,18 @@
         <v>666</v>
       </c>
       <c r="D347" s="21">
-        <f>(E347-C347)/C347*100</f>
+        <f t="shared" si="36"/>
         <v>20.12012012012012</v>
       </c>
       <c r="E347" s="17">
         <v>800</v>
       </c>
       <c r="G347" s="18">
-        <f>F347*C347</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J347" s="14">
-        <f>C347*A347</f>
+        <f t="shared" si="35"/>
         <v>2664</v>
       </c>
     </row>
@@ -10842,18 +10842,18 @@
         <v>654</v>
       </c>
       <c r="D348" s="21">
-        <f>(E348-C348)/C348*100</f>
+        <f t="shared" si="36"/>
         <v>20.030581039755351</v>
       </c>
       <c r="E348" s="17">
         <v>785</v>
       </c>
       <c r="G348" s="18">
-        <f>F348*C348</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J348" s="14">
-        <f>C348*A348</f>
+        <f t="shared" si="35"/>
         <v>2616</v>
       </c>
     </row>
@@ -10868,18 +10868,18 @@
         <v>1070</v>
       </c>
       <c r="D349" s="21">
-        <f>(E349-C349)/C349*100</f>
+        <f t="shared" si="36"/>
         <v>20.093457943925234</v>
       </c>
       <c r="E349" s="17">
         <v>1285</v>
       </c>
       <c r="G349" s="18">
-        <f>F349*C349</f>
+        <f t="shared" ref="G349:G380" si="37">F349*C349</f>
         <v>0</v>
       </c>
       <c r="J349" s="14">
-        <f>C349*A349</f>
+        <f t="shared" si="35"/>
         <v>4280</v>
       </c>
     </row>
@@ -10894,18 +10894,18 @@
         <v>603</v>
       </c>
       <c r="D350" s="21">
-        <f>(E350-C350)/C350*100</f>
+        <f t="shared" si="36"/>
         <v>20.232172470978441</v>
       </c>
       <c r="E350" s="17">
         <v>725</v>
       </c>
       <c r="G350" s="18">
-        <f>F350*C350</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J350" s="14">
-        <f>C350*A350</f>
+        <f t="shared" ref="J350:J381" si="38">C350*A350</f>
         <v>2412</v>
       </c>
     </row>
@@ -10920,18 +10920,18 @@
         <v>603</v>
       </c>
       <c r="D351" s="21">
-        <f>(E351-C351)/C351*100</f>
+        <f t="shared" si="36"/>
         <v>20.232172470978441</v>
       </c>
       <c r="E351" s="17">
         <v>725</v>
       </c>
       <c r="G351" s="18">
-        <f>F351*C351</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J351" s="14">
-        <f>C351*A351</f>
+        <f t="shared" si="38"/>
         <v>2412</v>
       </c>
     </row>
@@ -10946,18 +10946,18 @@
         <v>3120</v>
       </c>
       <c r="D352" s="21">
-        <f>(E352-C352)/C352*100</f>
+        <f t="shared" si="36"/>
         <v>60.256410256410255</v>
       </c>
       <c r="E352" s="17">
         <v>5000</v>
       </c>
       <c r="G352" s="18">
-        <f>F352*C352</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J352" s="14">
-        <f>C352*A352</f>
+        <f t="shared" si="38"/>
         <v>3120</v>
       </c>
     </row>
@@ -10972,18 +10972,18 @@
         <v>2097</v>
       </c>
       <c r="D353" s="21">
-        <f>(E353-C353)/C353*100</f>
+        <f t="shared" si="36"/>
         <v>43.061516452074393</v>
       </c>
       <c r="E353" s="17">
         <v>3000</v>
       </c>
       <c r="G353" s="18">
-        <f>F353*C353</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J353" s="14">
-        <f>C353*A353</f>
+        <f t="shared" si="38"/>
         <v>2097</v>
       </c>
     </row>
@@ -10998,7 +10998,7 @@
         <v>2097</v>
       </c>
       <c r="D354" s="21">
-        <f>(E354-C354)/C354*100</f>
+        <f t="shared" si="36"/>
         <v>43.061516452074393</v>
       </c>
       <c r="E354" s="17">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="G354" s="18"/>
       <c r="J354" s="14">
-        <f>C354*A354</f>
+        <f t="shared" si="38"/>
         <v>2097</v>
       </c>
     </row>
@@ -11021,18 +11021,18 @@
         <v>3669</v>
       </c>
       <c r="D355" s="21">
-        <f>(E355-C355)/C355*100</f>
+        <f t="shared" si="36"/>
         <v>36.276914690651402</v>
       </c>
       <c r="E355" s="17">
         <v>5000</v>
       </c>
       <c r="G355" s="18">
-        <f>F355*C355</f>
+        <f t="shared" ref="G355:G386" si="39">F355*C355</f>
         <v>0</v>
       </c>
       <c r="J355" s="14">
-        <f>C355*A355</f>
+        <f t="shared" si="38"/>
         <v>3669</v>
       </c>
     </row>
@@ -11047,18 +11047,18 @@
         <v>5230</v>
       </c>
       <c r="D356" s="21">
-        <f>(E356-C356)/C356*100</f>
+        <f t="shared" si="36"/>
         <v>57.743785850860419</v>
       </c>
       <c r="E356" s="17">
         <v>8250</v>
       </c>
       <c r="G356" s="18">
-        <f>F356*C356</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J356" s="14">
-        <f>C356*A356</f>
+        <f t="shared" si="38"/>
         <v>5230</v>
       </c>
     </row>
@@ -11073,18 +11073,18 @@
         <v>3120</v>
       </c>
       <c r="D357" s="21">
-        <f>(E357-C357)/C357*100</f>
+        <f t="shared" si="36"/>
         <v>60.256410256410255</v>
       </c>
       <c r="E357" s="17">
         <v>5000</v>
       </c>
       <c r="G357" s="18">
-        <f>F357*C357</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J357" s="14">
-        <f>C357*A357</f>
+        <f t="shared" si="38"/>
         <v>3120</v>
       </c>
     </row>
@@ -11099,18 +11099,18 @@
         <v>3669</v>
       </c>
       <c r="D358" s="21">
-        <f>(E358-C358)/C358*100</f>
+        <f t="shared" si="36"/>
         <v>36.276914690651402</v>
       </c>
       <c r="E358" s="17">
         <v>5000</v>
       </c>
       <c r="G358" s="18">
-        <f>F358*C358</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J358" s="14">
-        <f>C358*A358</f>
+        <f t="shared" si="38"/>
         <v>3669</v>
       </c>
     </row>
@@ -11125,18 +11125,18 @@
         <v>3846</v>
       </c>
       <c r="D359" s="21">
-        <f>(E359-C359)/C359*100</f>
+        <f t="shared" si="36"/>
         <v>35.595423816952675</v>
       </c>
       <c r="E359" s="17">
         <v>5215</v>
       </c>
       <c r="G359" s="18">
-        <f>F359*C359</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J359" s="14">
-        <f>C359*A359</f>
+        <f t="shared" si="38"/>
         <v>3846</v>
       </c>
     </row>
@@ -11151,18 +11151,18 @@
         <v>3846</v>
       </c>
       <c r="D360" s="21">
-        <f>(E360-C360)/C360*100</f>
+        <f t="shared" si="36"/>
         <v>35.595423816952675</v>
       </c>
       <c r="E360" s="17">
         <v>5215</v>
       </c>
       <c r="G360" s="18">
-        <f>F360*C360</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J360" s="14">
-        <f>C360*A360</f>
+        <f t="shared" si="38"/>
         <v>3846</v>
       </c>
     </row>
@@ -11177,18 +11177,18 @@
         <v>3846</v>
       </c>
       <c r="D361" s="21">
-        <f>(E361-C361)/C361*100</f>
+        <f t="shared" si="36"/>
         <v>35.595423816952675</v>
       </c>
       <c r="E361" s="17">
         <v>5215</v>
       </c>
       <c r="G361" s="18">
-        <f>F361*C361</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J361" s="14">
-        <f>C361*A361</f>
+        <f t="shared" si="38"/>
         <v>3846</v>
       </c>
     </row>
@@ -11200,18 +11200,18 @@
         <v>558</v>
       </c>
       <c r="D362" s="21">
-        <f>(E362-C362)/C362*100</f>
+        <f t="shared" si="36"/>
         <v>36.200716845878134</v>
       </c>
       <c r="E362" s="17">
         <v>760</v>
       </c>
       <c r="G362" s="18">
-        <f>F362*C362</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J362" s="14">
-        <f>C362*A362</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -11223,18 +11223,18 @@
         <v>558</v>
       </c>
       <c r="D363" s="21">
-        <f>(E363-C363)/C363*100</f>
+        <f t="shared" si="36"/>
         <v>36.200716845878134</v>
       </c>
       <c r="E363" s="17">
         <v>760</v>
       </c>
       <c r="G363" s="18">
-        <f>F363*C363</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J363" s="14">
-        <f>C363*A363</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -11249,18 +11249,18 @@
         <v>556</v>
       </c>
       <c r="D364" s="21">
-        <f>(E364-C364)/C364*100</f>
+        <f t="shared" si="36"/>
         <v>35.791366906474821</v>
       </c>
       <c r="E364" s="17">
         <v>755</v>
       </c>
       <c r="G364" s="18">
-        <f>F364*C364</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J364" s="14">
-        <f>C364*A364</f>
+        <f t="shared" si="38"/>
         <v>1112</v>
       </c>
     </row>
@@ -11275,18 +11275,18 @@
         <v>234</v>
       </c>
       <c r="D365" s="21">
-        <f>(E365-C365)/C365*100</f>
+        <f t="shared" si="36"/>
         <v>36.752136752136757</v>
       </c>
       <c r="E365" s="17">
         <v>320</v>
       </c>
       <c r="G365" s="18">
-        <f>F365*C365</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J365" s="14">
-        <f>C365*A365</f>
+        <f t="shared" si="38"/>
         <v>936</v>
       </c>
     </row>
@@ -11301,18 +11301,18 @@
         <v>589</v>
       </c>
       <c r="D366" s="21">
-        <f>(E366-C366)/C366*100</f>
+        <f t="shared" si="36"/>
         <v>19.694397283531409</v>
       </c>
       <c r="E366" s="17">
         <v>705</v>
       </c>
       <c r="G366" s="18">
-        <f>F366*C366</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J366" s="14">
-        <f>C366*A366</f>
+        <f t="shared" si="38"/>
         <v>1178</v>
       </c>
     </row>
@@ -11327,18 +11327,18 @@
         <v>792</v>
       </c>
       <c r="D367" s="21">
-        <f>(E367-C367)/C367*100</f>
+        <f t="shared" si="36"/>
         <v>19.949494949494952</v>
       </c>
       <c r="E367" s="17">
         <v>950</v>
       </c>
       <c r="G367" s="18">
-        <f>F367*C367</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J367" s="14">
-        <f>C367*A367</f>
+        <f t="shared" si="38"/>
         <v>1584</v>
       </c>
     </row>
@@ -11353,18 +11353,18 @@
         <v>409</v>
       </c>
       <c r="D368" s="21">
-        <f>(E368-C368)/C368*100</f>
+        <f t="shared" si="36"/>
         <v>19.804400977995108</v>
       </c>
       <c r="E368" s="17">
         <v>490</v>
       </c>
       <c r="G368" s="18">
-        <f>F368*C368</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J368" s="14">
-        <f>C368*A368</f>
+        <f t="shared" si="38"/>
         <v>818</v>
       </c>
     </row>
@@ -11379,18 +11379,18 @@
         <v>299</v>
       </c>
       <c r="D369" s="21">
-        <f>(E369-C369)/C369*100</f>
+        <f t="shared" si="36"/>
         <v>35.451505016722408</v>
       </c>
       <c r="E369" s="17">
         <v>405</v>
       </c>
       <c r="G369" s="18">
-        <f>F369*C369</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J369" s="14">
-        <f>C369*A369</f>
+        <f t="shared" si="38"/>
         <v>897</v>
       </c>
     </row>
@@ -11402,508 +11402,508 @@
         <v>1000</v>
       </c>
       <c r="D370" s="21">
-        <f>(E370-C370)/C370*100</f>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="E370" s="17">
         <v>1200</v>
       </c>
       <c r="G370" s="18">
-        <f>F370*C370</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J370" s="14">
-        <f>C370*A370</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D371" s="21" t="e">
-        <f>(E371-C371)/C371*100</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G371" s="18">
-        <f>F371*C371</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J371" s="14">
-        <f>C371*A371</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D372" s="21" t="e">
-        <f>(E372-C372)/C372*100</f>
+        <f t="shared" ref="D372:D403" si="40">(E372-C372)/C372*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G372" s="18">
-        <f>F372*C372</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J372" s="14">
-        <f>C372*A372</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D373" s="21" t="e">
-        <f>(E373-C373)/C373*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G373" s="18">
-        <f>F373*C373</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J373" s="14">
-        <f>C373*A373</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D374" s="21" t="e">
-        <f>(E374-C374)/C374*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G374" s="18">
-        <f>F374*C374</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J374" s="14">
-        <f>C374*A374</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D375" s="21" t="e">
-        <f>(E375-C375)/C375*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G375" s="18">
-        <f>F375*C375</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J375" s="14">
-        <f>C375*A375</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D376" s="21" t="e">
-        <f>(E376-C376)/C376*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G376" s="18">
-        <f>F376*C376</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J376" s="14">
-        <f>C376*A376</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D377" s="21" t="e">
-        <f>(E377-C377)/C377*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G377" s="18">
-        <f>F377*C377</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J377" s="14">
-        <f>C377*A377</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D378" s="21" t="e">
-        <f>(E378-C378)/C378*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G378" s="18">
-        <f>F378*C378</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J378" s="14">
-        <f>C378*A378</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D379" s="21" t="e">
-        <f>(E379-C379)/C379*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G379" s="18">
-        <f>F379*C379</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J379" s="14">
-        <f>C379*A379</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D380" s="21" t="e">
-        <f>(E380-C380)/C380*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G380" s="18">
-        <f>F380*C380</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J380" s="14">
-        <f>C380*A380</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D381" s="21" t="e">
-        <f>(E381-C381)/C381*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G381" s="18">
-        <f>F381*C381</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J381" s="14">
-        <f>C381*A381</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D382" s="21" t="e">
-        <f>(E382-C382)/C382*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G382" s="18">
-        <f>F382*C382</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J382" s="14">
-        <f>C382*A382</f>
+        <f t="shared" ref="J382:J405" si="41">C382*A382</f>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D383" s="21" t="e">
-        <f>(E383-C383)/C383*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G383" s="18">
-        <f>F383*C383</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J383" s="14">
-        <f>C383*A383</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D384" s="21" t="e">
-        <f>(E384-C384)/C384*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G384" s="18">
-        <f>F384*C384</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J384" s="14">
-        <f>C384*A384</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D385" s="21" t="e">
-        <f>(E385-C385)/C385*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G385" s="18">
-        <f>F385*C385</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J385" s="14">
-        <f>C385*A385</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D386" s="21" t="e">
-        <f>(E386-C386)/C386*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G386" s="18">
-        <f>F386*C386</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J386" s="14">
-        <f>C386*A386</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D387" s="21" t="e">
-        <f>(E387-C387)/C387*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G387" s="18">
-        <f>F387*C387</f>
+        <f t="shared" ref="G387:G418" si="42">F387*C387</f>
         <v>0</v>
       </c>
       <c r="J387" s="14">
-        <f>C387*A387</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D388" s="21" t="e">
-        <f>(E388-C388)/C388*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G388" s="18">
-        <f>F388*C388</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J388" s="14">
-        <f>C388*A388</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D389" s="21" t="e">
-        <f>(E389-C389)/C389*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G389" s="18">
-        <f>F389*C389</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J389" s="14">
-        <f>C389*A389</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D390" s="21" t="e">
-        <f>(E390-C390)/C390*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G390" s="18">
-        <f>F390*C390</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J390" s="14">
-        <f>C390*A390</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D391" s="21" t="e">
-        <f>(E391-C391)/C391*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G391" s="18">
-        <f>F391*C391</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J391" s="14">
-        <f>C391*A391</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D392" s="21" t="e">
-        <f>(E392-C392)/C392*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G392" s="18">
-        <f>F392*C392</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J392" s="14">
-        <f>C392*A392</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D393" s="21" t="e">
-        <f>(E393-C393)/C393*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G393" s="18">
-        <f>F393*C393</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J393" s="14">
-        <f>C393*A393</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D394" s="21" t="e">
-        <f>(E394-C394)/C394*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G394" s="18">
-        <f>F394*C394</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J394" s="14">
-        <f>C394*A394</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D395" s="21" t="e">
-        <f>(E395-C395)/C395*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G395" s="18">
-        <f>F395*C395</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J395" s="14">
-        <f>C395*A395</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D396" s="21" t="e">
-        <f>(E396-C396)/C396*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G396" s="18">
-        <f>F396*C396</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J396" s="14">
-        <f>C396*A396</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D397" s="21" t="e">
-        <f>(E397-C397)/C397*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G397" s="18">
-        <f>F397*C397</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J397" s="14">
-        <f>C397*A397</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D398" s="21" t="e">
-        <f>(E398-C398)/C398*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G398" s="18">
-        <f>F398*C398</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J398" s="14">
-        <f>C398*A398</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D399" s="21" t="e">
-        <f>(E399-C399)/C399*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G399" s="18">
-        <f>F399*C399</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J399" s="14">
-        <f>C399*A399</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D400" s="21" t="e">
-        <f>(E400-C400)/C400*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G400" s="18">
-        <f>F400*C400</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J400" s="14">
-        <f>C400*A400</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D401" s="21" t="e">
-        <f>(E401-C401)/C401*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G401" s="18">
-        <f>F401*C401</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J401" s="14">
-        <f>C401*A401</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D402" s="21" t="e">
-        <f>(E402-C402)/C402*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G402" s="18">
-        <f>F402*C402</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J402" s="14">
-        <f>C402*A402</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="4:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D403" s="21" t="e">
-        <f>(E403-C403)/C403*100</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G403" s="18">
-        <f>F403*C403</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J403" s="14">
-        <f>C403*A403</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D404" s="21" t="e">
-        <f>(E404-C404)/C404*100</f>
+        <f t="shared" ref="D404:D435" si="43">(E404-C404)/C404*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G404" s="18">
-        <f>F404*C404</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J404" s="14">
-        <f>C404*A404</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D405" s="21" t="e">
-        <f>(E405-C405)/C405*100</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G405" s="18">
-        <f>F405*C405</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J405" s="14">
-        <f>C405*A405</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
